--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F990"/>
+  <dimension ref="A1:F991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23214,6 +23214,26 @@
         <v>3275.71</v>
       </c>
     </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B991" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C991" t="n">
+        <v>5886.06</v>
+      </c>
+      <c r="D991" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E991" t="n">
+        <v>2755.41</v>
+      </c>
+      <c r="F991" t="n">
+        <v>2915.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F991"/>
+  <dimension ref="A1:F496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13334,9906 +13334,6 @@
         </is>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B497" s="2" t="n">
-        <v>44572</v>
-      </c>
-      <c r="C497" t="n">
-        <v>4349.29</v>
-      </c>
-      <c r="D497" t="n">
-        <v>53.72</v>
-      </c>
-      <c r="E497" t="n">
-        <v>2321.33</v>
-      </c>
-      <c r="F497" t="n">
-        <v>4681.3</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B498" s="2" t="n">
-        <v>44573</v>
-      </c>
-      <c r="C498" t="n">
-        <v>4343.34</v>
-      </c>
-      <c r="D498" t="n">
-        <v>54.03</v>
-      </c>
-      <c r="E498" t="n">
-        <v>2273.68</v>
-      </c>
-      <c r="F498" t="n">
-        <v>4607.52</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B499" s="2" t="n">
-        <v>44574</v>
-      </c>
-      <c r="C499" t="n">
-        <v>4352.31</v>
-      </c>
-      <c r="D499" t="n">
-        <v>54.13</v>
-      </c>
-      <c r="E499" t="n">
-        <v>2331.42</v>
-      </c>
-      <c r="F499" t="n">
-        <v>4583.78</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B500" s="2" t="n">
-        <v>44575</v>
-      </c>
-      <c r="C500" t="n">
-        <v>4369.08</v>
-      </c>
-      <c r="D500" t="n">
-        <v>54.53</v>
-      </c>
-      <c r="E500" t="n">
-        <v>2330.31</v>
-      </c>
-      <c r="F500" t="n">
-        <v>4526.36</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B501" s="2" t="n">
-        <v>44576</v>
-      </c>
-      <c r="C501" t="n">
-        <v>4438.92</v>
-      </c>
-      <c r="D501" t="n">
-        <v>56.62</v>
-      </c>
-      <c r="E501" t="n">
-        <v>2384.8</v>
-      </c>
-      <c r="F501" t="n">
-        <v>4586.91</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B502" s="2" t="n">
-        <v>44579</v>
-      </c>
-      <c r="C502" t="n">
-        <v>4449.57</v>
-      </c>
-      <c r="D502" t="n">
-        <v>56.47</v>
-      </c>
-      <c r="E502" t="n">
-        <v>2373.86</v>
-      </c>
-      <c r="F502" t="n">
-        <v>4620.58</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B503" s="2" t="n">
-        <v>44580</v>
-      </c>
-      <c r="C503" t="n">
-        <v>4444.09</v>
-      </c>
-      <c r="D503" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E503" t="n">
-        <v>2370.77</v>
-      </c>
-      <c r="F503" t="n">
-        <v>4609.02</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B504" s="2" t="n">
-        <v>44581</v>
-      </c>
-      <c r="C504" t="n">
-        <v>4491.8</v>
-      </c>
-      <c r="D504" t="n">
-        <v>56.63</v>
-      </c>
-      <c r="E504" t="n">
-        <v>2449.17</v>
-      </c>
-      <c r="F504" t="n">
-        <v>4678.39</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B505" s="2" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C505" t="n">
-        <v>4513.92</v>
-      </c>
-      <c r="D505" t="n">
-        <v>58.43</v>
-      </c>
-      <c r="E505" t="n">
-        <v>2568.22</v>
-      </c>
-      <c r="F505" t="n">
-        <v>5025.85</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B506" s="2" t="n">
-        <v>44583</v>
-      </c>
-      <c r="C506" t="n">
-        <v>4522.62</v>
-      </c>
-      <c r="D506" t="n">
-        <v>59.73</v>
-      </c>
-      <c r="E506" t="n">
-        <v>2579.07</v>
-      </c>
-      <c r="F506" t="n">
-        <v>5113.76</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B507" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="C507" t="n">
-        <v>4572.35</v>
-      </c>
-      <c r="D507" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E507" t="n">
-        <v>2576.88</v>
-      </c>
-      <c r="F507" t="n">
-        <v>5233.36</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B508" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="C508" t="n">
-        <v>4641.26</v>
-      </c>
-      <c r="D508" t="n">
-        <v>60.85</v>
-      </c>
-      <c r="E508" t="n">
-        <v>2581.5</v>
-      </c>
-      <c r="F508" t="n">
-        <v>5496.75</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B509" s="2" t="n">
-        <v>44588</v>
-      </c>
-      <c r="C509" t="n">
-        <v>4683.3</v>
-      </c>
-      <c r="D509" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="E509" t="n">
-        <v>2659.93</v>
-      </c>
-      <c r="F509" t="n">
-        <v>5695.49</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B510" s="2" t="n">
-        <v>44589</v>
-      </c>
-      <c r="C510" t="n">
-        <v>4608.11</v>
-      </c>
-      <c r="D510" t="n">
-        <v>60.56</v>
-      </c>
-      <c r="E510" t="n">
-        <v>2624.5</v>
-      </c>
-      <c r="F510" t="n">
-        <v>5995.24</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B511" s="2" t="n">
-        <v>44590</v>
-      </c>
-      <c r="C511" t="n">
-        <v>4478.88</v>
-      </c>
-      <c r="D511" t="n">
-        <v>57.97</v>
-      </c>
-      <c r="E511" t="n">
-        <v>2516.9</v>
-      </c>
-      <c r="F511" t="n">
-        <v>5694.29</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B512" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="C512" t="n">
-        <v>4459.89</v>
-      </c>
-      <c r="D512" t="n">
-        <v>56.04</v>
-      </c>
-      <c r="E512" t="n">
-        <v>2528.08</v>
-      </c>
-      <c r="F512" t="n">
-        <v>6022.57</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B513" s="2" t="n">
-        <v>44594</v>
-      </c>
-      <c r="C513" t="n">
-        <v>4479.74</v>
-      </c>
-      <c r="D513" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="E513" t="n">
-        <v>2571.54</v>
-      </c>
-      <c r="F513" t="n">
-        <v>5914.3</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B514" s="2" t="n">
-        <v>44595</v>
-      </c>
-      <c r="C514" t="n">
-        <v>4431.2</v>
-      </c>
-      <c r="D514" t="n">
-        <v>56.26</v>
-      </c>
-      <c r="E514" t="n">
-        <v>2554.95</v>
-      </c>
-      <c r="F514" t="n">
-        <v>5842.69</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B515" s="2" t="n">
-        <v>44596</v>
-      </c>
-      <c r="C515" t="n">
-        <v>4445.08</v>
-      </c>
-      <c r="D515" t="n">
-        <v>56.14</v>
-      </c>
-      <c r="E515" t="n">
-        <v>2538.29</v>
-      </c>
-      <c r="F515" t="n">
-        <v>5823.27</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B516" s="2" t="n">
-        <v>44597</v>
-      </c>
-      <c r="C516" t="n">
-        <v>4436.74</v>
-      </c>
-      <c r="D516" t="n">
-        <v>54.67</v>
-      </c>
-      <c r="E516" t="n">
-        <v>2513.55</v>
-      </c>
-      <c r="F516" t="n">
-        <v>5723.96</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B517" s="2" t="n">
-        <v>44600</v>
-      </c>
-      <c r="C517" t="n">
-        <v>4406.86</v>
-      </c>
-      <c r="D517" t="n">
-        <v>54.76</v>
-      </c>
-      <c r="E517" t="n">
-        <v>2467.25</v>
-      </c>
-      <c r="F517" t="n">
-        <v>5469.8</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B518" s="2" t="n">
-        <v>44601</v>
-      </c>
-      <c r="C518" t="n">
-        <v>4408.79</v>
-      </c>
-      <c r="D518" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="E518" t="n">
-        <v>2450.14</v>
-      </c>
-      <c r="F518" t="n">
-        <v>5420.81</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B519" s="2" t="n">
-        <v>44602</v>
-      </c>
-      <c r="C519" t="n">
-        <v>4396.44</v>
-      </c>
-      <c r="D519" t="n">
-        <v>54.98</v>
-      </c>
-      <c r="E519" t="n">
-        <v>2491.5</v>
-      </c>
-      <c r="F519" t="n">
-        <v>5406.27</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B520" s="2" t="n">
-        <v>44603</v>
-      </c>
-      <c r="C520" t="n">
-        <v>4401.98</v>
-      </c>
-      <c r="D520" t="n">
-        <v>55.86</v>
-      </c>
-      <c r="E520" t="n">
-        <v>2469.7</v>
-      </c>
-      <c r="F520" t="n">
-        <v>5501.57</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B521" s="2" t="n">
-        <v>44604</v>
-      </c>
-      <c r="C521" t="n">
-        <v>4402.86</v>
-      </c>
-      <c r="D521" t="n">
-        <v>56.31</v>
-      </c>
-      <c r="E521" t="n">
-        <v>2480.79</v>
-      </c>
-      <c r="F521" t="n">
-        <v>5402.77</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B522" s="2" t="n">
-        <v>44607</v>
-      </c>
-      <c r="C522" t="n">
-        <v>4568.94</v>
-      </c>
-      <c r="D522" t="n">
-        <v>56.37</v>
-      </c>
-      <c r="E522" t="n">
-        <v>2528.45</v>
-      </c>
-      <c r="F522" t="n">
-        <v>5682.25</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B523" s="2" t="n">
-        <v>44608</v>
-      </c>
-      <c r="C523" t="n">
-        <v>4542.75</v>
-      </c>
-      <c r="D523" t="n">
-        <v>58.01</v>
-      </c>
-      <c r="E523" t="n">
-        <v>2505.11</v>
-      </c>
-      <c r="F523" t="n">
-        <v>5593.04</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B524" s="2" t="n">
-        <v>44609</v>
-      </c>
-      <c r="C524" t="n">
-        <v>4472.36</v>
-      </c>
-      <c r="D524" t="n">
-        <v>56.16</v>
-      </c>
-      <c r="E524" t="n">
-        <v>2488.93</v>
-      </c>
-      <c r="F524" t="n">
-        <v>5484.34</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B525" s="2" t="n">
-        <v>44610</v>
-      </c>
-      <c r="C525" t="n">
-        <v>4594.7</v>
-      </c>
-      <c r="D525" t="n">
-        <v>57.23</v>
-      </c>
-      <c r="E525" t="n">
-        <v>2635.22</v>
-      </c>
-      <c r="F525" t="n">
-        <v>5645.5</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B526" s="2" t="n">
-        <v>44611</v>
-      </c>
-      <c r="C526" t="n">
-        <v>4596.23</v>
-      </c>
-      <c r="D526" t="n">
-        <v>57.45</v>
-      </c>
-      <c r="E526" t="n">
-        <v>2659.89</v>
-      </c>
-      <c r="F526" t="n">
-        <v>5641.31</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B527" s="2" t="n">
-        <v>44614</v>
-      </c>
-      <c r="C527" t="n">
-        <v>4678.19</v>
-      </c>
-      <c r="D527" t="n">
-        <v>58.67</v>
-      </c>
-      <c r="E527" t="n">
-        <v>2665.57</v>
-      </c>
-      <c r="F527" t="n">
-        <v>5824.76</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B528" s="2" t="n">
-        <v>44615</v>
-      </c>
-      <c r="C528" t="n">
-        <v>4899.6</v>
-      </c>
-      <c r="D528" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="E528" t="n">
-        <v>2800.14</v>
-      </c>
-      <c r="F528" t="n">
-        <v>6151</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B529" s="2" t="n">
-        <v>44617</v>
-      </c>
-      <c r="C529" t="n">
-        <v>5501.19</v>
-      </c>
-      <c r="D529" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="E529" t="n">
-        <v>3127.41</v>
-      </c>
-      <c r="F529" t="n">
-        <v>7322.44</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B530" s="2" t="n">
-        <v>44618</v>
-      </c>
-      <c r="C530" t="n">
-        <v>5136.31</v>
-      </c>
-      <c r="D530" t="n">
-        <v>68</v>
-      </c>
-      <c r="E530" t="n">
-        <v>2833.88</v>
-      </c>
-      <c r="F530" t="n">
-        <v>6634.78</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B531" s="2" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C531" t="n">
-        <v>5725.1</v>
-      </c>
-      <c r="D531" t="n">
-        <v>72.81999999999999</v>
-      </c>
-      <c r="E531" t="n">
-        <v>3197.49</v>
-      </c>
-      <c r="F531" t="n">
-        <v>7492.89</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B532" s="2" t="n">
-        <v>44622</v>
-      </c>
-      <c r="C532" t="n">
-        <v>5664.73</v>
-      </c>
-      <c r="D532" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="E532" t="n">
-        <v>3123.72</v>
-      </c>
-      <c r="F532" t="n">
-        <v>7565.96</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B533" s="2" t="n">
-        <v>44623</v>
-      </c>
-      <c r="C533" t="n">
-        <v>6393.4</v>
-      </c>
-      <c r="D533" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="E533" t="n">
-        <v>3531.97</v>
-      </c>
-      <c r="F533" t="n">
-        <v>8800.049999999999</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B534" s="2" t="n">
-        <v>44624</v>
-      </c>
-      <c r="C534" t="n">
-        <v>6953.99</v>
-      </c>
-      <c r="D534" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="E534" t="n">
-        <v>3912.83</v>
-      </c>
-      <c r="F534" t="n">
-        <v>9880.879999999999</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B535" s="2" t="n">
-        <v>44625</v>
-      </c>
-      <c r="C535" t="n">
-        <v>6612.7</v>
-      </c>
-      <c r="D535" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="E535" t="n">
-        <v>3694.51</v>
-      </c>
-      <c r="F535" t="n">
-        <v>9494.83</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B536" s="2" t="n">
-        <v>44626</v>
-      </c>
-      <c r="C536" t="n">
-        <v>6617.8</v>
-      </c>
-      <c r="D536" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="E536" t="n">
-        <v>3714.92</v>
-      </c>
-      <c r="F536" t="n">
-        <v>10086.77</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B537" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="C537" t="n">
-        <v>7610.16</v>
-      </c>
-      <c r="D537" t="n">
-        <v>97.48999999999999</v>
-      </c>
-      <c r="E537" t="n">
-        <v>4295.77</v>
-      </c>
-      <c r="F537" t="n">
-        <v>11196.62</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B538" s="2" t="n">
-        <v>44631</v>
-      </c>
-      <c r="C538" t="n">
-        <v>7731.42</v>
-      </c>
-      <c r="D538" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="E538" t="n">
-        <v>4164.4</v>
-      </c>
-      <c r="F538" t="n">
-        <v>11366.94</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B539" s="2" t="n">
-        <v>44632</v>
-      </c>
-      <c r="C539" t="n">
-        <v>7475.21</v>
-      </c>
-      <c r="D539" t="n">
-        <v>97.39</v>
-      </c>
-      <c r="E539" t="n">
-        <v>4001.39</v>
-      </c>
-      <c r="F539" t="n">
-        <v>11103.3</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B540" s="2" t="n">
-        <v>44635</v>
-      </c>
-      <c r="C540" t="n">
-        <v>7265.07</v>
-      </c>
-      <c r="D540" t="n">
-        <v>95.02</v>
-      </c>
-      <c r="E540" t="n">
-        <v>3870.31</v>
-      </c>
-      <c r="F540" t="n">
-        <v>9462.809999999999</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B541" s="2" t="n">
-        <v>44636</v>
-      </c>
-      <c r="C541" t="n">
-        <v>6913.1</v>
-      </c>
-      <c r="D541" t="n">
-        <v>90.95</v>
-      </c>
-      <c r="E541" t="n">
-        <v>3655.92</v>
-      </c>
-      <c r="F541" t="n">
-        <v>8695.360000000001</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B542" s="2" t="n">
-        <v>44637</v>
-      </c>
-      <c r="C542" t="n">
-        <v>6665.65</v>
-      </c>
-      <c r="D542" t="n">
-        <v>85.58</v>
-      </c>
-      <c r="E542" t="n">
-        <v>3515.64</v>
-      </c>
-      <c r="F542" t="n">
-        <v>8667.51</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B543" s="2" t="n">
-        <v>44638</v>
-      </c>
-      <c r="C543" t="n">
-        <v>6541.42</v>
-      </c>
-      <c r="D543" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="E543" t="n">
-        <v>3457.04</v>
-      </c>
-      <c r="F543" t="n">
-        <v>8292.18</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B544" s="2" t="n">
-        <v>44639</v>
-      </c>
-      <c r="C544" t="n">
-        <v>6460.03</v>
-      </c>
-      <c r="D544" t="n">
-        <v>84.69</v>
-      </c>
-      <c r="E544" t="n">
-        <v>3459.12</v>
-      </c>
-      <c r="F544" t="n">
-        <v>8592.65</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B545" s="2" t="n">
-        <v>44642</v>
-      </c>
-      <c r="C545" t="n">
-        <v>6478.95</v>
-      </c>
-      <c r="D545" t="n">
-        <v>84.93000000000001</v>
-      </c>
-      <c r="E545" t="n">
-        <v>3463.2</v>
-      </c>
-      <c r="F545" t="n">
-        <v>8518.33</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B546" s="2" t="n">
-        <v>44643</v>
-      </c>
-      <c r="C546" t="n">
-        <v>6455.72</v>
-      </c>
-      <c r="D546" t="n">
-        <v>83.77</v>
-      </c>
-      <c r="E546" t="n">
-        <v>3446.44</v>
-      </c>
-      <c r="F546" t="n">
-        <v>8515.719999999999</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B547" s="2" t="n">
-        <v>44644</v>
-      </c>
-      <c r="C547" t="n">
-        <v>6408.41</v>
-      </c>
-      <c r="D547" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="E547" t="n">
-        <v>3396.33</v>
-      </c>
-      <c r="F547" t="n">
-        <v>8507.4</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B548" s="2" t="n">
-        <v>44645</v>
-      </c>
-      <c r="C548" t="n">
-        <v>6008.83</v>
-      </c>
-      <c r="D548" t="n">
-        <v>77.23999999999999</v>
-      </c>
-      <c r="E548" t="n">
-        <v>3162.05</v>
-      </c>
-      <c r="F548" t="n">
-        <v>7920.57</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B549" s="2" t="n">
-        <v>44646</v>
-      </c>
-      <c r="C549" t="n">
-        <v>6017.86</v>
-      </c>
-      <c r="D549" t="n">
-        <v>77.86</v>
-      </c>
-      <c r="E549" t="n">
-        <v>3140.18</v>
-      </c>
-      <c r="F549" t="n">
-        <v>7658.23</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B550" s="2" t="n">
-        <v>44649</v>
-      </c>
-      <c r="C550" t="n">
-        <v>5805.91</v>
-      </c>
-      <c r="D550" t="n">
-        <v>75.04000000000001</v>
-      </c>
-      <c r="E550" t="n">
-        <v>2985.81</v>
-      </c>
-      <c r="F550" t="n">
-        <v>6800.17</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B551" s="2" t="n">
-        <v>44650</v>
-      </c>
-      <c r="C551" t="n">
-        <v>5301.45</v>
-      </c>
-      <c r="D551" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="E551" t="n">
-        <v>2729.72</v>
-      </c>
-      <c r="F551" t="n">
-        <v>6216.76</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B552" s="2" t="n">
-        <v>44651</v>
-      </c>
-      <c r="C552" t="n">
-        <v>5184.57</v>
-      </c>
-      <c r="D552" t="n">
-        <v>66.92</v>
-      </c>
-      <c r="E552" t="n">
-        <v>2660.14</v>
-      </c>
-      <c r="F552" t="n">
-        <v>5839.34</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B553" s="2" t="n">
-        <v>44652</v>
-      </c>
-      <c r="C553" t="n">
-        <v>5159.82</v>
-      </c>
-      <c r="D553" t="n">
-        <v>66.55</v>
-      </c>
-      <c r="E553" t="n">
-        <v>2641.46</v>
-      </c>
-      <c r="F553" t="n">
-        <v>5910.43</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B554" s="2" t="n">
-        <v>44653</v>
-      </c>
-      <c r="C554" t="n">
-        <v>5185.8</v>
-      </c>
-      <c r="D554" t="n">
-        <v>66.23</v>
-      </c>
-      <c r="E554" t="n">
-        <v>2650.1</v>
-      </c>
-      <c r="F554" t="n">
-        <v>6102.2</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B555" s="2" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C555" t="n">
-        <v>5185.42</v>
-      </c>
-      <c r="D555" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="E555" t="n">
-        <v>2674.14</v>
-      </c>
-      <c r="F555" t="n">
-        <v>6243.25</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B556" s="2" t="n">
-        <v>44657</v>
-      </c>
-      <c r="C556" t="n">
-        <v>5172.87</v>
-      </c>
-      <c r="D556" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="E556" t="n">
-        <v>2639.63</v>
-      </c>
-      <c r="F556" t="n">
-        <v>6155.56</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B557" s="2" t="n">
-        <v>44658</v>
-      </c>
-      <c r="C557" t="n">
-        <v>5162.48</v>
-      </c>
-      <c r="D557" t="n">
-        <v>65.53</v>
-      </c>
-      <c r="E557" t="n">
-        <v>2605.07</v>
-      </c>
-      <c r="F557" t="n">
-        <v>6091.78</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B558" s="2" t="n">
-        <v>44659</v>
-      </c>
-      <c r="C558" t="n">
-        <v>4732.04</v>
-      </c>
-      <c r="D558" t="n">
-        <v>59.49</v>
-      </c>
-      <c r="E558" t="n">
-        <v>2360.93</v>
-      </c>
-      <c r="F558" t="n">
-        <v>5491.68</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B559" s="2" t="n">
-        <v>44660</v>
-      </c>
-      <c r="C559" t="n">
-        <v>4650.29</v>
-      </c>
-      <c r="D559" t="n">
-        <v>58.67</v>
-      </c>
-      <c r="E559" t="n">
-        <v>2303.01</v>
-      </c>
-      <c r="F559" t="n">
-        <v>5433.84</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B560" s="2" t="n">
-        <v>44663</v>
-      </c>
-      <c r="C560" t="n">
-        <v>4940.94</v>
-      </c>
-      <c r="D560" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="E560" t="n">
-        <v>2473.78</v>
-      </c>
-      <c r="F560" t="n">
-        <v>6214.98</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B561" s="2" t="n">
-        <v>44664</v>
-      </c>
-      <c r="C561" t="n">
-        <v>4996.12</v>
-      </c>
-      <c r="D561" t="n">
-        <v>64.13</v>
-      </c>
-      <c r="E561" t="n">
-        <v>2519.12</v>
-      </c>
-      <c r="F561" t="n">
-        <v>6387.4</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B562" s="2" t="n">
-        <v>44665</v>
-      </c>
-      <c r="C562" t="n">
-        <v>5033.78</v>
-      </c>
-      <c r="D562" t="n">
-        <v>64.19</v>
-      </c>
-      <c r="E562" t="n">
-        <v>2482.43</v>
-      </c>
-      <c r="F562" t="n">
-        <v>6032.78</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B563" s="2" t="n">
-        <v>44666</v>
-      </c>
-      <c r="C563" t="n">
-        <v>5166.17</v>
-      </c>
-      <c r="D563" t="n">
-        <v>67.01000000000001</v>
-      </c>
-      <c r="E563" t="n">
-        <v>2561.2</v>
-      </c>
-      <c r="F563" t="n">
-        <v>6235.73</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B564" s="2" t="n">
-        <v>44667</v>
-      </c>
-      <c r="C564" t="n">
-        <v>5052.35</v>
-      </c>
-      <c r="D564" t="n">
-        <v>66.02</v>
-      </c>
-      <c r="E564" t="n">
-        <v>2514.27</v>
-      </c>
-      <c r="F564" t="n">
-        <v>6127.41</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B565" s="2" t="n">
-        <v>44670</v>
-      </c>
-      <c r="C565" t="n">
-        <v>5015.06</v>
-      </c>
-      <c r="D565" t="n">
-        <v>65.53</v>
-      </c>
-      <c r="E565" t="n">
-        <v>2495.72</v>
-      </c>
-      <c r="F565" t="n">
-        <v>6082.19</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B566" s="2" t="n">
-        <v>44671</v>
-      </c>
-      <c r="C566" t="n">
-        <v>4988.28</v>
-      </c>
-      <c r="D566" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="E566" t="n">
-        <v>2482.39</v>
-      </c>
-      <c r="F566" t="n">
-        <v>6049.72</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B567" s="2" t="n">
-        <v>44672</v>
-      </c>
-      <c r="C567" t="n">
-        <v>4867.2</v>
-      </c>
-      <c r="D567" t="n">
-        <v>64.22</v>
-      </c>
-      <c r="E567" t="n">
-        <v>2505.47</v>
-      </c>
-      <c r="F567" t="n">
-        <v>5843.61</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B568" s="2" t="n">
-        <v>44673</v>
-      </c>
-      <c r="C568" t="n">
-        <v>4700.9</v>
-      </c>
-      <c r="D568" t="n">
-        <v>60.76</v>
-      </c>
-      <c r="E568" t="n">
-        <v>2375.1</v>
-      </c>
-      <c r="F568" t="n">
-        <v>5799.11</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B569" s="2" t="n">
-        <v>44674</v>
-      </c>
-      <c r="C569" t="n">
-        <v>4593.43</v>
-      </c>
-      <c r="D569" t="n">
-        <v>58.24</v>
-      </c>
-      <c r="E569" t="n">
-        <v>2311.25</v>
-      </c>
-      <c r="F569" t="n">
-        <v>5747.4</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B570" s="2" t="n">
-        <v>44677</v>
-      </c>
-      <c r="C570" t="n">
-        <v>4579.36</v>
-      </c>
-      <c r="D570" t="n">
-        <v>57.42</v>
-      </c>
-      <c r="E570" t="n">
-        <v>2217.1</v>
-      </c>
-      <c r="F570" t="n">
-        <v>5672.46</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B571" s="2" t="n">
-        <v>44678</v>
-      </c>
-      <c r="C571" t="n">
-        <v>4429.83</v>
-      </c>
-      <c r="D571" t="n">
-        <v>54.97</v>
-      </c>
-      <c r="E571" t="n">
-        <v>2143.62</v>
-      </c>
-      <c r="F571" t="n">
-        <v>4944.12</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B572" s="2" t="n">
-        <v>44679</v>
-      </c>
-      <c r="C572" t="n">
-        <v>4462.53</v>
-      </c>
-      <c r="D572" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="E572" t="n">
-        <v>2143.87</v>
-      </c>
-      <c r="F572" t="n">
-        <v>5121.86</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B573" s="2" t="n">
-        <v>44680</v>
-      </c>
-      <c r="C573" t="n">
-        <v>4383.25</v>
-      </c>
-      <c r="D573" t="n">
-        <v>54.94</v>
-      </c>
-      <c r="E573" t="n">
-        <v>2161.64</v>
-      </c>
-      <c r="F573" t="n">
-        <v>5239.08</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B574" s="2" t="n">
-        <v>44681</v>
-      </c>
-      <c r="C574" t="n">
-        <v>4312.32</v>
-      </c>
-      <c r="D574" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="E574" t="n">
-        <v>2089.37</v>
-      </c>
-      <c r="F574" t="n">
-        <v>5135.51</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B575" s="2" t="n">
-        <v>44686</v>
-      </c>
-      <c r="C575" t="n">
-        <v>4172.75</v>
-      </c>
-      <c r="D575" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="E575" t="n">
-        <v>2146.97</v>
-      </c>
-      <c r="F575" t="n">
-        <v>4976.86</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B576" s="2" t="n">
-        <v>44687</v>
-      </c>
-      <c r="C576" t="n">
-        <v>3968.82</v>
-      </c>
-      <c r="D576" t="n">
-        <v>48.12</v>
-      </c>
-      <c r="E576" t="n">
-        <v>2069.96</v>
-      </c>
-      <c r="F576" t="n">
-        <v>4742.6</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B577" s="2" t="n">
-        <v>44688</v>
-      </c>
-      <c r="C577" t="n">
-        <v>4099.58</v>
-      </c>
-      <c r="D577" t="n">
-        <v>49.64</v>
-      </c>
-      <c r="E577" t="n">
-        <v>2149.12</v>
-      </c>
-      <c r="F577" t="n">
-        <v>4831.19</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B578" s="2" t="n">
-        <v>44693</v>
-      </c>
-      <c r="C578" t="n">
-        <v>4110.72</v>
-      </c>
-      <c r="D578" t="n">
-        <v>48.39</v>
-      </c>
-      <c r="E578" t="n">
-        <v>2184.45</v>
-      </c>
-      <c r="F578" t="n">
-        <v>4554.81</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B579" s="2" t="n">
-        <v>44694</v>
-      </c>
-      <c r="C579" t="n">
-        <v>3917.33</v>
-      </c>
-      <c r="D579" t="n">
-        <v>46.08</v>
-      </c>
-      <c r="E579" t="n">
-        <v>2062.37</v>
-      </c>
-      <c r="F579" t="n">
-        <v>4332.03</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B580" s="2" t="n">
-        <v>44695</v>
-      </c>
-      <c r="C580" t="n">
-        <v>3767</v>
-      </c>
-      <c r="D580" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="E580" t="n">
-        <v>1972.65</v>
-      </c>
-      <c r="F580" t="n">
-        <v>3920.69</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B581" s="2" t="n">
-        <v>44698</v>
-      </c>
-      <c r="C581" t="n">
-        <v>3695.18</v>
-      </c>
-      <c r="D581" t="n">
-        <v>42.51</v>
-      </c>
-      <c r="E581" t="n">
-        <v>1923.52</v>
-      </c>
-      <c r="F581" t="n">
-        <v>3940.87</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B582" s="2" t="n">
-        <v>44699</v>
-      </c>
-      <c r="C582" t="n">
-        <v>3696.71</v>
-      </c>
-      <c r="D582" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="E582" t="n">
-        <v>1930.58</v>
-      </c>
-      <c r="F582" t="n">
-        <v>4024.61</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B583" s="2" t="n">
-        <v>44700</v>
-      </c>
-      <c r="C583" t="n">
-        <v>3729.64</v>
-      </c>
-      <c r="D583" t="n">
-        <v>44.51</v>
-      </c>
-      <c r="E583" t="n">
-        <v>1955.76</v>
-      </c>
-      <c r="F583" t="n">
-        <v>4248.72</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B584" s="2" t="n">
-        <v>44701</v>
-      </c>
-      <c r="C584" t="n">
-        <v>3632.72</v>
-      </c>
-      <c r="D584" t="n">
-        <v>43.47</v>
-      </c>
-      <c r="E584" t="n">
-        <v>1901.98</v>
-      </c>
-      <c r="F584" t="n">
-        <v>4173.11</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B585" s="2" t="n">
-        <v>44702</v>
-      </c>
-      <c r="C585" t="n">
-        <v>3491.12</v>
-      </c>
-      <c r="D585" t="n">
-        <v>40.82</v>
-      </c>
-      <c r="E585" t="n">
-        <v>1798.57</v>
-      </c>
-      <c r="F585" t="n">
-        <v>3748.6</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B586" s="2" t="n">
-        <v>44705</v>
-      </c>
-      <c r="C586" t="n">
-        <v>3432.62</v>
-      </c>
-      <c r="D586" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="E586" t="n">
-        <v>1796.59</v>
-      </c>
-      <c r="F586" t="n">
-        <v>3750.39</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B587" s="2" t="n">
-        <v>44706</v>
-      </c>
-      <c r="C587" t="n">
-        <v>3399.81</v>
-      </c>
-      <c r="D587" t="n">
-        <v>40.45</v>
-      </c>
-      <c r="E587" t="n">
-        <v>1774.82</v>
-      </c>
-      <c r="F587" t="n">
-        <v>3670.52</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B588" s="2" t="n">
-        <v>44707</v>
-      </c>
-      <c r="C588" t="n">
-        <v>3379.59</v>
-      </c>
-      <c r="D588" t="n">
-        <v>39.69</v>
-      </c>
-      <c r="E588" t="n">
-        <v>1728.62</v>
-      </c>
-      <c r="F588" t="n">
-        <v>3614.72</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B589" s="2" t="n">
-        <v>44708</v>
-      </c>
-      <c r="C589" t="n">
-        <v>3685.05</v>
-      </c>
-      <c r="D589" t="n">
-        <v>43.55</v>
-      </c>
-      <c r="E589" t="n">
-        <v>1885.21</v>
-      </c>
-      <c r="F589" t="n">
-        <v>3975.91</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B590" s="2" t="n">
-        <v>44709</v>
-      </c>
-      <c r="C590" t="n">
-        <v>3945.83</v>
-      </c>
-      <c r="D590" t="n">
-        <v>46.72</v>
-      </c>
-      <c r="E590" t="n">
-        <v>2011.08</v>
-      </c>
-      <c r="F590" t="n">
-        <v>4254.86</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B591" s="2" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C591" t="n">
-        <v>3756.62</v>
-      </c>
-      <c r="D591" t="n">
-        <v>45.19</v>
-      </c>
-      <c r="E591" t="n">
-        <v>1937.34</v>
-      </c>
-      <c r="F591" t="n">
-        <v>4146.52</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B592" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C592" t="n">
-        <v>3674.11</v>
-      </c>
-      <c r="D592" t="n">
-        <v>43.64</v>
-      </c>
-      <c r="E592" t="n">
-        <v>1889.59</v>
-      </c>
-      <c r="F592" t="n">
-        <v>4038.66</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B593" s="2" t="n">
-        <v>44714</v>
-      </c>
-      <c r="C593" t="n">
-        <v>3634.03</v>
-      </c>
-      <c r="D593" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="E593" t="n">
-        <v>1903.28</v>
-      </c>
-      <c r="F593" t="n">
-        <v>4016.07</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B594" s="2" t="n">
-        <v>44715</v>
-      </c>
-      <c r="C594" t="n">
-        <v>3652.31</v>
-      </c>
-      <c r="D594" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="E594" t="n">
-        <v>1959.88</v>
-      </c>
-      <c r="F594" t="n">
-        <v>3987.08</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B595" s="2" t="n">
-        <v>44716</v>
-      </c>
-      <c r="C595" t="n">
-        <v>3675.5</v>
-      </c>
-      <c r="D595" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="E595" t="n">
-        <v>1972.33</v>
-      </c>
-      <c r="F595" t="n">
-        <v>4012.39</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B596" s="2" t="n">
-        <v>44719</v>
-      </c>
-      <c r="C596" t="n">
-        <v>3624.7</v>
-      </c>
-      <c r="D596" t="n">
-        <v>42.46</v>
-      </c>
-      <c r="E596" t="n">
-        <v>1945.06</v>
-      </c>
-      <c r="F596" t="n">
-        <v>3956.93</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B597" s="2" t="n">
-        <v>44720</v>
-      </c>
-      <c r="C597" t="n">
-        <v>3620.13</v>
-      </c>
-      <c r="D597" t="n">
-        <v>43.62</v>
-      </c>
-      <c r="E597" t="n">
-        <v>2016.63</v>
-      </c>
-      <c r="F597" t="n">
-        <v>3948.99</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B598" s="2" t="n">
-        <v>44721</v>
-      </c>
-      <c r="C598" t="n">
-        <v>3581.53</v>
-      </c>
-      <c r="D598" t="n">
-        <v>42.77</v>
-      </c>
-      <c r="E598" t="n">
-        <v>1949.93</v>
-      </c>
-      <c r="F598" t="n">
-        <v>3775.94</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B599" s="2" t="n">
-        <v>44722</v>
-      </c>
-      <c r="C599" t="n">
-        <v>3478.48</v>
-      </c>
-      <c r="D599" t="n">
-        <v>41.15</v>
-      </c>
-      <c r="E599" t="n">
-        <v>1881.02</v>
-      </c>
-      <c r="F599" t="n">
-        <v>3660.67</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B600" s="2" t="n">
-        <v>44723</v>
-      </c>
-      <c r="C600" t="n">
-        <v>3427</v>
-      </c>
-      <c r="D600" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E600" t="n">
-        <v>1831.6</v>
-      </c>
-      <c r="F600" t="n">
-        <v>3568.46</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B601" s="2" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C601" t="n">
-        <v>3360.65</v>
-      </c>
-      <c r="D601" t="n">
-        <v>39.57</v>
-      </c>
-      <c r="E601" t="n">
-        <v>1743.79</v>
-      </c>
-      <c r="F601" t="n">
-        <v>3414.16</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B602" s="2" t="n">
-        <v>44728</v>
-      </c>
-      <c r="C602" t="n">
-        <v>3312.46</v>
-      </c>
-      <c r="D602" t="n">
-        <v>38.68</v>
-      </c>
-      <c r="E602" t="n">
-        <v>1699.68</v>
-      </c>
-      <c r="F602" t="n">
-        <v>3297.34</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B603" s="2" t="n">
-        <v>44729</v>
-      </c>
-      <c r="C603" t="n">
-        <v>3334.51</v>
-      </c>
-      <c r="D603" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="E603" t="n">
-        <v>1727.82</v>
-      </c>
-      <c r="F603" t="n">
-        <v>3409.93</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B604" s="2" t="n">
-        <v>44730</v>
-      </c>
-      <c r="C604" t="n">
-        <v>3330.2</v>
-      </c>
-      <c r="D604" t="n">
-        <v>39.08</v>
-      </c>
-      <c r="E604" t="n">
-        <v>1719.34</v>
-      </c>
-      <c r="F604" t="n">
-        <v>3402.22</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B605" s="2" t="n">
-        <v>44733</v>
-      </c>
-      <c r="C605" t="n">
-        <v>3325.83</v>
-      </c>
-      <c r="D605" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="E605" t="n">
-        <v>1703.05</v>
-      </c>
-      <c r="F605" t="n">
-        <v>3359.15</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B606" s="2" t="n">
-        <v>44734</v>
-      </c>
-      <c r="C606" t="n">
-        <v>3230.23</v>
-      </c>
-      <c r="D606" t="n">
-        <v>38.09</v>
-      </c>
-      <c r="E606" t="n">
-        <v>1655.13</v>
-      </c>
-      <c r="F606" t="n">
-        <v>3289.15</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B607" s="2" t="n">
-        <v>44735</v>
-      </c>
-      <c r="C607" t="n">
-        <v>3152.26</v>
-      </c>
-      <c r="D607" t="n">
-        <v>37.12</v>
-      </c>
-      <c r="E607" t="n">
-        <v>1606.75</v>
-      </c>
-      <c r="F607" t="n">
-        <v>3228.91</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B608" s="2" t="n">
-        <v>44736</v>
-      </c>
-      <c r="C608" t="n">
-        <v>3159.68</v>
-      </c>
-      <c r="D608" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="E608" t="n">
-        <v>1597.12</v>
-      </c>
-      <c r="F608" t="n">
-        <v>3199.39</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B609" s="2" t="n">
-        <v>44737</v>
-      </c>
-      <c r="C609" t="n">
-        <v>3157.73</v>
-      </c>
-      <c r="D609" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="E609" t="n">
-        <v>1575.52</v>
-      </c>
-      <c r="F609" t="n">
-        <v>3226.47</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B610" s="2" t="n">
-        <v>44740</v>
-      </c>
-      <c r="C610" t="n">
-        <v>3131.91</v>
-      </c>
-      <c r="D610" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="E610" t="n">
-        <v>1563</v>
-      </c>
-      <c r="F610" t="n">
-        <v>3192.91</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B611" s="2" t="n">
-        <v>44741</v>
-      </c>
-      <c r="C611" t="n">
-        <v>3110.23</v>
-      </c>
-      <c r="D611" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="E611" t="n">
-        <v>1548.05</v>
-      </c>
-      <c r="F611" t="n">
-        <v>3268.1</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B612" s="2" t="n">
-        <v>44742</v>
-      </c>
-      <c r="C612" t="n">
-        <v>2991.91</v>
-      </c>
-      <c r="D612" t="n">
-        <v>34.93</v>
-      </c>
-      <c r="E612" t="n">
-        <v>1519.76</v>
-      </c>
-      <c r="F612" t="n">
-        <v>3085.58</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B613" s="2" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C613" t="n">
-        <v>3068.92</v>
-      </c>
-      <c r="D613" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="E613" t="n">
-        <v>1575.19</v>
-      </c>
-      <c r="F613" t="n">
-        <v>3359.73</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B614" s="2" t="n">
-        <v>44744</v>
-      </c>
-      <c r="C614" t="n">
-        <v>3140.99</v>
-      </c>
-      <c r="D614" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="E614" t="n">
-        <v>1567.9</v>
-      </c>
-      <c r="F614" t="n">
-        <v>3263.72</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B615" s="2" t="n">
-        <v>44747</v>
-      </c>
-      <c r="C615" t="n">
-        <v>3183.37</v>
-      </c>
-      <c r="D615" t="n">
-        <v>34.93</v>
-      </c>
-      <c r="E615" t="n">
-        <v>1544.35</v>
-      </c>
-      <c r="F615" t="n">
-        <v>3389.79</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B616" s="2" t="n">
-        <v>44748</v>
-      </c>
-      <c r="C616" t="n">
-        <v>3401.96</v>
-      </c>
-      <c r="D616" t="n">
-        <v>37.35</v>
-      </c>
-      <c r="E616" t="n">
-        <v>1664.86</v>
-      </c>
-      <c r="F616" t="n">
-        <v>3677.74</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B617" s="2" t="n">
-        <v>44749</v>
-      </c>
-      <c r="C617" t="n">
-        <v>3584.11</v>
-      </c>
-      <c r="D617" t="n">
-        <v>40.13</v>
-      </c>
-      <c r="E617" t="n">
-        <v>1755.65</v>
-      </c>
-      <c r="F617" t="n">
-        <v>3838.96</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B618" s="2" t="n">
-        <v>44750</v>
-      </c>
-      <c r="C618" t="n">
-        <v>3561.38</v>
-      </c>
-      <c r="D618" t="n">
-        <v>39.02</v>
-      </c>
-      <c r="E618" t="n">
-        <v>1760.08</v>
-      </c>
-      <c r="F618" t="n">
-        <v>3972.87</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B619" s="2" t="n">
-        <v>44751</v>
-      </c>
-      <c r="C619" t="n">
-        <v>3443.04</v>
-      </c>
-      <c r="D619" t="n">
-        <v>38.26</v>
-      </c>
-      <c r="E619" t="n">
-        <v>1713.69</v>
-      </c>
-      <c r="F619" t="n">
-        <v>3880.43</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B620" s="2" t="n">
-        <v>44754</v>
-      </c>
-      <c r="C620" t="n">
-        <v>3425.96</v>
-      </c>
-      <c r="D620" t="n">
-        <v>37.84</v>
-      </c>
-      <c r="E620" t="n">
-        <v>1732.49</v>
-      </c>
-      <c r="F620" t="n">
-        <v>4077.97</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B621" s="2" t="n">
-        <v>44755</v>
-      </c>
-      <c r="C621" t="n">
-        <v>3292.43</v>
-      </c>
-      <c r="D621" t="n">
-        <v>36.35</v>
-      </c>
-      <c r="E621" t="n">
-        <v>1653.78</v>
-      </c>
-      <c r="F621" t="n">
-        <v>4073.91</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B622" s="2" t="n">
-        <v>44756</v>
-      </c>
-      <c r="C622" t="n">
-        <v>3256.92</v>
-      </c>
-      <c r="D622" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E622" t="n">
-        <v>1599.57</v>
-      </c>
-      <c r="F622" t="n">
-        <v>3995.17</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B623" s="2" t="n">
-        <v>44757</v>
-      </c>
-      <c r="C623" t="n">
-        <v>3230.17</v>
-      </c>
-      <c r="D623" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E623" t="n">
-        <v>1575.19</v>
-      </c>
-      <c r="F623" t="n">
-        <v>3775.96</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B624" s="2" t="n">
-        <v>44758</v>
-      </c>
-      <c r="C624" t="n">
-        <v>3162.2</v>
-      </c>
-      <c r="D624" t="n">
-        <v>34.88</v>
-      </c>
-      <c r="E624" t="n">
-        <v>1545.12</v>
-      </c>
-      <c r="F624" t="n">
-        <v>3564.37</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B625" s="2" t="n">
-        <v>44761</v>
-      </c>
-      <c r="C625" t="n">
-        <v>3102.63</v>
-      </c>
-      <c r="D625" t="n">
-        <v>33.57</v>
-      </c>
-      <c r="E625" t="n">
-        <v>1547.54</v>
-      </c>
-      <c r="F625" t="n">
-        <v>3389.68</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B626" s="2" t="n">
-        <v>44762</v>
-      </c>
-      <c r="C626" t="n">
-        <v>3063.93</v>
-      </c>
-      <c r="D626" t="n">
-        <v>33.65</v>
-      </c>
-      <c r="E626" t="n">
-        <v>1536.38</v>
-      </c>
-      <c r="F626" t="n">
-        <v>3338.32</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B627" s="2" t="n">
-        <v>44763</v>
-      </c>
-      <c r="C627" t="n">
-        <v>3020.86</v>
-      </c>
-      <c r="D627" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="E627" t="n">
-        <v>1553.59</v>
-      </c>
-      <c r="F627" t="n">
-        <v>3301.16</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B628" s="2" t="n">
-        <v>44764</v>
-      </c>
-      <c r="C628" t="n">
-        <v>3103.78</v>
-      </c>
-      <c r="D628" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E628" t="n">
-        <v>1576.13</v>
-      </c>
-      <c r="F628" t="n">
-        <v>3402.84</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B629" s="2" t="n">
-        <v>44765</v>
-      </c>
-      <c r="C629" t="n">
-        <v>3146.22</v>
-      </c>
-      <c r="D629" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="E629" t="n">
-        <v>1603.47</v>
-      </c>
-      <c r="F629" t="n">
-        <v>3457.88</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B630" s="2" t="n">
-        <v>44768</v>
-      </c>
-      <c r="C630" t="n">
-        <v>3226.8</v>
-      </c>
-      <c r="D630" t="n">
-        <v>34.94</v>
-      </c>
-      <c r="E630" t="n">
-        <v>1638.52</v>
-      </c>
-      <c r="F630" t="n">
-        <v>3613.3</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B631" s="2" t="n">
-        <v>44769</v>
-      </c>
-      <c r="C631" t="n">
-        <v>3241.81</v>
-      </c>
-      <c r="D631" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="E631" t="n">
-        <v>1661.55</v>
-      </c>
-      <c r="F631" t="n">
-        <v>3777.61</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B632" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="C632" t="n">
-        <v>3330.21</v>
-      </c>
-      <c r="D632" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="E632" t="n">
-        <v>1699.9</v>
-      </c>
-      <c r="F632" t="n">
-        <v>3833.5</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B633" s="2" t="n">
-        <v>44771</v>
-      </c>
-      <c r="C633" t="n">
-        <v>3317.67</v>
-      </c>
-      <c r="D633" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="E633" t="n">
-        <v>1707.18</v>
-      </c>
-      <c r="F633" t="n">
-        <v>3902.12</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B634" s="2" t="n">
-        <v>44772</v>
-      </c>
-      <c r="C634" t="n">
-        <v>3456.44</v>
-      </c>
-      <c r="D634" t="n">
-        <v>38.09</v>
-      </c>
-      <c r="E634" t="n">
-        <v>1754.34</v>
-      </c>
-      <c r="F634" t="n">
-        <v>4078.34</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B635" s="2" t="n">
-        <v>44775</v>
-      </c>
-      <c r="C635" t="n">
-        <v>3497.98</v>
-      </c>
-      <c r="D635" t="n">
-        <v>40.03</v>
-      </c>
-      <c r="E635" t="n">
-        <v>1773.53</v>
-      </c>
-      <c r="F635" t="n">
-        <v>4175.48</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B636" s="2" t="n">
-        <v>44776</v>
-      </c>
-      <c r="C636" t="n">
-        <v>3428.13</v>
-      </c>
-      <c r="D636" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="E636" t="n">
-        <v>1756.23</v>
-      </c>
-      <c r="F636" t="n">
-        <v>4220.36</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B637" s="2" t="n">
-        <v>44777</v>
-      </c>
-      <c r="C637" t="n">
-        <v>3446.8</v>
-      </c>
-      <c r="D637" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="E637" t="n">
-        <v>1772.06</v>
-      </c>
-      <c r="F637" t="n">
-        <v>4249.07</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B638" s="2" t="n">
-        <v>44778</v>
-      </c>
-      <c r="C638" t="n">
-        <v>3412.14</v>
-      </c>
-      <c r="D638" t="n">
-        <v>38.59</v>
-      </c>
-      <c r="E638" t="n">
-        <v>1747.48</v>
-      </c>
-      <c r="F638" t="n">
-        <v>3913.42</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B639" s="2" t="n">
-        <v>44779</v>
-      </c>
-      <c r="C639" t="n">
-        <v>3461.06</v>
-      </c>
-      <c r="D639" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="E639" t="n">
-        <v>1775.95</v>
-      </c>
-      <c r="F639" t="n">
-        <v>4033.24</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B640" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="C640" t="n">
-        <v>3438.71</v>
-      </c>
-      <c r="D640" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="E640" t="n">
-        <v>1803.47</v>
-      </c>
-      <c r="F640" t="n">
-        <v>4064.6</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B641" s="2" t="n">
-        <v>44783</v>
-      </c>
-      <c r="C641" t="n">
-        <v>3463.39</v>
-      </c>
-      <c r="D641" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E641" t="n">
-        <v>1820.94</v>
-      </c>
-      <c r="F641" t="n">
-        <v>4311.64</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B642" s="2" t="n">
-        <v>44784</v>
-      </c>
-      <c r="C642" t="n">
-        <v>3489.33</v>
-      </c>
-      <c r="D642" t="n">
-        <v>40.04</v>
-      </c>
-      <c r="E642" t="n">
-        <v>1827.03</v>
-      </c>
-      <c r="F642" t="n">
-        <v>4345.99</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B643" s="2" t="n">
-        <v>44785</v>
-      </c>
-      <c r="C643" t="n">
-        <v>3498.68</v>
-      </c>
-      <c r="D643" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="E643" t="n">
-        <v>1836.02</v>
-      </c>
-      <c r="F643" t="n">
-        <v>4346.43</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B644" s="2" t="n">
-        <v>44786</v>
-      </c>
-      <c r="C644" t="n">
-        <v>3517.86</v>
-      </c>
-      <c r="D644" t="n">
-        <v>40.22</v>
-      </c>
-      <c r="E644" t="n">
-        <v>1893.34</v>
-      </c>
-      <c r="F644" t="n">
-        <v>4460.22</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B645" s="2" t="n">
-        <v>44789</v>
-      </c>
-      <c r="C645" t="n">
-        <v>3536.25</v>
-      </c>
-      <c r="D645" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="E645" t="n">
-        <v>1888.39</v>
-      </c>
-      <c r="F645" t="n">
-        <v>4459.52</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B646" s="2" t="n">
-        <v>44790</v>
-      </c>
-      <c r="C646" t="n">
-        <v>3508.52</v>
-      </c>
-      <c r="D646" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="E646" t="n">
-        <v>1858.33</v>
-      </c>
-      <c r="F646" t="n">
-        <v>4259.75</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B647" s="2" t="n">
-        <v>44791</v>
-      </c>
-      <c r="C647" t="n">
-        <v>3466.86</v>
-      </c>
-      <c r="D647" t="n">
-        <v>39.31</v>
-      </c>
-      <c r="E647" t="n">
-        <v>1820.5</v>
-      </c>
-      <c r="F647" t="n">
-        <v>4144.95</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B648" s="2" t="n">
-        <v>44792</v>
-      </c>
-      <c r="C648" t="n">
-        <v>3406.56</v>
-      </c>
-      <c r="D648" t="n">
-        <v>38.37</v>
-      </c>
-      <c r="E648" t="n">
-        <v>1790.8</v>
-      </c>
-      <c r="F648" t="n">
-        <v>4123.27</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B649" s="2" t="n">
-        <v>44793</v>
-      </c>
-      <c r="C649" t="n">
-        <v>3356.56</v>
-      </c>
-      <c r="D649" t="n">
-        <v>37.69</v>
-      </c>
-      <c r="E649" t="n">
-        <v>1760.46</v>
-      </c>
-      <c r="F649" t="n">
-        <v>4125.47</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B650" s="2" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C650" t="n">
-        <v>3362.74</v>
-      </c>
-      <c r="D650" t="n">
-        <v>36.94</v>
-      </c>
-      <c r="E650" t="n">
-        <v>1736.35</v>
-      </c>
-      <c r="F650" t="n">
-        <v>4083.5</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B651" s="2" t="n">
-        <v>44797</v>
-      </c>
-      <c r="C651" t="n">
-        <v>3337.74</v>
-      </c>
-      <c r="D651" t="n">
-        <v>36.39</v>
-      </c>
-      <c r="E651" t="n">
-        <v>1685</v>
-      </c>
-      <c r="F651" t="n">
-        <v>3872.6</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B652" s="2" t="n">
-        <v>44798</v>
-      </c>
-      <c r="C652" t="n">
-        <v>3369.02</v>
-      </c>
-      <c r="D652" t="n">
-        <v>36.63</v>
-      </c>
-      <c r="E652" t="n">
-        <v>1674.34</v>
-      </c>
-      <c r="F652" t="n">
-        <v>3850.2</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B653" s="2" t="n">
-        <v>44799</v>
-      </c>
-      <c r="C653" t="n">
-        <v>3354.52</v>
-      </c>
-      <c r="D653" t="n">
-        <v>36.51</v>
-      </c>
-      <c r="E653" t="n">
-        <v>1683.36</v>
-      </c>
-      <c r="F653" t="n">
-        <v>3868.27</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B654" s="2" t="n">
-        <v>44800</v>
-      </c>
-      <c r="C654" t="n">
-        <v>3387.88</v>
-      </c>
-      <c r="D654" t="n">
-        <v>37.34</v>
-      </c>
-      <c r="E654" t="n">
-        <v>1707.9</v>
-      </c>
-      <c r="F654" t="n">
-        <v>4043.71</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B655" s="2" t="n">
-        <v>44803</v>
-      </c>
-      <c r="C655" t="n">
-        <v>3398.71</v>
-      </c>
-      <c r="D655" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="E655" t="n">
-        <v>1702.02</v>
-      </c>
-      <c r="F655" t="n">
-        <v>4178.4</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B656" s="2" t="n">
-        <v>44804</v>
-      </c>
-      <c r="C656" t="n">
-        <v>3398.94</v>
-      </c>
-      <c r="D656" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="E656" t="n">
-        <v>1702.14</v>
-      </c>
-      <c r="F656" t="n">
-        <v>4178.68</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B657" s="2" t="n">
-        <v>44805</v>
-      </c>
-      <c r="C657" t="n">
-        <v>3351.1</v>
-      </c>
-      <c r="D657" t="n">
-        <v>36.21</v>
-      </c>
-      <c r="E657" t="n">
-        <v>1661.7</v>
-      </c>
-      <c r="F657" t="n">
-        <v>4084.53</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B658" s="2" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C658" t="n">
-        <v>3323.12</v>
-      </c>
-      <c r="D658" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="E658" t="n">
-        <v>1636.48</v>
-      </c>
-      <c r="F658" t="n">
-        <v>4028.26</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B659" s="2" t="n">
-        <v>44807</v>
-      </c>
-      <c r="C659" t="n">
-        <v>3288.6</v>
-      </c>
-      <c r="D659" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="E659" t="n">
-        <v>1626.54</v>
-      </c>
-      <c r="F659" t="n">
-        <v>3946.01</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B660" s="2" t="n">
-        <v>44810</v>
-      </c>
-      <c r="C660" t="n">
-        <v>3353.22</v>
-      </c>
-      <c r="D660" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="E660" t="n">
-        <v>1644.79</v>
-      </c>
-      <c r="F660" t="n">
-        <v>3951.42</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B661" s="2" t="n">
-        <v>44811</v>
-      </c>
-      <c r="C661" t="n">
-        <v>3347.5</v>
-      </c>
-      <c r="D661" t="n">
-        <v>35.67</v>
-      </c>
-      <c r="E661" t="n">
-        <v>1659.12</v>
-      </c>
-      <c r="F661" t="n">
-        <v>3948.24</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B662" s="2" t="n">
-        <v>44812</v>
-      </c>
-      <c r="C662" t="n">
-        <v>3349.06</v>
-      </c>
-      <c r="D662" t="n">
-        <v>36.18</v>
-      </c>
-      <c r="E662" t="n">
-        <v>1675.91</v>
-      </c>
-      <c r="F662" t="n">
-        <v>3998.96</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B663" s="2" t="n">
-        <v>44813</v>
-      </c>
-      <c r="C663" t="n">
-        <v>3328.33</v>
-      </c>
-      <c r="D663" t="n">
-        <v>35.52</v>
-      </c>
-      <c r="E663" t="n">
-        <v>1671.35</v>
-      </c>
-      <c r="F663" t="n">
-        <v>3927.19</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B664" s="2" t="n">
-        <v>44814</v>
-      </c>
-      <c r="C664" t="n">
-        <v>3323.22</v>
-      </c>
-      <c r="D664" t="n">
-        <v>36.21</v>
-      </c>
-      <c r="E664" t="n">
-        <v>1699.18</v>
-      </c>
-      <c r="F664" t="n">
-        <v>4059.37</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B665" s="2" t="n">
-        <v>44817</v>
-      </c>
-      <c r="C665" t="n">
-        <v>3330.39</v>
-      </c>
-      <c r="D665" t="n">
-        <v>36.47</v>
-      </c>
-      <c r="E665" t="n">
-        <v>1712.43</v>
-      </c>
-      <c r="F665" t="n">
-        <v>4200.4</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B666" s="2" t="n">
-        <v>44818</v>
-      </c>
-      <c r="C666" t="n">
-        <v>3334.05</v>
-      </c>
-      <c r="D666" t="n">
-        <v>37.11</v>
-      </c>
-      <c r="E666" t="n">
-        <v>1743.89</v>
-      </c>
-      <c r="F666" t="n">
-        <v>4354.89</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B667" s="2" t="n">
-        <v>44819</v>
-      </c>
-      <c r="C667" t="n">
-        <v>3276.4</v>
-      </c>
-      <c r="D667" t="n">
-        <v>38.29</v>
-      </c>
-      <c r="E667" t="n">
-        <v>1720.02</v>
-      </c>
-      <c r="F667" t="n">
-        <v>4131.9</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B668" s="2" t="n">
-        <v>44820</v>
-      </c>
-      <c r="C668" t="n">
-        <v>3268.62</v>
-      </c>
-      <c r="D668" t="n">
-        <v>37.42</v>
-      </c>
-      <c r="E668" t="n">
-        <v>1737.99</v>
-      </c>
-      <c r="F668" t="n">
-        <v>4074.5</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B669" s="2" t="n">
-        <v>44821</v>
-      </c>
-      <c r="C669" t="n">
-        <v>3260.06</v>
-      </c>
-      <c r="D669" t="n">
-        <v>37.39</v>
-      </c>
-      <c r="E669" t="n">
-        <v>1769.86</v>
-      </c>
-      <c r="F669" t="n">
-        <v>4201.74</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B670" s="2" t="n">
-        <v>44824</v>
-      </c>
-      <c r="C670" t="n">
-        <v>3220.08</v>
-      </c>
-      <c r="D670" t="n">
-        <v>36.74</v>
-      </c>
-      <c r="E670" t="n">
-        <v>1725.47</v>
-      </c>
-      <c r="F670" t="n">
-        <v>4040.93</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B671" s="2" t="n">
-        <v>44825</v>
-      </c>
-      <c r="C671" t="n">
-        <v>3212.03</v>
-      </c>
-      <c r="D671" t="n">
-        <v>36.65</v>
-      </c>
-      <c r="E671" t="n">
-        <v>1721.16</v>
-      </c>
-      <c r="F671" t="n">
-        <v>4030.83</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B672" s="2" t="n">
-        <v>44826</v>
-      </c>
-      <c r="C672" t="n">
-        <v>3256.69</v>
-      </c>
-      <c r="D672" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E672" t="n">
-        <v>1821.94</v>
-      </c>
-      <c r="F672" t="n">
-        <v>4217.26</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B673" s="2" t="n">
-        <v>44827</v>
-      </c>
-      <c r="C673" t="n">
-        <v>3215.84</v>
-      </c>
-      <c r="D673" t="n">
-        <v>37.53</v>
-      </c>
-      <c r="E673" t="n">
-        <v>1783.21</v>
-      </c>
-      <c r="F673" t="n">
-        <v>4176.21</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B674" s="2" t="n">
-        <v>44828</v>
-      </c>
-      <c r="C674" t="n">
-        <v>3122.98</v>
-      </c>
-      <c r="D674" t="n">
-        <v>36.58</v>
-      </c>
-      <c r="E674" t="n">
-        <v>1701.73</v>
-      </c>
-      <c r="F674" t="n">
-        <v>4051.64</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B675" s="2" t="n">
-        <v>44831</v>
-      </c>
-      <c r="C675" t="n">
-        <v>3064.74</v>
-      </c>
-      <c r="D675" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="E675" t="n">
-        <v>1629.76</v>
-      </c>
-      <c r="F675" t="n">
-        <v>3912.16</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B676" s="2" t="n">
-        <v>44832</v>
-      </c>
-      <c r="C676" t="n">
-        <v>3073.7</v>
-      </c>
-      <c r="D676" t="n">
-        <v>34.85</v>
-      </c>
-      <c r="E676" t="n">
-        <v>1616.01</v>
-      </c>
-      <c r="F676" t="n">
-        <v>3866.09</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B677" s="2" t="n">
-        <v>44833</v>
-      </c>
-      <c r="C677" t="n">
-        <v>3071.11</v>
-      </c>
-      <c r="D677" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E677" t="n">
-        <v>1614.2</v>
-      </c>
-      <c r="F677" t="n">
-        <v>3927.45</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B678" s="2" t="n">
-        <v>44834</v>
-      </c>
-      <c r="C678" t="n">
-        <v>3049.65</v>
-      </c>
-      <c r="D678" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="E678" t="n">
-        <v>1567.14</v>
-      </c>
-      <c r="F678" t="n">
-        <v>3863.4</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B679" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="C679" t="n">
-        <v>2942.06</v>
-      </c>
-      <c r="D679" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="E679" t="n">
-        <v>1537.88</v>
-      </c>
-      <c r="F679" t="n">
-        <v>3922.03</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B680" s="2" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C680" t="n">
-        <v>3094.08</v>
-      </c>
-      <c r="D680" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E680" t="n">
-        <v>1599.09</v>
-      </c>
-      <c r="F680" t="n">
-        <v>4097.67</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B681" s="2" t="n">
-        <v>44839</v>
-      </c>
-      <c r="C681" t="n">
-        <v>3153.58</v>
-      </c>
-      <c r="D681" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E681" t="n">
-        <v>1663.36</v>
-      </c>
-      <c r="F681" t="n">
-        <v>4162.18</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B682" s="2" t="n">
-        <v>44840</v>
-      </c>
-      <c r="C682" t="n">
-        <v>3275.18</v>
-      </c>
-      <c r="D682" t="n">
-        <v>39.96</v>
-      </c>
-      <c r="E682" t="n">
-        <v>1766.65</v>
-      </c>
-      <c r="F682" t="n">
-        <v>4421.4</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B683" s="2" t="n">
-        <v>44841</v>
-      </c>
-      <c r="C683" t="n">
-        <v>3294.19</v>
-      </c>
-      <c r="D683" t="n">
-        <v>39.59</v>
-      </c>
-      <c r="E683" t="n">
-        <v>1782.22</v>
-      </c>
-      <c r="F683" t="n">
-        <v>4412.92</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B684" s="2" t="n">
-        <v>44842</v>
-      </c>
-      <c r="C684" t="n">
-        <v>3375.52</v>
-      </c>
-      <c r="D684" t="n">
-        <v>40.45</v>
-      </c>
-      <c r="E684" t="n">
-        <v>1823.43</v>
-      </c>
-      <c r="F684" t="n">
-        <v>4532.99</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B685" s="2" t="n">
-        <v>44845</v>
-      </c>
-      <c r="C685" t="n">
-        <v>3398.06</v>
-      </c>
-      <c r="D685" t="n">
-        <v>41.32</v>
-      </c>
-      <c r="E685" t="n">
-        <v>1863.16</v>
-      </c>
-      <c r="F685" t="n">
-        <v>4519.66</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B686" s="2" t="n">
-        <v>44846</v>
-      </c>
-      <c r="C686" t="n">
-        <v>3432.71</v>
-      </c>
-      <c r="D686" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="E686" t="n">
-        <v>1867.31</v>
-      </c>
-      <c r="F686" t="n">
-        <v>4612.99</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B687" s="2" t="n">
-        <v>44847</v>
-      </c>
-      <c r="C687" t="n">
-        <v>3412.3</v>
-      </c>
-      <c r="D687" t="n">
-        <v>39.76</v>
-      </c>
-      <c r="E687" t="n">
-        <v>1834.57</v>
-      </c>
-      <c r="F687" t="n">
-        <v>4482.91</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B688" s="2" t="n">
-        <v>44848</v>
-      </c>
-      <c r="C688" t="n">
-        <v>3410.3</v>
-      </c>
-      <c r="D688" t="n">
-        <v>39.16</v>
-      </c>
-      <c r="E688" t="n">
-        <v>1816.76</v>
-      </c>
-      <c r="F688" t="n">
-        <v>4337.77</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B689" s="2" t="n">
-        <v>44849</v>
-      </c>
-      <c r="C689" t="n">
-        <v>3341.18</v>
-      </c>
-      <c r="D689" t="n">
-        <v>38.87</v>
-      </c>
-      <c r="E689" t="n">
-        <v>1769.82</v>
-      </c>
-      <c r="F689" t="n">
-        <v>4176.22</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B690" s="2" t="n">
-        <v>44852</v>
-      </c>
-      <c r="C690" t="n">
-        <v>3275.08</v>
-      </c>
-      <c r="D690" t="n">
-        <v>37.26</v>
-      </c>
-      <c r="E690" t="n">
-        <v>1809.01</v>
-      </c>
-      <c r="F690" t="n">
-        <v>4142.25</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B691" s="2" t="n">
-        <v>44853</v>
-      </c>
-      <c r="C691" t="n">
-        <v>3271.89</v>
-      </c>
-      <c r="D691" t="n">
-        <v>37.23</v>
-      </c>
-      <c r="E691" t="n">
-        <v>1825.1</v>
-      </c>
-      <c r="F691" t="n">
-        <v>4029.1</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B692" s="2" t="n">
-        <v>44854</v>
-      </c>
-      <c r="C692" t="n">
-        <v>3273.24</v>
-      </c>
-      <c r="D692" t="n">
-        <v>37.02</v>
-      </c>
-      <c r="E692" t="n">
-        <v>1823.74</v>
-      </c>
-      <c r="F692" t="n">
-        <v>4011.84</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B693" s="2" t="n">
-        <v>44855</v>
-      </c>
-      <c r="C693" t="n">
-        <v>3226.4</v>
-      </c>
-      <c r="D693" t="n">
-        <v>36.45</v>
-      </c>
-      <c r="E693" t="n">
-        <v>1767.73</v>
-      </c>
-      <c r="F693" t="n">
-        <v>3895.33</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B694" s="2" t="n">
-        <v>44856</v>
-      </c>
-      <c r="C694" t="n">
-        <v>3217.44</v>
-      </c>
-      <c r="D694" t="n">
-        <v>36.96</v>
-      </c>
-      <c r="E694" t="n">
-        <v>1756.97</v>
-      </c>
-      <c r="F694" t="n">
-        <v>3972.36</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B695" s="2" t="n">
-        <v>44859</v>
-      </c>
-      <c r="C695" t="n">
-        <v>3231.34</v>
-      </c>
-      <c r="D695" t="n">
-        <v>36.15</v>
-      </c>
-      <c r="E695" t="n">
-        <v>1779.62</v>
-      </c>
-      <c r="F695" t="n">
-        <v>3928.93</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B696" s="2" t="n">
-        <v>44860</v>
-      </c>
-      <c r="C696" t="n">
-        <v>3251.94</v>
-      </c>
-      <c r="D696" t="n">
-        <v>37.89</v>
-      </c>
-      <c r="E696" t="n">
-        <v>1833.86</v>
-      </c>
-      <c r="F696" t="n">
-        <v>3947.72</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B697" s="2" t="n">
-        <v>44861</v>
-      </c>
-      <c r="C697" t="n">
-        <v>3276.93</v>
-      </c>
-      <c r="D697" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="E697" t="n">
-        <v>1799.17</v>
-      </c>
-      <c r="F697" t="n">
-        <v>3732.65</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B698" s="2" t="n">
-        <v>44862</v>
-      </c>
-      <c r="C698" t="n">
-        <v>3288.05</v>
-      </c>
-      <c r="D698" t="n">
-        <v>38.65</v>
-      </c>
-      <c r="E698" t="n">
-        <v>1844.51</v>
-      </c>
-      <c r="F698" t="n">
-        <v>3876.42</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B699" s="2" t="n">
-        <v>44863</v>
-      </c>
-      <c r="C699" t="n">
-        <v>3283.6</v>
-      </c>
-      <c r="D699" t="n">
-        <v>38.32</v>
-      </c>
-      <c r="E699" t="n">
-        <v>1883.41</v>
-      </c>
-      <c r="F699" t="n">
-        <v>3845.96</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B700" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C700" t="n">
-        <v>3265.15</v>
-      </c>
-      <c r="D700" t="n">
-        <v>38.09</v>
-      </c>
-      <c r="E700" t="n">
-        <v>1882.16</v>
-      </c>
-      <c r="F700" t="n">
-        <v>3780.17</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B701" s="2" t="n">
-        <v>44867</v>
-      </c>
-      <c r="C701" t="n">
-        <v>3236.92</v>
-      </c>
-      <c r="D701" t="n">
-        <v>37.85</v>
-      </c>
-      <c r="E701" t="n">
-        <v>1846.57</v>
-      </c>
-      <c r="F701" t="n">
-        <v>3631.91</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B702" s="2" t="n">
-        <v>44868</v>
-      </c>
-      <c r="C702" t="n">
-        <v>3259.32</v>
-      </c>
-      <c r="D702" t="n">
-        <v>39.62</v>
-      </c>
-      <c r="E702" t="n">
-        <v>1881.99</v>
-      </c>
-      <c r="F702" t="n">
-        <v>3801.63</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B703" s="2" t="n">
-        <v>44869</v>
-      </c>
-      <c r="C703" t="n">
-        <v>3293.19</v>
-      </c>
-      <c r="D703" t="n">
-        <v>39.49</v>
-      </c>
-      <c r="E703" t="n">
-        <v>1912.57</v>
-      </c>
-      <c r="F703" t="n">
-        <v>3707.34</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B704" s="2" t="n">
-        <v>44873</v>
-      </c>
-      <c r="C704" t="n">
-        <v>3296.57</v>
-      </c>
-      <c r="D704" t="n">
-        <v>39.31</v>
-      </c>
-      <c r="E704" t="n">
-        <v>1864.46</v>
-      </c>
-      <c r="F704" t="n">
-        <v>3719.07</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B705" s="2" t="n">
-        <v>44874</v>
-      </c>
-      <c r="C705" t="n">
-        <v>3291.53</v>
-      </c>
-      <c r="D705" t="n">
-        <v>40.52</v>
-      </c>
-      <c r="E705" t="n">
-        <v>1903.61</v>
-      </c>
-      <c r="F705" t="n">
-        <v>3644.51</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B706" s="2" t="n">
-        <v>44875</v>
-      </c>
-      <c r="C706" t="n">
-        <v>3295.46</v>
-      </c>
-      <c r="D706" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E706" t="n">
-        <v>1923.9</v>
-      </c>
-      <c r="F706" t="n">
-        <v>3671.11</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B707" s="2" t="n">
-        <v>44876</v>
-      </c>
-      <c r="C707" t="n">
-        <v>3377.36</v>
-      </c>
-      <c r="D707" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="E707" t="n">
-        <v>1955.24</v>
-      </c>
-      <c r="F707" t="n">
-        <v>3717.51</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B708" s="2" t="n">
-        <v>44877</v>
-      </c>
-      <c r="C708" t="n">
-        <v>3377.92</v>
-      </c>
-      <c r="D708" t="n">
-        <v>40.83</v>
-      </c>
-      <c r="E708" t="n">
-        <v>1970.9</v>
-      </c>
-      <c r="F708" t="n">
-        <v>3664.94</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B709" s="2" t="n">
-        <v>44880</v>
-      </c>
-      <c r="C709" t="n">
-        <v>3416.39</v>
-      </c>
-      <c r="D709" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="E709" t="n">
-        <v>2019.52</v>
-      </c>
-      <c r="F709" t="n">
-        <v>3945.83</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B710" s="2" t="n">
-        <v>44881</v>
-      </c>
-      <c r="C710" t="n">
-        <v>3430.01</v>
-      </c>
-      <c r="D710" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="E710" t="n">
-        <v>1964.27</v>
-      </c>
-      <c r="F710" t="n">
-        <v>3885.88</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B711" s="2" t="n">
-        <v>44882</v>
-      </c>
-      <c r="C711" t="n">
-        <v>3436.85</v>
-      </c>
-      <c r="D711" t="n">
-        <v>42.57</v>
-      </c>
-      <c r="E711" t="n">
-        <v>2000.39</v>
-      </c>
-      <c r="F711" t="n">
-        <v>4043.47</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B712" s="2" t="n">
-        <v>44883</v>
-      </c>
-      <c r="C712" t="n">
-        <v>3442.39</v>
-      </c>
-      <c r="D712" t="n">
-        <v>42.62</v>
-      </c>
-      <c r="E712" t="n">
-        <v>1974.57</v>
-      </c>
-      <c r="F712" t="n">
-        <v>4019.04</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B713" s="2" t="n">
-        <v>44884</v>
-      </c>
-      <c r="C713" t="n">
-        <v>3413.57</v>
-      </c>
-      <c r="D713" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="E713" t="n">
-        <v>1917.78</v>
-      </c>
-      <c r="F713" t="n">
-        <v>3849.14</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B714" s="2" t="n">
-        <v>44887</v>
-      </c>
-      <c r="C714" t="n">
-        <v>3420.47</v>
-      </c>
-      <c r="D714" t="n">
-        <v>41.19</v>
-      </c>
-      <c r="E714" t="n">
-        <v>1925.43</v>
-      </c>
-      <c r="F714" t="n">
-        <v>3841.09</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B715" s="2" t="n">
-        <v>44888</v>
-      </c>
-      <c r="C715" t="n">
-        <v>3394.05</v>
-      </c>
-      <c r="D715" t="n">
-        <v>40.25</v>
-      </c>
-      <c r="E715" t="n">
-        <v>1920.9</v>
-      </c>
-      <c r="F715" t="n">
-        <v>3681.89</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B716" s="2" t="n">
-        <v>44889</v>
-      </c>
-      <c r="C716" t="n">
-        <v>3390.49</v>
-      </c>
-      <c r="D716" t="n">
-        <v>41.38</v>
-      </c>
-      <c r="E716" t="n">
-        <v>1939.42</v>
-      </c>
-      <c r="F716" t="n">
-        <v>3655.14</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B717" s="2" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C717" t="n">
-        <v>3378.45</v>
-      </c>
-      <c r="D717" t="n">
-        <v>41.29</v>
-      </c>
-      <c r="E717" t="n">
-        <v>1906.53</v>
-      </c>
-      <c r="F717" t="n">
-        <v>3649.97</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B718" s="2" t="n">
-        <v>44891</v>
-      </c>
-      <c r="C718" t="n">
-        <v>3413.32</v>
-      </c>
-      <c r="D718" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="E718" t="n">
-        <v>1921.13</v>
-      </c>
-      <c r="F718" t="n">
-        <v>3694.49</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B719" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="C719" t="n">
-        <v>3421.75</v>
-      </c>
-      <c r="D719" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="E719" t="n">
-        <v>1912.2</v>
-      </c>
-      <c r="F719" t="n">
-        <v>3539.24</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B720" s="2" t="n">
-        <v>44895</v>
-      </c>
-      <c r="C720" t="n">
-        <v>3429.49</v>
-      </c>
-      <c r="D720" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="E720" t="n">
-        <v>1963.58</v>
-      </c>
-      <c r="F720" t="n">
-        <v>3642.44</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B721" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C721" t="n">
-        <v>3430.64</v>
-      </c>
-      <c r="D721" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="E721" t="n">
-        <v>1943.64</v>
-      </c>
-      <c r="F721" t="n">
-        <v>3583.9</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B722" s="2" t="n">
-        <v>44897</v>
-      </c>
-      <c r="C722" t="n">
-        <v>3447.29</v>
-      </c>
-      <c r="D722" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="E722" t="n">
-        <v>2015.1</v>
-      </c>
-      <c r="F722" t="n">
-        <v>3751.03</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B723" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="C723" t="n">
-        <v>3581.25</v>
-      </c>
-      <c r="D723" t="n">
-        <v>43.96</v>
-      </c>
-      <c r="E723" t="n">
-        <v>2067.54</v>
-      </c>
-      <c r="F723" t="n">
-        <v>3781.55</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B724" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C724" t="n">
-        <v>3568.23</v>
-      </c>
-      <c r="D724" t="n">
-        <v>45.19</v>
-      </c>
-      <c r="E724" t="n">
-        <v>2013.28</v>
-      </c>
-      <c r="F724" t="n">
-        <v>3746.67</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B725" s="2" t="n">
-        <v>44902</v>
-      </c>
-      <c r="C725" t="n">
-        <v>3593.78</v>
-      </c>
-      <c r="D725" t="n">
-        <v>46.49</v>
-      </c>
-      <c r="E725" t="n">
-        <v>2050.93</v>
-      </c>
-      <c r="F725" t="n">
-        <v>3853.08</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B726" s="2" t="n">
-        <v>44903</v>
-      </c>
-      <c r="C726" t="n">
-        <v>3589.24</v>
-      </c>
-      <c r="D726" t="n">
-        <v>45.61</v>
-      </c>
-      <c r="E726" t="n">
-        <v>2019.43</v>
-      </c>
-      <c r="F726" t="n">
-        <v>3787.95</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B727" s="2" t="n">
-        <v>44904</v>
-      </c>
-      <c r="C727" t="n">
-        <v>3585.33</v>
-      </c>
-      <c r="D727" t="n">
-        <v>45.03</v>
-      </c>
-      <c r="E727" t="n">
-        <v>2017.78</v>
-      </c>
-      <c r="F727" t="n">
-        <v>3705.63</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B728" s="2" t="n">
-        <v>44905</v>
-      </c>
-      <c r="C728" t="n">
-        <v>3590.33</v>
-      </c>
-      <c r="D728" t="n">
-        <v>45.52</v>
-      </c>
-      <c r="E728" t="n">
-        <v>2013.63</v>
-      </c>
-      <c r="F728" t="n">
-        <v>3728.42</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B729" s="2" t="n">
-        <v>44908</v>
-      </c>
-      <c r="C729" t="n">
-        <v>3624.66</v>
-      </c>
-      <c r="D729" t="n">
-        <v>46.64</v>
-      </c>
-      <c r="E729" t="n">
-        <v>2020.04</v>
-      </c>
-      <c r="F729" t="n">
-        <v>3880.65</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B730" s="2" t="n">
-        <v>44909</v>
-      </c>
-      <c r="C730" t="n">
-        <v>3630.93</v>
-      </c>
-      <c r="D730" t="n">
-        <v>47.54</v>
-      </c>
-      <c r="E730" t="n">
-        <v>2044.51</v>
-      </c>
-      <c r="F730" t="n">
-        <v>3851.23</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B731" s="2" t="n">
-        <v>44910</v>
-      </c>
-      <c r="C731" t="n">
-        <v>3714.64</v>
-      </c>
-      <c r="D731" t="n">
-        <v>47.66</v>
-      </c>
-      <c r="E731" t="n">
-        <v>2112.41</v>
-      </c>
-      <c r="F731" t="n">
-        <v>3976.3</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B732" s="2" t="n">
-        <v>44911</v>
-      </c>
-      <c r="C732" t="n">
-        <v>3737.85</v>
-      </c>
-      <c r="D732" t="n">
-        <v>48.81</v>
-      </c>
-      <c r="E732" t="n">
-        <v>2119.02</v>
-      </c>
-      <c r="F732" t="n">
-        <v>3967.22</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B733" s="2" t="n">
-        <v>44912</v>
-      </c>
-      <c r="C733" t="n">
-        <v>3704.77</v>
-      </c>
-      <c r="D733" t="n">
-        <v>48.12</v>
-      </c>
-      <c r="E733" t="n">
-        <v>2106.27</v>
-      </c>
-      <c r="F733" t="n">
-        <v>3936.27</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B734" s="2" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C734" t="n">
-        <v>3823.72</v>
-      </c>
-      <c r="D734" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E734" t="n">
-        <v>2126.72</v>
-      </c>
-      <c r="F734" t="n">
-        <v>3690.29</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B735" s="2" t="n">
-        <v>44916</v>
-      </c>
-      <c r="C735" t="n">
-        <v>3972.92</v>
-      </c>
-      <c r="D735" t="n">
-        <v>51.56</v>
-      </c>
-      <c r="E735" t="n">
-        <v>2200.77</v>
-      </c>
-      <c r="F735" t="n">
-        <v>3829.16</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B736" s="2" t="n">
-        <v>44917</v>
-      </c>
-      <c r="C736" t="n">
-        <v>4112.93</v>
-      </c>
-      <c r="D736" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="E736" t="n">
-        <v>2247.04</v>
-      </c>
-      <c r="F736" t="n">
-        <v>3797.98</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B737" s="2" t="n">
-        <v>44918</v>
-      </c>
-      <c r="C737" t="n">
-        <v>4214.99</v>
-      </c>
-      <c r="D737" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="E737" t="n">
-        <v>2312.09</v>
-      </c>
-      <c r="F737" t="n">
-        <v>3942.39</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B738" s="2" t="n">
-        <v>44919</v>
-      </c>
-      <c r="C738" t="n">
-        <v>3975.92</v>
-      </c>
-      <c r="D738" t="n">
-        <v>52.41</v>
-      </c>
-      <c r="E738" t="n">
-        <v>2172.66</v>
-      </c>
-      <c r="F738" t="n">
-        <v>3735.91</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B739" s="2" t="n">
-        <v>44922</v>
-      </c>
-      <c r="C739" t="n">
-        <v>3962.76</v>
-      </c>
-      <c r="D739" t="n">
-        <v>52.23</v>
-      </c>
-      <c r="E739" t="n">
-        <v>2189.67</v>
-      </c>
-      <c r="F739" t="n">
-        <v>3648.72</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B740" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="C740" t="n">
-        <v>4048.78</v>
-      </c>
-      <c r="D740" t="n">
-        <v>53.37</v>
-      </c>
-      <c r="E740" t="n">
-        <v>2237.21</v>
-      </c>
-      <c r="F740" t="n">
-        <v>3727.93</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B741" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="C741" t="n">
-        <v>4129.34</v>
-      </c>
-      <c r="D741" t="n">
-        <v>54.43</v>
-      </c>
-      <c r="E741" t="n">
-        <v>2281.72</v>
-      </c>
-      <c r="F741" t="n">
-        <v>3802.1</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B742" s="2" t="n">
-        <v>44925</v>
-      </c>
-      <c r="C742" t="n">
-        <v>4173.2</v>
-      </c>
-      <c r="D742" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E742" t="n">
-        <v>2353.48</v>
-      </c>
-      <c r="F742" t="n">
-        <v>4153.88</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B743" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C743" t="n">
-        <v>4101.62</v>
-      </c>
-      <c r="D743" t="n">
-        <v>53.95</v>
-      </c>
-      <c r="E743" t="n">
-        <v>2331.5</v>
-      </c>
-      <c r="F743" t="n">
-        <v>4013.99</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B744" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="C744" t="n">
-        <v>4186.35</v>
-      </c>
-      <c r="D744" t="n">
-        <v>53.01</v>
-      </c>
-      <c r="E744" t="n">
-        <v>2425.2</v>
-      </c>
-      <c r="F744" t="n">
-        <v>4032.2</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B745" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="C745" t="n">
-        <v>4204.85</v>
-      </c>
-      <c r="D745" t="n">
-        <v>53.38</v>
-      </c>
-      <c r="E745" t="n">
-        <v>2443.89</v>
-      </c>
-      <c r="F745" t="n">
-        <v>4012.72</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B746" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="C746" t="n">
-        <v>4168.82</v>
-      </c>
-      <c r="D746" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="E746" t="n">
-        <v>2405.45</v>
-      </c>
-      <c r="F746" t="n">
-        <v>3998.73</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B747" s="2" t="n">
-        <v>44939</v>
-      </c>
-      <c r="C747" t="n">
-        <v>4080.03</v>
-      </c>
-      <c r="D747" t="n">
-        <v>52.02</v>
-      </c>
-      <c r="E747" t="n">
-        <v>2397.01</v>
-      </c>
-      <c r="F747" t="n">
-        <v>3843.92</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B748" s="2" t="n">
-        <v>44940</v>
-      </c>
-      <c r="C748" t="n">
-        <v>4089.96</v>
-      </c>
-      <c r="D748" t="n">
-        <v>51.49</v>
-      </c>
-      <c r="E748" t="n">
-        <v>2350.72</v>
-      </c>
-      <c r="F748" t="n">
-        <v>3860.65</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B749" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C749" t="n">
-        <v>4187.24</v>
-      </c>
-      <c r="D749" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="E749" t="n">
-        <v>2320.69</v>
-      </c>
-      <c r="F749" t="n">
-        <v>3818.06</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B750" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="C750" t="n">
-        <v>4231.99</v>
-      </c>
-      <c r="D750" t="n">
-        <v>53.36</v>
-      </c>
-      <c r="E750" t="n">
-        <v>2337.86</v>
-      </c>
-      <c r="F750" t="n">
-        <v>3874.36</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B751" s="2" t="n">
-        <v>44945</v>
-      </c>
-      <c r="C751" t="n">
-        <v>4237.75</v>
-      </c>
-      <c r="D751" t="n">
-        <v>53.36</v>
-      </c>
-      <c r="E751" t="n">
-        <v>2331.67</v>
-      </c>
-      <c r="F751" t="n">
-        <v>3826.33</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B752" s="2" t="n">
-        <v>44946</v>
-      </c>
-      <c r="C752" t="n">
-        <v>4251.41</v>
-      </c>
-      <c r="D752" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="E752" t="n">
-        <v>2363.99</v>
-      </c>
-      <c r="F752" t="n">
-        <v>3935.55</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B753" s="2" t="n">
-        <v>44947</v>
-      </c>
-      <c r="C753" t="n">
-        <v>4235.59</v>
-      </c>
-      <c r="D753" t="n">
-        <v>51.76</v>
-      </c>
-      <c r="E753" t="n">
-        <v>2262.84</v>
-      </c>
-      <c r="F753" t="n">
-        <v>3715.47</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B754" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="C754" t="n">
-        <v>4247.23</v>
-      </c>
-      <c r="D754" t="n">
-        <v>52.67</v>
-      </c>
-      <c r="E754" t="n">
-        <v>2259.42</v>
-      </c>
-      <c r="F754" t="n">
-        <v>3819.39</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B755" s="2" t="n">
-        <v>44951</v>
-      </c>
-      <c r="C755" t="n">
-        <v>4232.69</v>
-      </c>
-      <c r="D755" t="n">
-        <v>52.33</v>
-      </c>
-      <c r="E755" t="n">
-        <v>2292.24</v>
-      </c>
-      <c r="F755" t="n">
-        <v>3775.46</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B756" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C756" t="n">
-        <v>4258.35</v>
-      </c>
-      <c r="D756" t="n">
-        <v>52.57</v>
-      </c>
-      <c r="E756" t="n">
-        <v>2323.44</v>
-      </c>
-      <c r="F756" t="n">
-        <v>3777.81</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B757" s="2" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C757" t="n">
-        <v>4291.13</v>
-      </c>
-      <c r="D757" t="n">
-        <v>52.07</v>
-      </c>
-      <c r="E757" t="n">
-        <v>2309.14</v>
-      </c>
-      <c r="F757" t="n">
-        <v>3849.3</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B758" s="2" t="n">
-        <v>44954</v>
-      </c>
-      <c r="C758" t="n">
-        <v>4307.9</v>
-      </c>
-      <c r="D758" t="n">
-        <v>52.86</v>
-      </c>
-      <c r="E758" t="n">
-        <v>2300.58</v>
-      </c>
-      <c r="F758" t="n">
-        <v>3783.02</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B759" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="C759" t="n">
-        <v>4302.74</v>
-      </c>
-      <c r="D759" t="n">
-        <v>53.08</v>
-      </c>
-      <c r="E759" t="n">
-        <v>2259.83</v>
-      </c>
-      <c r="F759" t="n">
-        <v>3673.9</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B760" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C760" t="n">
-        <v>4362.29</v>
-      </c>
-      <c r="D760" t="n">
-        <v>53.58</v>
-      </c>
-      <c r="E760" t="n">
-        <v>2296.66</v>
-      </c>
-      <c r="F760" t="n">
-        <v>3695.51</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B761" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="C761" t="n">
-        <v>4337.36</v>
-      </c>
-      <c r="D761" t="n">
-        <v>51.84</v>
-      </c>
-      <c r="E761" t="n">
-        <v>2263.48</v>
-      </c>
-      <c r="F761" t="n">
-        <v>3647.72</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B762" s="2" t="n">
-        <v>44960</v>
-      </c>
-      <c r="C762" t="n">
-        <v>4336.9</v>
-      </c>
-      <c r="D762" t="n">
-        <v>52.91</v>
-      </c>
-      <c r="E762" t="n">
-        <v>2269.9</v>
-      </c>
-      <c r="F762" t="n">
-        <v>3796.67</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B763" s="2" t="n">
-        <v>44961</v>
-      </c>
-      <c r="C763" t="n">
-        <v>4348.54</v>
-      </c>
-      <c r="D763" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="E763" t="n">
-        <v>2335.33</v>
-      </c>
-      <c r="F763" t="n">
-        <v>3801.7</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B764" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="C764" t="n">
-        <v>4256.69</v>
-      </c>
-      <c r="D764" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="E764" t="n">
-        <v>2281.16</v>
-      </c>
-      <c r="F764" t="n">
-        <v>3688.44</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B765" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="C765" t="n">
-        <v>4269.59</v>
-      </c>
-      <c r="D765" t="n">
-        <v>51.01</v>
-      </c>
-      <c r="E765" t="n">
-        <v>2233.66</v>
-      </c>
-      <c r="F765" t="n">
-        <v>3582.97</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B766" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="C766" t="n">
-        <v>4304.91</v>
-      </c>
-      <c r="D766" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="E766" t="n">
-        <v>2232.19</v>
-      </c>
-      <c r="F766" t="n">
-        <v>3764.81</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B767" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="C767" t="n">
-        <v>4388.79</v>
-      </c>
-      <c r="D767" t="n">
-        <v>52.61</v>
-      </c>
-      <c r="E767" t="n">
-        <v>2308.47</v>
-      </c>
-      <c r="F767" t="n">
-        <v>3890.42</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B768" s="2" t="n">
-        <v>44968</v>
-      </c>
-      <c r="C768" t="n">
-        <v>4397.7</v>
-      </c>
-      <c r="D768" t="n">
-        <v>52.58</v>
-      </c>
-      <c r="E768" t="n">
-        <v>2274.8</v>
-      </c>
-      <c r="F768" t="n">
-        <v>3854.52</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B769" s="2" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C769" t="n">
-        <v>4402.43</v>
-      </c>
-      <c r="D769" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="E769" t="n">
-        <v>2286.79</v>
-      </c>
-      <c r="F769" t="n">
-        <v>3676.39</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B770" s="2" t="n">
-        <v>44972</v>
-      </c>
-      <c r="C770" t="n">
-        <v>4407.74</v>
-      </c>
-      <c r="D770" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="E770" t="n">
-        <v>2241.81</v>
-      </c>
-      <c r="F770" t="n">
-        <v>3692.81</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B771" s="2" t="n">
-        <v>44973</v>
-      </c>
-      <c r="C771" t="n">
-        <v>4446.47</v>
-      </c>
-      <c r="D771" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E771" t="n">
-        <v>2271.31</v>
-      </c>
-      <c r="F771" t="n">
-        <v>3769.61</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B772" s="2" t="n">
-        <v>44974</v>
-      </c>
-      <c r="C772" t="n">
-        <v>4401.67</v>
-      </c>
-      <c r="D772" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="E772" t="n">
-        <v>2225.84</v>
-      </c>
-      <c r="F772" t="n">
-        <v>3480.57</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B773" s="2" t="n">
-        <v>44975</v>
-      </c>
-      <c r="C773" t="n">
-        <v>4395.97</v>
-      </c>
-      <c r="D773" t="n">
-        <v>51.83</v>
-      </c>
-      <c r="E773" t="n">
-        <v>2192.04</v>
-      </c>
-      <c r="F773" t="n">
-        <v>3528.41</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B774" s="2" t="n">
-        <v>44978</v>
-      </c>
-      <c r="C774" t="n">
-        <v>4365.8</v>
-      </c>
-      <c r="D774" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E774" t="n">
-        <v>2173.44</v>
-      </c>
-      <c r="F774" t="n">
-        <v>3525.58</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B775" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="C775" t="n">
-        <v>4442.45</v>
-      </c>
-      <c r="D775" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="E775" t="n">
-        <v>2252.76</v>
-      </c>
-      <c r="F775" t="n">
-        <v>3646.29</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B776" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C776" t="n">
-        <v>4412</v>
-      </c>
-      <c r="D776" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="E776" t="n">
-        <v>2243.41</v>
-      </c>
-      <c r="F776" t="n">
-        <v>3662.96</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B777" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="C777" t="n">
-        <v>4391.92</v>
-      </c>
-      <c r="D777" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="E777" t="n">
-        <v>2250.59</v>
-      </c>
-      <c r="F777" t="n">
-        <v>3380.73</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B778" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C778" t="n">
-        <v>4379.07</v>
-      </c>
-      <c r="D778" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="E778" t="n">
-        <v>2287.48</v>
-      </c>
-      <c r="F778" t="n">
-        <v>3527.53</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B779" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C779" t="n">
-        <v>4414.41</v>
-      </c>
-      <c r="D779" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="E779" t="n">
-        <v>2300.83</v>
-      </c>
-      <c r="F779" t="n">
-        <v>3418.59</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B780" s="2" t="n">
-        <v>44988</v>
-      </c>
-      <c r="C780" t="n">
-        <v>4467.81</v>
-      </c>
-      <c r="D780" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="E780" t="n">
-        <v>2329.45</v>
-      </c>
-      <c r="F780" t="n">
-        <v>3435.94</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B781" s="2" t="n">
-        <v>44989</v>
-      </c>
-      <c r="C781" t="n">
-        <v>4454.75</v>
-      </c>
-      <c r="D781" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="E781" t="n">
-        <v>2312.04</v>
-      </c>
-      <c r="F781" t="n">
-        <v>3447.44</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B782" s="2" t="n">
-        <v>44992</v>
-      </c>
-      <c r="C782" t="n">
-        <v>4467.56</v>
-      </c>
-      <c r="D782" t="n">
-        <v>51.17</v>
-      </c>
-      <c r="E782" t="n">
-        <v>2373.12</v>
-      </c>
-      <c r="F782" t="n">
-        <v>3520.86</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B783" s="2" t="n">
-        <v>44993</v>
-      </c>
-      <c r="C783" t="n">
-        <v>4485.83</v>
-      </c>
-      <c r="D783" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="E783" t="n">
-        <v>2341.11</v>
-      </c>
-      <c r="F783" t="n">
-        <v>3444.95</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B784" s="2" t="n">
-        <v>44995</v>
-      </c>
-      <c r="C784" t="n">
-        <v>4432.37</v>
-      </c>
-      <c r="D784" t="n">
-        <v>49.06</v>
-      </c>
-      <c r="E784" t="n">
-        <v>2303.67</v>
-      </c>
-      <c r="F784" t="n">
-        <v>3433.54</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B785" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="C785" t="n">
-        <v>4471.45</v>
-      </c>
-      <c r="D785" t="n">
-        <v>49.12</v>
-      </c>
-      <c r="E785" t="n">
-        <v>2326.79</v>
-      </c>
-      <c r="F785" t="n">
-        <v>3322.94</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B786" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="C786" t="n">
-        <v>4515.62</v>
-      </c>
-      <c r="D786" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="E786" t="n">
-        <v>2312.09</v>
-      </c>
-      <c r="F786" t="n">
-        <v>3369.88</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B787" s="2" t="n">
-        <v>45000</v>
-      </c>
-      <c r="C787" t="n">
-        <v>4620.57</v>
-      </c>
-      <c r="D787" t="n">
-        <v>51</v>
-      </c>
-      <c r="E787" t="n">
-        <v>2388.49</v>
-      </c>
-      <c r="F787" t="n">
-        <v>3461.86</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B788" s="2" t="n">
-        <v>45001</v>
-      </c>
-      <c r="C788" t="n">
-        <v>4645.42</v>
-      </c>
-      <c r="D788" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E788" t="n">
-        <v>2398.75</v>
-      </c>
-      <c r="F788" t="n">
-        <v>3640.74</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B789" s="2" t="n">
-        <v>45002</v>
-      </c>
-      <c r="C789" t="n">
-        <v>4725.06</v>
-      </c>
-      <c r="D789" t="n">
-        <v>54.28</v>
-      </c>
-      <c r="E789" t="n">
-        <v>2370.64</v>
-      </c>
-      <c r="F789" t="n">
-        <v>3530.16</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B790" s="2" t="n">
-        <v>45003</v>
-      </c>
-      <c r="C790" t="n">
-        <v>4735.52</v>
-      </c>
-      <c r="D790" t="n">
-        <v>54.21</v>
-      </c>
-      <c r="E790" t="n">
-        <v>2374.22</v>
-      </c>
-      <c r="F790" t="n">
-        <v>3539.17</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B791" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="C791" t="n">
-        <v>4872.66</v>
-      </c>
-      <c r="D791" t="n">
-        <v>54.35</v>
-      </c>
-      <c r="E791" t="n">
-        <v>2431.24</v>
-      </c>
-      <c r="F791" t="n">
-        <v>3449.43</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B792" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="C792" t="n">
-        <v>4865.03</v>
-      </c>
-      <c r="D792" t="n">
-        <v>55.57</v>
-      </c>
-      <c r="E792" t="n">
-        <v>2433.32</v>
-      </c>
-      <c r="F792" t="n">
-        <v>3453.58</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B793" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="C793" t="n">
-        <v>4830.86</v>
-      </c>
-      <c r="D793" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="E793" t="n">
-        <v>2432.13</v>
-      </c>
-      <c r="F793" t="n">
-        <v>3478.72</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B794" s="2" t="n">
-        <v>45009</v>
-      </c>
-      <c r="C794" t="n">
-        <v>4782.4</v>
-      </c>
-      <c r="D794" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="E794" t="n">
-        <v>2416.53</v>
-      </c>
-      <c r="F794" t="n">
-        <v>3503.36</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B795" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="C795" t="n">
-        <v>4861.51</v>
-      </c>
-      <c r="D795" t="n">
-        <v>56.28</v>
-      </c>
-      <c r="E795" t="n">
-        <v>2430.82</v>
-      </c>
-      <c r="F795" t="n">
-        <v>3527.02</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B796" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="C796" t="n">
-        <v>4908.06</v>
-      </c>
-      <c r="D796" t="n">
-        <v>57.04</v>
-      </c>
-      <c r="E796" t="n">
-        <v>2402.58</v>
-      </c>
-      <c r="F796" t="n">
-        <v>3490.63</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B797" s="2" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C797" t="n">
-        <v>4792.74</v>
-      </c>
-      <c r="D797" t="n">
-        <v>56.37</v>
-      </c>
-      <c r="E797" t="n">
-        <v>2403.45</v>
-      </c>
-      <c r="F797" t="n">
-        <v>3462.34</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B798" s="2" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C798" t="n">
-        <v>4857.86</v>
-      </c>
-      <c r="D798" t="n">
-        <v>57.03</v>
-      </c>
-      <c r="E798" t="n">
-        <v>2390.75</v>
-      </c>
-      <c r="F798" t="n">
-        <v>3504.46</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B799" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C799" t="n">
-        <v>4870.02</v>
-      </c>
-      <c r="D799" t="n">
-        <v>57.63</v>
-      </c>
-      <c r="E799" t="n">
-        <v>2384.2</v>
-      </c>
-      <c r="F799" t="n">
-        <v>3546.56</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B800" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C800" t="n">
-        <v>4886.98</v>
-      </c>
-      <c r="D800" t="n">
-        <v>58.94</v>
-      </c>
-      <c r="E800" t="n">
-        <v>2428.82</v>
-      </c>
-      <c r="F800" t="n">
-        <v>3716.57</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B801" s="2" t="n">
-        <v>45020</v>
-      </c>
-      <c r="C801" t="n">
-        <v>4961.49</v>
-      </c>
-      <c r="D801" t="n">
-        <v>59.86</v>
-      </c>
-      <c r="E801" t="n">
-        <v>2458.56</v>
-      </c>
-      <c r="F801" t="n">
-        <v>3734.21</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B802" s="2" t="n">
-        <v>45021</v>
-      </c>
-      <c r="C802" t="n">
-        <v>5060.12</v>
-      </c>
-      <c r="D802" t="n">
-        <v>61.04</v>
-      </c>
-      <c r="E802" t="n">
-        <v>2525.85</v>
-      </c>
-      <c r="F802" t="n">
-        <v>3781.12</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B803" s="2" t="n">
-        <v>45022</v>
-      </c>
-      <c r="C803" t="n">
-        <v>5136.25</v>
-      </c>
-      <c r="D803" t="n">
-        <v>61.38</v>
-      </c>
-      <c r="E803" t="n">
-        <v>2583.97</v>
-      </c>
-      <c r="F803" t="n">
-        <v>3787.78</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B804" s="2" t="n">
-        <v>45023</v>
-      </c>
-      <c r="C804" t="n">
-        <v>5267.29</v>
-      </c>
-      <c r="D804" t="n">
-        <v>64.17</v>
-      </c>
-      <c r="E804" t="n">
-        <v>2635.14</v>
-      </c>
-      <c r="F804" t="n">
-        <v>3804.87</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B805" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="C805" t="n">
-        <v>5303.4</v>
-      </c>
-      <c r="D805" t="n">
-        <v>66.06</v>
-      </c>
-      <c r="E805" t="n">
-        <v>2646.53</v>
-      </c>
-      <c r="F805" t="n">
-        <v>3828.07</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B806" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="C806" t="n">
-        <v>5261.26</v>
-      </c>
-      <c r="D806" t="n">
-        <v>65.53</v>
-      </c>
-      <c r="E806" t="n">
-        <v>2625.5</v>
-      </c>
-      <c r="F806" t="n">
-        <v>3797.65</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B807" s="2" t="n">
-        <v>45028</v>
-      </c>
-      <c r="C807" t="n">
-        <v>5289.31</v>
-      </c>
-      <c r="D807" t="n">
-        <v>65.88</v>
-      </c>
-      <c r="E807" t="n">
-        <v>2639.5</v>
-      </c>
-      <c r="F807" t="n">
-        <v>3817.9</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B808" s="2" t="n">
-        <v>45029</v>
-      </c>
-      <c r="C808" t="n">
-        <v>5285.85</v>
-      </c>
-      <c r="D808" t="n">
-        <v>66.13</v>
-      </c>
-      <c r="E808" t="n">
-        <v>2642</v>
-      </c>
-      <c r="F808" t="n">
-        <v>3779.57</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B809" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="C809" t="n">
-        <v>5273.4</v>
-      </c>
-      <c r="D809" t="n">
-        <v>66.03</v>
-      </c>
-      <c r="E809" t="n">
-        <v>2678.45</v>
-      </c>
-      <c r="F809" t="n">
-        <v>3812.86</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B810" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="C810" t="n">
-        <v>5367.82</v>
-      </c>
-      <c r="D810" t="n">
-        <v>67.14</v>
-      </c>
-      <c r="E810" t="n">
-        <v>2714.76</v>
-      </c>
-      <c r="F810" t="n">
-        <v>3883.48</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B811" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C811" t="n">
-        <v>5299.71</v>
-      </c>
-      <c r="D811" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E811" t="n">
-        <v>2737.24</v>
-      </c>
-      <c r="F811" t="n">
-        <v>3894.6</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B812" s="2" t="n">
-        <v>45035</v>
-      </c>
-      <c r="C812" t="n">
-        <v>5235.5</v>
-      </c>
-      <c r="D812" t="n">
-        <v>66.61</v>
-      </c>
-      <c r="E812" t="n">
-        <v>2767.89</v>
-      </c>
-      <c r="F812" t="n">
-        <v>3987.86</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B813" s="2" t="n">
-        <v>45036</v>
-      </c>
-      <c r="C813" t="n">
-        <v>5248.95</v>
-      </c>
-      <c r="D813" t="n">
-        <v>65.87</v>
-      </c>
-      <c r="E813" t="n">
-        <v>2816.91</v>
-      </c>
-      <c r="F813" t="n">
-        <v>4273.93</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B814" s="2" t="n">
-        <v>45037</v>
-      </c>
-      <c r="C814" t="n">
-        <v>5223.41</v>
-      </c>
-      <c r="D814" t="n">
-        <v>64.95</v>
-      </c>
-      <c r="E814" t="n">
-        <v>2820.91</v>
-      </c>
-      <c r="F814" t="n">
-        <v>4222.18</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B815" s="2" t="n">
-        <v>45038</v>
-      </c>
-      <c r="C815" t="n">
-        <v>5258.42</v>
-      </c>
-      <c r="D815" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="E815" t="n">
-        <v>2866.11</v>
-      </c>
-      <c r="F815" t="n">
-        <v>4238.91</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B816" s="2" t="n">
-        <v>45041</v>
-      </c>
-      <c r="C816" t="n">
-        <v>5157.21</v>
-      </c>
-      <c r="D816" t="n">
-        <v>65.73</v>
-      </c>
-      <c r="E816" t="n">
-        <v>2947.5</v>
-      </c>
-      <c r="F816" t="n">
-        <v>4254.02</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B817" s="2" t="n">
-        <v>45042</v>
-      </c>
-      <c r="C817" t="n">
-        <v>5186.62</v>
-      </c>
-      <c r="D817" t="n">
-        <v>65.63</v>
-      </c>
-      <c r="E817" t="n">
-        <v>2860.48</v>
-      </c>
-      <c r="F817" t="n">
-        <v>4050.82</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B818" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="C818" t="n">
-        <v>5215.69</v>
-      </c>
-      <c r="D818" t="n">
-        <v>65.33</v>
-      </c>
-      <c r="E818" t="n">
-        <v>2834.33</v>
-      </c>
-      <c r="F818" t="n">
-        <v>3920.82</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B819" s="2" t="n">
-        <v>45044</v>
-      </c>
-      <c r="C819" t="n">
-        <v>5252.3</v>
-      </c>
-      <c r="D819" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="E819" t="n">
-        <v>2866.08</v>
-      </c>
-      <c r="F819" t="n">
-        <v>3956.92</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B820" s="2" t="n">
-        <v>45045</v>
-      </c>
-      <c r="C820" t="n">
-        <v>5139.72</v>
-      </c>
-      <c r="D820" t="n">
-        <v>65.09</v>
-      </c>
-      <c r="E820" t="n">
-        <v>2808.45</v>
-      </c>
-      <c r="F820" t="n">
-        <v>3872.29</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B821" s="2" t="n">
-        <v>45049</v>
-      </c>
-      <c r="C821" t="n">
-        <v>5096.74</v>
-      </c>
-      <c r="D821" t="n">
-        <v>63.67</v>
-      </c>
-      <c r="E821" t="n">
-        <v>2761.04</v>
-      </c>
-      <c r="F821" t="n">
-        <v>3848.49</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B822" s="2" t="n">
-        <v>45050</v>
-      </c>
-      <c r="C822" t="n">
-        <v>5087.83</v>
-      </c>
-      <c r="D822" t="n">
-        <v>63.16</v>
-      </c>
-      <c r="E822" t="n">
-        <v>2674.72</v>
-      </c>
-      <c r="F822" t="n">
-        <v>3704.83</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B823" s="2" t="n">
-        <v>45051</v>
-      </c>
-      <c r="C823" t="n">
-        <v>5091.13</v>
-      </c>
-      <c r="D823" t="n">
-        <v>63.82</v>
-      </c>
-      <c r="E823" t="n">
-        <v>2679.14</v>
-      </c>
-      <c r="F823" t="n">
-        <v>3642.12</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B824" s="2" t="n">
-        <v>45052</v>
-      </c>
-      <c r="C824" t="n">
-        <v>5050.08</v>
-      </c>
-      <c r="D824" t="n">
-        <v>63.29</v>
-      </c>
-      <c r="E824" t="n">
-        <v>2600.74</v>
-      </c>
-      <c r="F824" t="n">
-        <v>3521.99</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B825" s="2" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C825" t="n">
-        <v>5005.93</v>
-      </c>
-      <c r="D825" t="n">
-        <v>63.04</v>
-      </c>
-      <c r="E825" t="n">
-        <v>2675.32</v>
-      </c>
-      <c r="F825" t="n">
-        <v>3871.2</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B826" s="2" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C826" t="n">
-        <v>4970.13</v>
-      </c>
-      <c r="D826" t="n">
-        <v>62.26</v>
-      </c>
-      <c r="E826" t="n">
-        <v>2739.83</v>
-      </c>
-      <c r="F826" t="n">
-        <v>3952.39</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B827" s="2" t="n">
-        <v>45059</v>
-      </c>
-      <c r="C827" t="n">
-        <v>5003.93</v>
-      </c>
-      <c r="D827" t="n">
-        <v>61.77</v>
-      </c>
-      <c r="E827" t="n">
-        <v>2777.55</v>
-      </c>
-      <c r="F827" t="n">
-        <v>3988.84</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B828" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C828" t="n">
-        <v>5136.88</v>
-      </c>
-      <c r="D828" t="n">
-        <v>60.67</v>
-      </c>
-      <c r="E828" t="n">
-        <v>2749.13</v>
-      </c>
-      <c r="F828" t="n">
-        <v>3931.69</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B829" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="C829" t="n">
-        <v>5193.99</v>
-      </c>
-      <c r="D829" t="n">
-        <v>61.43</v>
-      </c>
-      <c r="E829" t="n">
-        <v>2728.26</v>
-      </c>
-      <c r="F829" t="n">
-        <v>3944.54</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B830" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C830" t="n">
-        <v>5212.6</v>
-      </c>
-      <c r="D830" t="n">
-        <v>61.76</v>
-      </c>
-      <c r="E830" t="n">
-        <v>2778.39</v>
-      </c>
-      <c r="F830" t="n">
-        <v>3949.47</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B831" s="2" t="n">
-        <v>45065</v>
-      </c>
-      <c r="C831" t="n">
-        <v>5080.59</v>
-      </c>
-      <c r="D831" t="n">
-        <v>60.95</v>
-      </c>
-      <c r="E831" t="n">
-        <v>2766.23</v>
-      </c>
-      <c r="F831" t="n">
-        <v>3834.12</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B832" s="2" t="n">
-        <v>45066</v>
-      </c>
-      <c r="C832" t="n">
-        <v>5036.29</v>
-      </c>
-      <c r="D832" t="n">
-        <v>60.43</v>
-      </c>
-      <c r="E832" t="n">
-        <v>2741.27</v>
-      </c>
-      <c r="F832" t="n">
-        <v>3761.22</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B833" s="2" t="n">
-        <v>45069</v>
-      </c>
-      <c r="C833" t="n">
-        <v>5041.43</v>
-      </c>
-      <c r="D833" t="n">
-        <v>60.81</v>
-      </c>
-      <c r="E833" t="n">
-        <v>2752.54</v>
-      </c>
-      <c r="F833" t="n">
-        <v>3901.35</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B834" s="2" t="n">
-        <v>45070</v>
-      </c>
-      <c r="C834" t="n">
-        <v>5078.27</v>
-      </c>
-      <c r="D834" t="n">
-        <v>61.47</v>
-      </c>
-      <c r="E834" t="n">
-        <v>2768.14</v>
-      </c>
-      <c r="F834" t="n">
-        <v>3899.62</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B835" s="2" t="n">
-        <v>45071</v>
-      </c>
-      <c r="C835" t="n">
-        <v>5062.8</v>
-      </c>
-      <c r="D835" t="n">
-        <v>59.54</v>
-      </c>
-      <c r="E835" t="n">
-        <v>2740.68</v>
-      </c>
-      <c r="F835" t="n">
-        <v>3753.65</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B836" s="2" t="n">
-        <v>45072</v>
-      </c>
-      <c r="C836" t="n">
-        <v>5065.05</v>
-      </c>
-      <c r="D836" t="n">
-        <v>60.21</v>
-      </c>
-      <c r="E836" t="n">
-        <v>2679.55</v>
-      </c>
-      <c r="F836" t="n">
-        <v>3664.45</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B837" s="2" t="n">
-        <v>45073</v>
-      </c>
-      <c r="C837" t="n">
-        <v>5008.93</v>
-      </c>
-      <c r="D837" t="n">
-        <v>59.15</v>
-      </c>
-      <c r="E837" t="n">
-        <v>2630.12</v>
-      </c>
-      <c r="F837" t="n">
-        <v>3635.38</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B838" s="2" t="n">
-        <v>45076</v>
-      </c>
-      <c r="C838" t="n">
-        <v>5013.59</v>
-      </c>
-      <c r="D838" t="n">
-        <v>59.57</v>
-      </c>
-      <c r="E838" t="n">
-        <v>2638.19</v>
-      </c>
-      <c r="F838" t="n">
-        <v>3711.48</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B839" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="C839" t="n">
-        <v>5053.15</v>
-      </c>
-      <c r="D839" t="n">
-        <v>60.04</v>
-      </c>
-      <c r="E839" t="n">
-        <v>2659.01</v>
-      </c>
-      <c r="F839" t="n">
-        <v>3740.77</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B840" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C840" t="n">
-        <v>5084.22</v>
-      </c>
-      <c r="D840" t="n">
-        <v>60.56</v>
-      </c>
-      <c r="E840" t="n">
-        <v>2674.33</v>
-      </c>
-      <c r="F840" t="n">
-        <v>3689.9</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B841" s="2" t="n">
-        <v>45079</v>
-      </c>
-      <c r="C841" t="n">
-        <v>5113.54</v>
-      </c>
-      <c r="D841" t="n">
-        <v>60.54</v>
-      </c>
-      <c r="E841" t="n">
-        <v>2610.92</v>
-      </c>
-      <c r="F841" t="n">
-        <v>3618.32</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B842" s="2" t="n">
-        <v>45080</v>
-      </c>
-      <c r="C842" t="n">
-        <v>5133.72</v>
-      </c>
-      <c r="D842" t="n">
-        <v>61.08</v>
-      </c>
-      <c r="E842" t="n">
-        <v>2610.61</v>
-      </c>
-      <c r="F842" t="n">
-        <v>3567.49</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B843" s="2" t="n">
-        <v>45083</v>
-      </c>
-      <c r="C843" t="n">
-        <v>5133.5</v>
-      </c>
-      <c r="D843" t="n">
-        <v>62.45</v>
-      </c>
-      <c r="E843" t="n">
-        <v>2633.1</v>
-      </c>
-      <c r="F843" t="n">
-        <v>3710.4</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B844" s="2" t="n">
-        <v>45084</v>
-      </c>
-      <c r="C844" t="n">
-        <v>5119.1</v>
-      </c>
-      <c r="D844" t="n">
-        <v>61.32</v>
-      </c>
-      <c r="E844" t="n">
-        <v>2656.66</v>
-      </c>
-      <c r="F844" t="n">
-        <v>3683.28</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B845" s="2" t="n">
-        <v>45085</v>
-      </c>
-      <c r="C845" t="n">
-        <v>5125.91</v>
-      </c>
-      <c r="D845" t="n">
-        <v>61.92</v>
-      </c>
-      <c r="E845" t="n">
-        <v>2692.27</v>
-      </c>
-      <c r="F845" t="n">
-        <v>3684.84</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B846" s="2" t="n">
-        <v>45086</v>
-      </c>
-      <c r="C846" t="n">
-        <v>5192.52</v>
-      </c>
-      <c r="D846" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="E846" t="n">
-        <v>2731.73</v>
-      </c>
-      <c r="F846" t="n">
-        <v>3724.12</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B847" s="2" t="n">
-        <v>45087</v>
-      </c>
-      <c r="C847" t="n">
-        <v>5224.71</v>
-      </c>
-      <c r="D847" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="E847" t="n">
-        <v>2710.13</v>
-      </c>
-      <c r="F847" t="n">
-        <v>3669.3</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B848" s="2" t="n">
-        <v>45091</v>
-      </c>
-      <c r="C848" t="n">
-        <v>5251.55</v>
-      </c>
-      <c r="D848" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="E848" t="n">
-        <v>2670.28</v>
-      </c>
-      <c r="F848" t="n">
-        <v>3576.51</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B849" s="2" t="n">
-        <v>45092</v>
-      </c>
-      <c r="C849" t="n">
-        <v>5298.59</v>
-      </c>
-      <c r="D849" t="n">
-        <v>65.58</v>
-      </c>
-      <c r="E849" t="n">
-        <v>2689.42</v>
-      </c>
-      <c r="F849" t="n">
-        <v>3719.64</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B850" s="2" t="n">
-        <v>45093</v>
-      </c>
-      <c r="C850" t="n">
-        <v>5279.51</v>
-      </c>
-      <c r="D850" t="n">
-        <v>64.31</v>
-      </c>
-      <c r="E850" t="n">
-        <v>2640.02</v>
-      </c>
-      <c r="F850" t="n">
-        <v>3765.68</v>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B851" s="2" t="n">
-        <v>45094</v>
-      </c>
-      <c r="C851" t="n">
-        <v>5250.65</v>
-      </c>
-      <c r="D851" t="n">
-        <v>62.95</v>
-      </c>
-      <c r="E851" t="n">
-        <v>2632.92</v>
-      </c>
-      <c r="F851" t="n">
-        <v>3679.1</v>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B852" s="2" t="n">
-        <v>45097</v>
-      </c>
-      <c r="C852" t="n">
-        <v>5291.78</v>
-      </c>
-      <c r="D852" t="n">
-        <v>64.78</v>
-      </c>
-      <c r="E852" t="n">
-        <v>2665.13</v>
-      </c>
-      <c r="F852" t="n">
-        <v>3774.92</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B853" s="2" t="n">
-        <v>45098</v>
-      </c>
-      <c r="C853" t="n">
-        <v>5284.05</v>
-      </c>
-      <c r="D853" t="n">
-        <v>64.86</v>
-      </c>
-      <c r="E853" t="n">
-        <v>2662.13</v>
-      </c>
-      <c r="F853" t="n">
-        <v>3772.48</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B854" s="2" t="n">
-        <v>45099</v>
-      </c>
-      <c r="C854" t="n">
-        <v>5228.8</v>
-      </c>
-      <c r="D854" t="n">
-        <v>64.38</v>
-      </c>
-      <c r="E854" t="n">
-        <v>2611.08</v>
-      </c>
-      <c r="F854" t="n">
-        <v>3786.61</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B855" s="2" t="n">
-        <v>45100</v>
-      </c>
-      <c r="C855" t="n">
-        <v>5176.24</v>
-      </c>
-      <c r="D855" t="n">
-        <v>62.03</v>
-      </c>
-      <c r="E855" t="n">
-        <v>2550.96</v>
-      </c>
-      <c r="F855" t="n">
-        <v>3610.05</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B856" s="2" t="n">
-        <v>45101</v>
-      </c>
-      <c r="C856" t="n">
-        <v>5190.3</v>
-      </c>
-      <c r="D856" t="n">
-        <v>61.15</v>
-      </c>
-      <c r="E856" t="n">
-        <v>2535.61</v>
-      </c>
-      <c r="F856" t="n">
-        <v>3565.53</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B857" s="2" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C857" t="n">
-        <v>5255.39</v>
-      </c>
-      <c r="D857" t="n">
-        <v>60.81</v>
-      </c>
-      <c r="E857" t="n">
-        <v>2515.14</v>
-      </c>
-      <c r="F857" t="n">
-        <v>3481.46</v>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B858" s="2" t="n">
-        <v>45105</v>
-      </c>
-      <c r="C858" t="n">
-        <v>5258.04</v>
-      </c>
-      <c r="D858" t="n">
-        <v>62.35</v>
-      </c>
-      <c r="E858" t="n">
-        <v>2523.88</v>
-      </c>
-      <c r="F858" t="n">
-        <v>3614.92</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B859" s="2" t="n">
-        <v>45106</v>
-      </c>
-      <c r="C859" t="n">
-        <v>5282.19</v>
-      </c>
-      <c r="D859" t="n">
-        <v>62.86</v>
-      </c>
-      <c r="E859" t="n">
-        <v>2546.27</v>
-      </c>
-      <c r="F859" t="n">
-        <v>3619.83</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B860" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="C860" t="n">
-        <v>5340.1</v>
-      </c>
-      <c r="D860" t="n">
-        <v>63.27</v>
-      </c>
-      <c r="E860" t="n">
-        <v>2546.37</v>
-      </c>
-      <c r="F860" t="n">
-        <v>3427.81</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B861" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C861" t="n">
-        <v>5397.95</v>
-      </c>
-      <c r="D861" t="n">
-        <v>64.87</v>
-      </c>
-      <c r="E861" t="n">
-        <v>2557.46</v>
-      </c>
-      <c r="F861" t="n">
-        <v>3475.3</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B862" s="2" t="n">
-        <v>45111</v>
-      </c>
-      <c r="C862" t="n">
-        <v>5491.75</v>
-      </c>
-      <c r="D862" t="n">
-        <v>64.53</v>
-      </c>
-      <c r="E862" t="n">
-        <v>2576.08</v>
-      </c>
-      <c r="F862" t="n">
-        <v>3601.34</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B863" s="2" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C863" t="n">
-        <v>5552.75</v>
-      </c>
-      <c r="D863" t="n">
-        <v>65.56999999999999</v>
-      </c>
-      <c r="E863" t="n">
-        <v>2622.71</v>
-      </c>
-      <c r="F863" t="n">
-        <v>3549.73</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B864" s="2" t="n">
-        <v>45113</v>
-      </c>
-      <c r="C864" t="n">
-        <v>5599.02</v>
-      </c>
-      <c r="D864" t="n">
-        <v>66.81999999999999</v>
-      </c>
-      <c r="E864" t="n">
-        <v>2666.27</v>
-      </c>
-      <c r="F864" t="n">
-        <v>3604.4</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B865" s="2" t="n">
-        <v>45114</v>
-      </c>
-      <c r="C865" t="n">
-        <v>5728.1</v>
-      </c>
-      <c r="D865" t="n">
-        <v>67.89</v>
-      </c>
-      <c r="E865" t="n">
-        <v>2729.15</v>
-      </c>
-      <c r="F865" t="n">
-        <v>3708.32</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B866" s="2" t="n">
-        <v>45115</v>
-      </c>
-      <c r="C866" t="n">
-        <v>5626.82</v>
-      </c>
-      <c r="D866" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E866" t="n">
-        <v>2670.74</v>
-      </c>
-      <c r="F866" t="n">
-        <v>3681.84</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B867" s="2" t="n">
-        <v>45118</v>
-      </c>
-      <c r="C867" t="n">
-        <v>5654.58</v>
-      </c>
-      <c r="D867" t="n">
-        <v>66.81999999999999</v>
-      </c>
-      <c r="E867" t="n">
-        <v>2668</v>
-      </c>
-      <c r="F867" t="n">
-        <v>3644.6</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B868" s="2" t="n">
-        <v>45119</v>
-      </c>
-      <c r="C868" t="n">
-        <v>5594.93</v>
-      </c>
-      <c r="D868" t="n">
-        <v>67.04000000000001</v>
-      </c>
-      <c r="E868" t="n">
-        <v>2653.72</v>
-      </c>
-      <c r="F868" t="n">
-        <v>3491.74</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B869" s="2" t="n">
-        <v>45120</v>
-      </c>
-      <c r="C869" t="n">
-        <v>5634.89</v>
-      </c>
-      <c r="D869" t="n">
-        <v>67.41</v>
-      </c>
-      <c r="E869" t="n">
-        <v>2700.97</v>
-      </c>
-      <c r="F869" t="n">
-        <v>3601.29</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B870" s="2" t="n">
-        <v>45121</v>
-      </c>
-      <c r="C870" t="n">
-        <v>5663.03</v>
-      </c>
-      <c r="D870" t="n">
-        <v>67.15000000000001</v>
-      </c>
-      <c r="E870" t="n">
-        <v>2736.86</v>
-      </c>
-      <c r="F870" t="n">
-        <v>3708.09</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B871" s="2" t="n">
-        <v>45122</v>
-      </c>
-      <c r="C871" t="n">
-        <v>5673.24</v>
-      </c>
-      <c r="D871" t="n">
-        <v>70.29000000000001</v>
-      </c>
-      <c r="E871" t="n">
-        <v>2807.57</v>
-      </c>
-      <c r="F871" t="n">
-        <v>3708.66</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B872" s="2" t="n">
-        <v>45125</v>
-      </c>
-      <c r="C872" t="n">
-        <v>5679.65</v>
-      </c>
-      <c r="D872" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="E872" t="n">
-        <v>2840.26</v>
-      </c>
-      <c r="F872" t="n">
-        <v>3683.32</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B873" s="2" t="n">
-        <v>45126</v>
-      </c>
-      <c r="C873" t="n">
-        <v>5684.58</v>
-      </c>
-      <c r="D873" t="n">
-        <v>72.34</v>
-      </c>
-      <c r="E873" t="n">
-        <v>2831.21</v>
-      </c>
-      <c r="F873" t="n">
-        <v>3703.03</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B874" s="2" t="n">
-        <v>45127</v>
-      </c>
-      <c r="C874" t="n">
-        <v>5791.28</v>
-      </c>
-      <c r="D874" t="n">
-        <v>72.97</v>
-      </c>
-      <c r="E874" t="n">
-        <v>2882.44</v>
-      </c>
-      <c r="F874" t="n">
-        <v>3864.76</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B875" s="2" t="n">
-        <v>45128</v>
-      </c>
-      <c r="C875" t="n">
-        <v>5770.07</v>
-      </c>
-      <c r="D875" t="n">
-        <v>73.06999999999999</v>
-      </c>
-      <c r="E875" t="n">
-        <v>2877.22</v>
-      </c>
-      <c r="F875" t="n">
-        <v>3823.64</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B876" s="2" t="n">
-        <v>45129</v>
-      </c>
-      <c r="C876" t="n">
-        <v>5742.41</v>
-      </c>
-      <c r="D876" t="n">
-        <v>73.16</v>
-      </c>
-      <c r="E876" t="n">
-        <v>2818.75</v>
-      </c>
-      <c r="F876" t="n">
-        <v>3768.99</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B877" s="2" t="n">
-        <v>45132</v>
-      </c>
-      <c r="C877" t="n">
-        <v>5703.95</v>
-      </c>
-      <c r="D877" t="n">
-        <v>71.95</v>
-      </c>
-      <c r="E877" t="n">
-        <v>2795.82</v>
-      </c>
-      <c r="F877" t="n">
-        <v>3776.25</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B878" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="C878" t="n">
-        <v>5677.34</v>
-      </c>
-      <c r="D878" t="n">
-        <v>71.23</v>
-      </c>
-      <c r="E878" t="n">
-        <v>2786.53</v>
-      </c>
-      <c r="F878" t="n">
-        <v>3727.93</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B879" s="2" t="n">
-        <v>45134</v>
-      </c>
-      <c r="C879" t="n">
-        <v>5670.57</v>
-      </c>
-      <c r="D879" t="n">
-        <v>71.09</v>
-      </c>
-      <c r="E879" t="n">
-        <v>2799.53</v>
-      </c>
-      <c r="F879" t="n">
-        <v>3734.64</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B880" s="2" t="n">
-        <v>45135</v>
-      </c>
-      <c r="C880" t="n">
-        <v>5691.04</v>
-      </c>
-      <c r="D880" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="E880" t="n">
-        <v>2778.52</v>
-      </c>
-      <c r="F880" t="n">
-        <v>3629.44</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B881" s="2" t="n">
-        <v>45136</v>
-      </c>
-      <c r="C881" t="n">
-        <v>5690.18</v>
-      </c>
-      <c r="D881" t="n">
-        <v>73.15000000000001</v>
-      </c>
-      <c r="E881" t="n">
-        <v>2802.17</v>
-      </c>
-      <c r="F881" t="n">
-        <v>3644.57</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B882" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C882" t="n">
-        <v>5754.79</v>
-      </c>
-      <c r="D882" t="n">
-        <v>71.34</v>
-      </c>
-      <c r="E882" t="n">
-        <v>2747.46</v>
-      </c>
-      <c r="F882" t="n">
-        <v>3654.45</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B883" s="2" t="n">
-        <v>45140</v>
-      </c>
-      <c r="C883" t="n">
-        <v>5814.7</v>
-      </c>
-      <c r="D883" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="E883" t="n">
-        <v>2800.17</v>
-      </c>
-      <c r="F883" t="n">
-        <v>3759.13</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B884" s="2" t="n">
-        <v>45141</v>
-      </c>
-      <c r="C884" t="n">
-        <v>5812.21</v>
-      </c>
-      <c r="D884" t="n">
-        <v>73.17</v>
-      </c>
-      <c r="E884" t="n">
-        <v>2775.96</v>
-      </c>
-      <c r="F884" t="n">
-        <v>3695.31</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B885" s="2" t="n">
-        <v>45142</v>
-      </c>
-      <c r="C885" t="n">
-        <v>5861.9</v>
-      </c>
-      <c r="D885" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="E885" t="n">
-        <v>2801</v>
-      </c>
-      <c r="F885" t="n">
-        <v>3750.75</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B886" s="2" t="n">
-        <v>45143</v>
-      </c>
-      <c r="C886" t="n">
-        <v>5900.12</v>
-      </c>
-      <c r="D886" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="E886" t="n">
-        <v>2807.33</v>
-      </c>
-      <c r="F886" t="n">
-        <v>3810.17</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B887" s="2" t="n">
-        <v>45146</v>
-      </c>
-      <c r="C887" t="n">
-        <v>6030.71</v>
-      </c>
-      <c r="D887" t="n">
-        <v>72.81</v>
-      </c>
-      <c r="E887" t="n">
-        <v>2853.21</v>
-      </c>
-      <c r="F887" t="n">
-        <v>3905.7</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B888" s="2" t="n">
-        <v>45147</v>
-      </c>
-      <c r="C888" t="n">
-        <v>5966.82</v>
-      </c>
-      <c r="D888" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="E888" t="n">
-        <v>2872.67</v>
-      </c>
-      <c r="F888" t="n">
-        <v>3895.1</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B889" s="2" t="n">
-        <v>45148</v>
-      </c>
-      <c r="C889" t="n">
-        <v>6032.48</v>
-      </c>
-      <c r="D889" t="n">
-        <v>72.15000000000001</v>
-      </c>
-      <c r="E889" t="n">
-        <v>2837.12</v>
-      </c>
-      <c r="F889" t="n">
-        <v>3801.61</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B890" s="2" t="n">
-        <v>45149</v>
-      </c>
-      <c r="C890" t="n">
-        <v>6013.6</v>
-      </c>
-      <c r="D890" t="n">
-        <v>71.01000000000001</v>
-      </c>
-      <c r="E890" t="n">
-        <v>2796.08</v>
-      </c>
-      <c r="F890" t="n">
-        <v>3821.93</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B891" s="2" t="n">
-        <v>45150</v>
-      </c>
-      <c r="C891" t="n">
-        <v>6065.07</v>
-      </c>
-      <c r="D891" t="n">
-        <v>71.98999999999999</v>
-      </c>
-      <c r="E891" t="n">
-        <v>2844.83</v>
-      </c>
-      <c r="F891" t="n">
-        <v>4006.76</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B892" s="2" t="n">
-        <v>45153</v>
-      </c>
-      <c r="C892" t="n">
-        <v>6223.49</v>
-      </c>
-      <c r="D892" t="n">
-        <v>73.70999999999999</v>
-      </c>
-      <c r="E892" t="n">
-        <v>2959.39</v>
-      </c>
-      <c r="F892" t="n">
-        <v>4301.02</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B893" s="2" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C893" t="n">
-        <v>5962.88</v>
-      </c>
-      <c r="D893" t="n">
-        <v>71.18000000000001</v>
-      </c>
-      <c r="E893" t="n">
-        <v>2825.22</v>
-      </c>
-      <c r="F893" t="n">
-        <v>3993.53</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B894" s="2" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C894" t="n">
-        <v>5919.3</v>
-      </c>
-      <c r="D894" t="n">
-        <v>69.68000000000001</v>
-      </c>
-      <c r="E894" t="n">
-        <v>2767.12</v>
-      </c>
-      <c r="F894" t="n">
-        <v>3873.96</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B895" s="2" t="n">
-        <v>45156</v>
-      </c>
-      <c r="C895" t="n">
-        <v>5739.26</v>
-      </c>
-      <c r="D895" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="E895" t="n">
-        <v>2673.42</v>
-      </c>
-      <c r="F895" t="n">
-        <v>3671.05</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B896" s="2" t="n">
-        <v>45157</v>
-      </c>
-      <c r="C896" t="n">
-        <v>5694.79</v>
-      </c>
-      <c r="D896" t="n">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="E896" t="n">
-        <v>2732.76</v>
-      </c>
-      <c r="F896" t="n">
-        <v>3702.73</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B897" s="2" t="n">
-        <v>45160</v>
-      </c>
-      <c r="C897" t="n">
-        <v>5731.75</v>
-      </c>
-      <c r="D897" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="E897" t="n">
-        <v>2736.18</v>
-      </c>
-      <c r="F897" t="n">
-        <v>3719.87</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B898" s="2" t="n">
-        <v>45161</v>
-      </c>
-      <c r="C898" t="n">
-        <v>5718.64</v>
-      </c>
-      <c r="D898" t="n">
-        <v>69.23</v>
-      </c>
-      <c r="E898" t="n">
-        <v>2756.67</v>
-      </c>
-      <c r="F898" t="n">
-        <v>3752.21</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B899" s="2" t="n">
-        <v>45162</v>
-      </c>
-      <c r="C899" t="n">
-        <v>5747.11</v>
-      </c>
-      <c r="D899" t="n">
-        <v>71.02</v>
-      </c>
-      <c r="E899" t="n">
-        <v>2817.76</v>
-      </c>
-      <c r="F899" t="n">
-        <v>3913.9</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B900" s="2" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C900" t="n">
-        <v>5817.13</v>
-      </c>
-      <c r="D900" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="E900" t="n">
-        <v>2819.56</v>
-      </c>
-      <c r="F900" t="n">
-        <v>3890.94</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B901" s="2" t="n">
-        <v>45164</v>
-      </c>
-      <c r="C901" t="n">
-        <v>5837.51</v>
-      </c>
-      <c r="D901" t="n">
-        <v>73.64</v>
-      </c>
-      <c r="E901" t="n">
-        <v>2841.03</v>
-      </c>
-      <c r="F901" t="n">
-        <v>3788.04</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B902" s="2" t="n">
-        <v>45167</v>
-      </c>
-      <c r="C902" t="n">
-        <v>5879.6</v>
-      </c>
-      <c r="D902" t="n">
-        <v>74.23999999999999</v>
-      </c>
-      <c r="E902" t="n">
-        <v>2912.94</v>
-      </c>
-      <c r="F902" t="n">
-        <v>3784.67</v>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B903" s="2" t="n">
-        <v>45168</v>
-      </c>
-      <c r="C903" t="n">
-        <v>5894.09</v>
-      </c>
-      <c r="D903" t="n">
-        <v>74.42</v>
-      </c>
-      <c r="E903" t="n">
-        <v>2920.12</v>
-      </c>
-      <c r="F903" t="n">
-        <v>3794</v>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B904" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="C904" t="n">
-        <v>5952.44</v>
-      </c>
-      <c r="D904" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="E904" t="n">
-        <v>3019.4</v>
-      </c>
-      <c r="F904" t="n">
-        <v>3775.02</v>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B905" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C905" t="n">
-        <v>6031.99</v>
-      </c>
-      <c r="D905" t="n">
-        <v>76.25</v>
-      </c>
-      <c r="E905" t="n">
-        <v>3047.67</v>
-      </c>
-      <c r="F905" t="n">
-        <v>3831.26</v>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B906" s="2" t="n">
-        <v>45171</v>
-      </c>
-      <c r="C906" t="n">
-        <v>6016.15</v>
-      </c>
-      <c r="D906" t="n">
-        <v>76</v>
-      </c>
-      <c r="E906" t="n">
-        <v>3035.49</v>
-      </c>
-      <c r="F906" t="n">
-        <v>3794.36</v>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B907" s="2" t="n">
-        <v>45174</v>
-      </c>
-      <c r="C907" t="n">
-        <v>6028.12</v>
-      </c>
-      <c r="D907" t="n">
-        <v>76.56</v>
-      </c>
-      <c r="E907" t="n">
-        <v>3053.59</v>
-      </c>
-      <c r="F907" t="n">
-        <v>3811.55</v>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B908" s="2" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C908" t="n">
-        <v>6074.92</v>
-      </c>
-      <c r="D908" t="n">
-        <v>75.37</v>
-      </c>
-      <c r="E908" t="n">
-        <v>3010.49</v>
-      </c>
-      <c r="F908" t="n">
-        <v>3860.33</v>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B909" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="C909" t="n">
-        <v>6059.03</v>
-      </c>
-      <c r="D909" t="n">
-        <v>74.06999999999999</v>
-      </c>
-      <c r="E909" t="n">
-        <v>2972.74</v>
-      </c>
-      <c r="F909" t="n">
-        <v>3790.63</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B910" s="2" t="n">
-        <v>45177</v>
-      </c>
-      <c r="C910" t="n">
-        <v>6068.06</v>
-      </c>
-      <c r="D910" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="E910" t="n">
-        <v>2888.72</v>
-      </c>
-      <c r="F910" t="n">
-        <v>3791.65</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B911" s="2" t="n">
-        <v>45178</v>
-      </c>
-      <c r="C911" t="n">
-        <v>6039.6</v>
-      </c>
-      <c r="D911" t="n">
-        <v>72.44</v>
-      </c>
-      <c r="E911" t="n">
-        <v>2846.09</v>
-      </c>
-      <c r="F911" t="n">
-        <v>3800.04</v>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B912" s="2" t="n">
-        <v>45181</v>
-      </c>
-      <c r="C912" t="n">
-        <v>5981.6</v>
-      </c>
-      <c r="D912" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="E912" t="n">
-        <v>2792.53</v>
-      </c>
-      <c r="F912" t="n">
-        <v>3745.09</v>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B913" s="2" t="n">
-        <v>45182</v>
-      </c>
-      <c r="C913" t="n">
-        <v>5861.06</v>
-      </c>
-      <c r="D913" t="n">
-        <v>70.34999999999999</v>
-      </c>
-      <c r="E913" t="n">
-        <v>2749.44</v>
-      </c>
-      <c r="F913" t="n">
-        <v>3699.41</v>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B914" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="C914" t="n">
-        <v>5889.42</v>
-      </c>
-      <c r="D914" t="n">
-        <v>70.66</v>
-      </c>
-      <c r="E914" t="n">
-        <v>2777.23</v>
-      </c>
-      <c r="F914" t="n">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B915" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C915" t="n">
-        <v>5916.79</v>
-      </c>
-      <c r="D915" t="n">
-        <v>70.81</v>
-      </c>
-      <c r="E915" t="n">
-        <v>2785.57</v>
-      </c>
-      <c r="F915" t="n">
-        <v>3815.09</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B916" s="2" t="n">
-        <v>45185</v>
-      </c>
-      <c r="C916" t="n">
-        <v>5908.45</v>
-      </c>
-      <c r="D916" t="n">
-        <v>70.34</v>
-      </c>
-      <c r="E916" t="n">
-        <v>2805.48</v>
-      </c>
-      <c r="F916" t="n">
-        <v>3911.52</v>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B917" s="2" t="n">
-        <v>45188</v>
-      </c>
-      <c r="C917" t="n">
-        <v>5989.9</v>
-      </c>
-      <c r="D917" t="n">
-        <v>71.65000000000001</v>
-      </c>
-      <c r="E917" t="n">
-        <v>2880.45</v>
-      </c>
-      <c r="F917" t="n">
-        <v>3946.24</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B918" s="2" t="n">
-        <v>45189</v>
-      </c>
-      <c r="C918" t="n">
-        <v>5950.65</v>
-      </c>
-      <c r="D918" t="n">
-        <v>71.76000000000001</v>
-      </c>
-      <c r="E918" t="n">
-        <v>2892.57</v>
-      </c>
-      <c r="F918" t="n">
-        <v>3857.79</v>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B919" s="2" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C919" t="n">
-        <v>6010.4</v>
-      </c>
-      <c r="D919" t="n">
-        <v>72.47</v>
-      </c>
-      <c r="E919" t="n">
-        <v>2944.78</v>
-      </c>
-      <c r="F919" t="n">
-        <v>3951.23</v>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B920" s="2" t="n">
-        <v>45191</v>
-      </c>
-      <c r="C920" t="n">
-        <v>6002.85</v>
-      </c>
-      <c r="D920" t="n">
-        <v>71.89</v>
-      </c>
-      <c r="E920" t="n">
-        <v>2912.85</v>
-      </c>
-      <c r="F920" t="n">
-        <v>3990.88</v>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B921" s="2" t="n">
-        <v>45192</v>
-      </c>
-      <c r="C921" t="n">
-        <v>5913.17</v>
-      </c>
-      <c r="D921" t="n">
-        <v>71.76000000000001</v>
-      </c>
-      <c r="E921" t="n">
-        <v>2831.53</v>
-      </c>
-      <c r="F921" t="n">
-        <v>3835.07</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B922" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="C922" t="n">
-        <v>5957.73</v>
-      </c>
-      <c r="D922" t="n">
-        <v>73.11</v>
-      </c>
-      <c r="E922" t="n">
-        <v>2905.68</v>
-      </c>
-      <c r="F922" t="n">
-        <v>3941.22</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B923" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="C923" t="n">
-        <v>5955.71</v>
-      </c>
-      <c r="D923" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="E923" t="n">
-        <v>2843.49</v>
-      </c>
-      <c r="F923" t="n">
-        <v>3839.8</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B924" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="C924" t="n">
-        <v>5916.71</v>
-      </c>
-      <c r="D924" t="n">
-        <v>71.41</v>
-      </c>
-      <c r="E924" t="n">
-        <v>2810.91</v>
-      </c>
-      <c r="F924" t="n">
-        <v>3763.39</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B925" s="2" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C925" t="n">
-        <v>5885.88</v>
-      </c>
-      <c r="D925" t="n">
-        <v>71.06999999999999</v>
-      </c>
-      <c r="E925" t="n">
-        <v>2822.4</v>
-      </c>
-      <c r="F925" t="n">
-        <v>3870.28</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B926" s="2" t="n">
-        <v>45199</v>
-      </c>
-      <c r="C926" t="n">
-        <v>5867.87</v>
-      </c>
-      <c r="D926" t="n">
-        <v>70.63</v>
-      </c>
-      <c r="E926" t="n">
-        <v>2821.89</v>
-      </c>
-      <c r="F926" t="n">
-        <v>3899.28</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B927" s="2" t="n">
-        <v>45202</v>
-      </c>
-      <c r="C927" t="n">
-        <v>5922.29</v>
-      </c>
-      <c r="D927" t="n">
-        <v>73.06</v>
-      </c>
-      <c r="E927" t="n">
-        <v>2922.36</v>
-      </c>
-      <c r="F927" t="n">
-        <v>4081.17</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B928" s="2" t="n">
-        <v>45203</v>
-      </c>
-      <c r="C928" t="n">
-        <v>5850.23</v>
-      </c>
-      <c r="D928" t="n">
-        <v>69</v>
-      </c>
-      <c r="E928" t="n">
-        <v>2875.57</v>
-      </c>
-      <c r="F928" t="n">
-        <v>3874.52</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B929" s="2" t="n">
-        <v>45204</v>
-      </c>
-      <c r="C929" t="n">
-        <v>5827.4</v>
-      </c>
-      <c r="D929" t="n">
-        <v>67.31999999999999</v>
-      </c>
-      <c r="E929" t="n">
-        <v>2817.06</v>
-      </c>
-      <c r="F929" t="n">
-        <v>3782.72</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B930" s="2" t="n">
-        <v>45205</v>
-      </c>
-      <c r="C930" t="n">
-        <v>5829.12</v>
-      </c>
-      <c r="D930" t="n">
-        <v>67.63</v>
-      </c>
-      <c r="E930" t="n">
-        <v>2800.87</v>
-      </c>
-      <c r="F930" t="n">
-        <v>3771.89</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B931" s="2" t="n">
-        <v>45206</v>
-      </c>
-      <c r="C931" t="n">
-        <v>5878.39</v>
-      </c>
-      <c r="D931" t="n">
-        <v>68.27</v>
-      </c>
-      <c r="E931" t="n">
-        <v>2791.46</v>
-      </c>
-      <c r="F931" t="n">
-        <v>3738.11</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B932" s="2" t="n">
-        <v>45209</v>
-      </c>
-      <c r="C932" t="n">
-        <v>5929.7</v>
-      </c>
-      <c r="D932" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="E932" t="n">
-        <v>2796.04</v>
-      </c>
-      <c r="F932" t="n">
-        <v>3734.57</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B933" s="2" t="n">
-        <v>45210</v>
-      </c>
-      <c r="C933" t="n">
-        <v>5929.55</v>
-      </c>
-      <c r="D933" t="n">
-        <v>69.56</v>
-      </c>
-      <c r="E933" t="n">
-        <v>2827.42</v>
-      </c>
-      <c r="F933" t="n">
-        <v>3637.09</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B934" s="2" t="n">
-        <v>45211</v>
-      </c>
-      <c r="C934" t="n">
-        <v>5969.24</v>
-      </c>
-      <c r="D934" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="E934" t="n">
-        <v>2848.01</v>
-      </c>
-      <c r="F934" t="n">
-        <v>3629.12</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B935" s="2" t="n">
-        <v>45212</v>
-      </c>
-      <c r="C935" t="n">
-        <v>5835.41</v>
-      </c>
-      <c r="D935" t="n">
-        <v>68.81999999999999</v>
-      </c>
-      <c r="E935" t="n">
-        <v>2744.24</v>
-      </c>
-      <c r="F935" t="n">
-        <v>3623.64</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B936" s="2" t="n">
-        <v>45213</v>
-      </c>
-      <c r="C936" t="n">
-        <v>5862.82</v>
-      </c>
-      <c r="D936" t="n">
-        <v>69.27</v>
-      </c>
-      <c r="E936" t="n">
-        <v>2762.47</v>
-      </c>
-      <c r="F936" t="n">
-        <v>3641.58</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B937" s="2" t="n">
-        <v>45216</v>
-      </c>
-      <c r="C937" t="n">
-        <v>5971.66</v>
-      </c>
-      <c r="D937" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="E937" t="n">
-        <v>2755.62</v>
-      </c>
-      <c r="F937" t="n">
-        <v>3568.86</v>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B938" s="2" t="n">
-        <v>45217</v>
-      </c>
-      <c r="C938" t="n">
-        <v>6002.99</v>
-      </c>
-      <c r="D938" t="n">
-        <v>70.72</v>
-      </c>
-      <c r="E938" t="n">
-        <v>2763.56</v>
-      </c>
-      <c r="F938" t="n">
-        <v>3552.25</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B939" s="2" t="n">
-        <v>45218</v>
-      </c>
-      <c r="C939" t="n">
-        <v>6036.41</v>
-      </c>
-      <c r="D939" t="n">
-        <v>71</v>
-      </c>
-      <c r="E939" t="n">
-        <v>2801.88</v>
-      </c>
-      <c r="F939" t="n">
-        <v>3553.22</v>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B940" s="2" t="n">
-        <v>45219</v>
-      </c>
-      <c r="C940" t="n">
-        <v>6118.41</v>
-      </c>
-      <c r="D940" t="n">
-        <v>72.61</v>
-      </c>
-      <c r="E940" t="n">
-        <v>2809.4</v>
-      </c>
-      <c r="F940" t="n">
-        <v>3535.21</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B941" s="2" t="n">
-        <v>45220</v>
-      </c>
-      <c r="C941" t="n">
-        <v>6023.62</v>
-      </c>
-      <c r="D941" t="n">
-        <v>70.56</v>
-      </c>
-      <c r="E941" t="n">
-        <v>2738.08</v>
-      </c>
-      <c r="F941" t="n">
-        <v>3413.35</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B942" s="2" t="n">
-        <v>45223</v>
-      </c>
-      <c r="C942" t="n">
-        <v>6054.85</v>
-      </c>
-      <c r="D942" t="n">
-        <v>70.69</v>
-      </c>
-      <c r="E942" t="n">
-        <v>2725.22</v>
-      </c>
-      <c r="F942" t="n">
-        <v>3352.47</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B943" s="2" t="n">
-        <v>45224</v>
-      </c>
-      <c r="C943" t="n">
-        <v>5932.44</v>
-      </c>
-      <c r="D943" t="n">
-        <v>69.70999999999999</v>
-      </c>
-      <c r="E943" t="n">
-        <v>2700.12</v>
-      </c>
-      <c r="F943" t="n">
-        <v>3346.58</v>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B944" s="2" t="n">
-        <v>45225</v>
-      </c>
-      <c r="C944" t="n">
-        <v>5880.86</v>
-      </c>
-      <c r="D944" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E944" t="n">
-        <v>2656.44</v>
-      </c>
-      <c r="F944" t="n">
-        <v>3354.25</v>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B945" s="2" t="n">
-        <v>45226</v>
-      </c>
-      <c r="C945" t="n">
-        <v>5965.91</v>
-      </c>
-      <c r="D945" t="n">
-        <v>68.61</v>
-      </c>
-      <c r="E945" t="n">
-        <v>2695.23</v>
-      </c>
-      <c r="F945" t="n">
-        <v>3417.17</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B946" s="2" t="n">
-        <v>45227</v>
-      </c>
-      <c r="C946" t="n">
-        <v>5919.09</v>
-      </c>
-      <c r="D946" t="n">
-        <v>68.84</v>
-      </c>
-      <c r="E946" t="n">
-        <v>2733.27</v>
-      </c>
-      <c r="F946" t="n">
-        <v>3365.64</v>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B947" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C947" t="n">
-        <v>5944.43</v>
-      </c>
-      <c r="D947" t="n">
-        <v>68.22</v>
-      </c>
-      <c r="E947" t="n">
-        <v>2707.05</v>
-      </c>
-      <c r="F947" t="n">
-        <v>3414.55</v>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B948" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="C948" t="n">
-        <v>5910.09</v>
-      </c>
-      <c r="D948" t="n">
-        <v>68.48999999999999</v>
-      </c>
-      <c r="E948" t="n">
-        <v>2742.62</v>
-      </c>
-      <c r="F948" t="n">
-        <v>3390.55</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B949" s="2" t="n">
-        <v>45232</v>
-      </c>
-      <c r="C949" t="n">
-        <v>5988.75</v>
-      </c>
-      <c r="D949" t="n">
-        <v>69.58</v>
-      </c>
-      <c r="E949" t="n">
-        <v>2819.08</v>
-      </c>
-      <c r="F949" t="n">
-        <v>3406.89</v>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B950" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C950" t="n">
-        <v>5950.27</v>
-      </c>
-      <c r="D950" t="n">
-        <v>67.91</v>
-      </c>
-      <c r="E950" t="n">
-        <v>2782.89</v>
-      </c>
-      <c r="F950" t="n">
-        <v>3382.01</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B951" s="2" t="n">
-        <v>45234</v>
-      </c>
-      <c r="C951" t="n">
-        <v>5933.24</v>
-      </c>
-      <c r="D951" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="E951" t="n">
-        <v>2754.85</v>
-      </c>
-      <c r="F951" t="n">
-        <v>3341.11</v>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B952" s="2" t="n">
-        <v>45238</v>
-      </c>
-      <c r="C952" t="n">
-        <v>5896.67</v>
-      </c>
-      <c r="D952" t="n">
-        <v>68.95999999999999</v>
-      </c>
-      <c r="E952" t="n">
-        <v>2754.31</v>
-      </c>
-      <c r="F952" t="n">
-        <v>3336.67</v>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B953" s="2" t="n">
-        <v>45239</v>
-      </c>
-      <c r="C953" t="n">
-        <v>5811.93</v>
-      </c>
-      <c r="D953" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E953" t="n">
-        <v>2664.82</v>
-      </c>
-      <c r="F953" t="n">
-        <v>3171.7</v>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B954" s="2" t="n">
-        <v>45240</v>
-      </c>
-      <c r="C954" t="n">
-        <v>5790.87</v>
-      </c>
-      <c r="D954" t="n">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="E954" t="n">
-        <v>2600.85</v>
-      </c>
-      <c r="F954" t="n">
-        <v>3002.79</v>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B955" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="C955" t="n">
-        <v>5793.24</v>
-      </c>
-      <c r="D955" t="n">
-        <v>66.73999999999999</v>
-      </c>
-      <c r="E955" t="n">
-        <v>2568.92</v>
-      </c>
-      <c r="F955" t="n">
-        <v>3033.58</v>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B956" s="2" t="n">
-        <v>45244</v>
-      </c>
-      <c r="C956" t="n">
-        <v>5750.54</v>
-      </c>
-      <c r="D956" t="n">
-        <v>66.62</v>
-      </c>
-      <c r="E956" t="n">
-        <v>2570.74</v>
-      </c>
-      <c r="F956" t="n">
-        <v>3035.72</v>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B957" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="C957" t="n">
-        <v>5665.95</v>
-      </c>
-      <c r="D957" t="n">
-        <v>64.77</v>
-      </c>
-      <c r="E957" t="n">
-        <v>2493.88</v>
-      </c>
-      <c r="F957" t="n">
-        <v>2825.42</v>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B958" s="2" t="n">
-        <v>45246</v>
-      </c>
-      <c r="C958" t="n">
-        <v>5663.17</v>
-      </c>
-      <c r="D958" t="n">
-        <v>64.28</v>
-      </c>
-      <c r="E958" t="n">
-        <v>2522.33</v>
-      </c>
-      <c r="F958" t="n">
-        <v>2876.09</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B959" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="C959" t="n">
-        <v>5599.86</v>
-      </c>
-      <c r="D959" t="n">
-        <v>66.95</v>
-      </c>
-      <c r="E959" t="n">
-        <v>2565.15</v>
-      </c>
-      <c r="F959" t="n">
-        <v>2919.75</v>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B960" s="2" t="n">
-        <v>45248</v>
-      </c>
-      <c r="C960" t="n">
-        <v>5673.76</v>
-      </c>
-      <c r="D960" t="n">
-        <v>67.81999999999999</v>
-      </c>
-      <c r="E960" t="n">
-        <v>2578.85</v>
-      </c>
-      <c r="F960" t="n">
-        <v>2954.22</v>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B961" s="2" t="n">
-        <v>45251</v>
-      </c>
-      <c r="C961" t="n">
-        <v>5636.47</v>
-      </c>
-      <c r="D961" t="n">
-        <v>68.27</v>
-      </c>
-      <c r="E961" t="n">
-        <v>2563.52</v>
-      </c>
-      <c r="F961" t="n">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B962" s="2" t="n">
-        <v>45252</v>
-      </c>
-      <c r="C962" t="n">
-        <v>5561.75</v>
-      </c>
-      <c r="D962" t="n">
-        <v>66.06</v>
-      </c>
-      <c r="E962" t="n">
-        <v>2539.75</v>
-      </c>
-      <c r="F962" t="n">
-        <v>3031.32</v>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B963" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="C963" t="n">
-        <v>5687.83</v>
-      </c>
-      <c r="D963" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E963" t="n">
-        <v>2638.98</v>
-      </c>
-      <c r="F963" t="n">
-        <v>3047.15</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B964" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="C964" t="n">
-        <v>5659.34</v>
-      </c>
-      <c r="D964" t="n">
-        <v>67.53</v>
-      </c>
-      <c r="E964" t="n">
-        <v>2637.65</v>
-      </c>
-      <c r="F964" t="n">
-        <v>3020.13</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B965" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="C965" t="n">
-        <v>5690.41</v>
-      </c>
-      <c r="D965" t="n">
-        <v>67.54000000000001</v>
-      </c>
-      <c r="E965" t="n">
-        <v>2629.83</v>
-      </c>
-      <c r="F965" t="n">
-        <v>3018.17</v>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B966" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="C966" t="n">
-        <v>5706.25</v>
-      </c>
-      <c r="D966" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E966" t="n">
-        <v>2612.35</v>
-      </c>
-      <c r="F966" t="n">
-        <v>2988.81</v>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B967" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="C967" t="n">
-        <v>5736.79</v>
-      </c>
-      <c r="D967" t="n">
-        <v>70.52</v>
-      </c>
-      <c r="E967" t="n">
-        <v>2632.37</v>
-      </c>
-      <c r="F967" t="n">
-        <v>3031.21</v>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B968" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C968" t="n">
-        <v>5788.68</v>
-      </c>
-      <c r="D968" t="n">
-        <v>70.44</v>
-      </c>
-      <c r="E968" t="n">
-        <v>2651.93</v>
-      </c>
-      <c r="F968" t="n">
-        <v>3026.29</v>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B969" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="C969" t="n">
-        <v>5829.66</v>
-      </c>
-      <c r="D969" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="E969" t="n">
-        <v>2654.31</v>
-      </c>
-      <c r="F969" t="n">
-        <v>2916.32</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B970" s="2" t="n">
-        <v>45262</v>
-      </c>
-      <c r="C970" t="n">
-        <v>5874.13</v>
-      </c>
-      <c r="D970" t="n">
-        <v>72.20999999999999</v>
-      </c>
-      <c r="E970" t="n">
-        <v>2704.1</v>
-      </c>
-      <c r="F970" t="n">
-        <v>2958.06</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B971" s="2" t="n">
-        <v>45265</v>
-      </c>
-      <c r="C971" t="n">
-        <v>5962.74</v>
-      </c>
-      <c r="D971" t="n">
-        <v>73.34999999999999</v>
-      </c>
-      <c r="E971" t="n">
-        <v>2708.22</v>
-      </c>
-      <c r="F971" t="n">
-        <v>2941.43</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B972" s="2" t="n">
-        <v>45266</v>
-      </c>
-      <c r="C972" t="n">
-        <v>6033.3</v>
-      </c>
-      <c r="D972" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="E972" t="n">
-        <v>2738.33</v>
-      </c>
-      <c r="F972" t="n">
-        <v>2861.99</v>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B973" s="2" t="n">
-        <v>45267</v>
-      </c>
-      <c r="C973" t="n">
-        <v>6035.71</v>
-      </c>
-      <c r="D973" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="E973" t="n">
-        <v>2708.59</v>
-      </c>
-      <c r="F973" t="n">
-        <v>2878.62</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B974" s="2" t="n">
-        <v>45268</v>
-      </c>
-      <c r="C974" t="n">
-        <v>6030.66</v>
-      </c>
-      <c r="D974" t="n">
-        <v>71.70999999999999</v>
-      </c>
-      <c r="E974" t="n">
-        <v>2693.32</v>
-      </c>
-      <c r="F974" t="n">
-        <v>2848.07</v>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B975" s="2" t="n">
-        <v>45269</v>
-      </c>
-      <c r="C975" t="n">
-        <v>5971.85</v>
-      </c>
-      <c r="D975" t="n">
-        <v>70.45</v>
-      </c>
-      <c r="E975" t="n">
-        <v>2678.19</v>
-      </c>
-      <c r="F975" t="n">
-        <v>2875.59</v>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B976" s="2" t="n">
-        <v>45272</v>
-      </c>
-      <c r="C976" t="n">
-        <v>5874.14</v>
-      </c>
-      <c r="D976" t="n">
-        <v>69.59</v>
-      </c>
-      <c r="E976" t="n">
-        <v>2682.43</v>
-      </c>
-      <c r="F976" t="n">
-        <v>2852.09</v>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B977" s="2" t="n">
-        <v>45273</v>
-      </c>
-      <c r="C977" t="n">
-        <v>5762.28</v>
-      </c>
-      <c r="D977" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="E977" t="n">
-        <v>2685.87</v>
-      </c>
-      <c r="F977" t="n">
-        <v>2778.68</v>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B978" s="2" t="n">
-        <v>45274</v>
-      </c>
-      <c r="C978" t="n">
-        <v>5724.88</v>
-      </c>
-      <c r="D978" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="E978" t="n">
-        <v>2661.79</v>
-      </c>
-      <c r="F978" t="n">
-        <v>2832.31</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B979" s="2" t="n">
-        <v>45275</v>
-      </c>
-      <c r="C979" t="n">
-        <v>5715.72</v>
-      </c>
-      <c r="D979" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="E979" t="n">
-        <v>2661.09</v>
-      </c>
-      <c r="F979" t="n">
-        <v>2822.54</v>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B980" s="2" t="n">
-        <v>45276</v>
-      </c>
-      <c r="C980" t="n">
-        <v>5900.56</v>
-      </c>
-      <c r="D980" t="n">
-        <v>69.18000000000001</v>
-      </c>
-      <c r="E980" t="n">
-        <v>2722.32</v>
-      </c>
-      <c r="F980" t="n">
-        <v>2976.09</v>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B981" s="2" t="n">
-        <v>45279</v>
-      </c>
-      <c r="C981" t="n">
-        <v>5907.79</v>
-      </c>
-      <c r="D981" t="n">
-        <v>70.31999999999999</v>
-      </c>
-      <c r="E981" t="n">
-        <v>2749.97</v>
-      </c>
-      <c r="F981" t="n">
-        <v>3284.85</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B982" s="2" t="n">
-        <v>45280</v>
-      </c>
-      <c r="C982" t="n">
-        <v>5862.09</v>
-      </c>
-      <c r="D982" t="n">
-        <v>69.31999999999999</v>
-      </c>
-      <c r="E982" t="n">
-        <v>2774.71</v>
-      </c>
-      <c r="F982" t="n">
-        <v>3423.5</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B983" s="2" t="n">
-        <v>45281</v>
-      </c>
-      <c r="C983" t="n">
-        <v>5933.4</v>
-      </c>
-      <c r="D983" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="E983" t="n">
-        <v>2761.28</v>
-      </c>
-      <c r="F983" t="n">
-        <v>3490.83</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B984" s="2" t="n">
-        <v>45282</v>
-      </c>
-      <c r="C984" t="n">
-        <v>6001.66</v>
-      </c>
-      <c r="D984" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="E984" t="n">
-        <v>2842.28</v>
-      </c>
-      <c r="F984" t="n">
-        <v>3600.02</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B985" s="2" t="n">
-        <v>45283</v>
-      </c>
-      <c r="C985" t="n">
-        <v>6035.07</v>
-      </c>
-      <c r="D985" t="n">
-        <v>71.48999999999999</v>
-      </c>
-      <c r="E985" t="n">
-        <v>2831.75</v>
-      </c>
-      <c r="F985" t="n">
-        <v>3570.73</v>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B986" s="2" t="n">
-        <v>45286</v>
-      </c>
-      <c r="C986" t="n">
-        <v>6078.14</v>
-      </c>
-      <c r="D986" t="n">
-        <v>72.33</v>
-      </c>
-      <c r="E986" t="n">
-        <v>2868.16</v>
-      </c>
-      <c r="F986" t="n">
-        <v>3616.25</v>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B987" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="C987" t="n">
-        <v>6060.82</v>
-      </c>
-      <c r="D987" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="E987" t="n">
-        <v>2859.99</v>
-      </c>
-      <c r="F987" t="n">
-        <v>3605.95</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B988" s="2" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C988" t="n">
-        <v>6060.7</v>
-      </c>
-      <c r="D988" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="E988" t="n">
-        <v>2859.93</v>
-      </c>
-      <c r="F988" t="n">
-        <v>3605.88</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B989" s="2" t="n">
-        <v>45289</v>
-      </c>
-      <c r="C989" t="n">
-        <v>6008.18</v>
-      </c>
-      <c r="D989" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="E989" t="n">
-        <v>2833.66</v>
-      </c>
-      <c r="F989" t="n">
-        <v>3408.52</v>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B990" s="2" t="n">
-        <v>45290</v>
-      </c>
-      <c r="C990" t="n">
-        <v>5993.16</v>
-      </c>
-      <c r="D990" t="n">
-        <v>69.94</v>
-      </c>
-      <c r="E990" t="n">
-        <v>2883.54</v>
-      </c>
-      <c r="F990" t="n">
-        <v>3275.71</v>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B991" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C991" t="n">
-        <v>5886.06</v>
-      </c>
-      <c r="D991" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E991" t="n">
-        <v>2755.41</v>
-      </c>
-      <c r="F991" t="n">
-        <v>2915.27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F496"/>
+  <dimension ref="A1:F992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13334,6 +13334,9932 @@
         </is>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>5848.4600</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>66.45999999999999</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2701.6300</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>2830.9700</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="C498" t="n">
+        <v>4349.29</v>
+      </c>
+      <c r="D498" t="n">
+        <v>53.72</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2321.33</v>
+      </c>
+      <c r="F498" t="n">
+        <v>4681.3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="C499" t="n">
+        <v>4343.34</v>
+      </c>
+      <c r="D499" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="E499" t="n">
+        <v>2273.68</v>
+      </c>
+      <c r="F499" t="n">
+        <v>4607.52</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="C500" t="n">
+        <v>4352.31</v>
+      </c>
+      <c r="D500" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="E500" t="n">
+        <v>2331.42</v>
+      </c>
+      <c r="F500" t="n">
+        <v>4583.78</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="C501" t="n">
+        <v>4369.08</v>
+      </c>
+      <c r="D501" t="n">
+        <v>54.53</v>
+      </c>
+      <c r="E501" t="n">
+        <v>2330.31</v>
+      </c>
+      <c r="F501" t="n">
+        <v>4526.36</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>44576</v>
+      </c>
+      <c r="C502" t="n">
+        <v>4438.92</v>
+      </c>
+      <c r="D502" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="E502" t="n">
+        <v>2384.8</v>
+      </c>
+      <c r="F502" t="n">
+        <v>4586.91</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="C503" t="n">
+        <v>4449.57</v>
+      </c>
+      <c r="D503" t="n">
+        <v>56.47</v>
+      </c>
+      <c r="E503" t="n">
+        <v>2373.86</v>
+      </c>
+      <c r="F503" t="n">
+        <v>4620.58</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C504" t="n">
+        <v>4444.09</v>
+      </c>
+      <c r="D504" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E504" t="n">
+        <v>2370.77</v>
+      </c>
+      <c r="F504" t="n">
+        <v>4609.02</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C505" t="n">
+        <v>4491.8</v>
+      </c>
+      <c r="D505" t="n">
+        <v>56.63</v>
+      </c>
+      <c r="E505" t="n">
+        <v>2449.17</v>
+      </c>
+      <c r="F505" t="n">
+        <v>4678.39</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C506" t="n">
+        <v>4513.92</v>
+      </c>
+      <c r="D506" t="n">
+        <v>58.43</v>
+      </c>
+      <c r="E506" t="n">
+        <v>2568.22</v>
+      </c>
+      <c r="F506" t="n">
+        <v>5025.85</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="C507" t="n">
+        <v>4522.62</v>
+      </c>
+      <c r="D507" t="n">
+        <v>59.73</v>
+      </c>
+      <c r="E507" t="n">
+        <v>2579.07</v>
+      </c>
+      <c r="F507" t="n">
+        <v>5113.76</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="C508" t="n">
+        <v>4572.35</v>
+      </c>
+      <c r="D508" t="n">
+        <v>60.49</v>
+      </c>
+      <c r="E508" t="n">
+        <v>2576.88</v>
+      </c>
+      <c r="F508" t="n">
+        <v>5233.36</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C509" t="n">
+        <v>4641.26</v>
+      </c>
+      <c r="D509" t="n">
+        <v>60.85</v>
+      </c>
+      <c r="E509" t="n">
+        <v>2581.5</v>
+      </c>
+      <c r="F509" t="n">
+        <v>5496.75</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="C510" t="n">
+        <v>4683.3</v>
+      </c>
+      <c r="D510" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="E510" t="n">
+        <v>2659.93</v>
+      </c>
+      <c r="F510" t="n">
+        <v>5695.49</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C511" t="n">
+        <v>4608.11</v>
+      </c>
+      <c r="D511" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="E511" t="n">
+        <v>2624.5</v>
+      </c>
+      <c r="F511" t="n">
+        <v>5995.24</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>44590</v>
+      </c>
+      <c r="C512" t="n">
+        <v>4478.88</v>
+      </c>
+      <c r="D512" t="n">
+        <v>57.97</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2516.9</v>
+      </c>
+      <c r="F512" t="n">
+        <v>5694.29</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="C513" t="n">
+        <v>4459.89</v>
+      </c>
+      <c r="D513" t="n">
+        <v>56.04</v>
+      </c>
+      <c r="E513" t="n">
+        <v>2528.08</v>
+      </c>
+      <c r="F513" t="n">
+        <v>6022.57</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C514" t="n">
+        <v>4479.74</v>
+      </c>
+      <c r="D514" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="E514" t="n">
+        <v>2571.54</v>
+      </c>
+      <c r="F514" t="n">
+        <v>5914.3</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="C515" t="n">
+        <v>4431.2</v>
+      </c>
+      <c r="D515" t="n">
+        <v>56.26</v>
+      </c>
+      <c r="E515" t="n">
+        <v>2554.95</v>
+      </c>
+      <c r="F515" t="n">
+        <v>5842.69</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="C516" t="n">
+        <v>4445.08</v>
+      </c>
+      <c r="D516" t="n">
+        <v>56.14</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2538.29</v>
+      </c>
+      <c r="F516" t="n">
+        <v>5823.27</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>44597</v>
+      </c>
+      <c r="C517" t="n">
+        <v>4436.74</v>
+      </c>
+      <c r="D517" t="n">
+        <v>54.67</v>
+      </c>
+      <c r="E517" t="n">
+        <v>2513.55</v>
+      </c>
+      <c r="F517" t="n">
+        <v>5723.96</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C518" t="n">
+        <v>4406.86</v>
+      </c>
+      <c r="D518" t="n">
+        <v>54.76</v>
+      </c>
+      <c r="E518" t="n">
+        <v>2467.25</v>
+      </c>
+      <c r="F518" t="n">
+        <v>5469.8</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C519" t="n">
+        <v>4408.79</v>
+      </c>
+      <c r="D519" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2450.14</v>
+      </c>
+      <c r="F519" t="n">
+        <v>5420.81</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="C520" t="n">
+        <v>4396.44</v>
+      </c>
+      <c r="D520" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="E520" t="n">
+        <v>2491.5</v>
+      </c>
+      <c r="F520" t="n">
+        <v>5406.27</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="C521" t="n">
+        <v>4401.98</v>
+      </c>
+      <c r="D521" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2469.7</v>
+      </c>
+      <c r="F521" t="n">
+        <v>5501.57</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="C522" t="n">
+        <v>4402.86</v>
+      </c>
+      <c r="D522" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2480.79</v>
+      </c>
+      <c r="F522" t="n">
+        <v>5402.77</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="C523" t="n">
+        <v>4568.94</v>
+      </c>
+      <c r="D523" t="n">
+        <v>56.37</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2528.45</v>
+      </c>
+      <c r="F523" t="n">
+        <v>5682.25</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="C524" t="n">
+        <v>4542.75</v>
+      </c>
+      <c r="D524" t="n">
+        <v>58.01</v>
+      </c>
+      <c r="E524" t="n">
+        <v>2505.11</v>
+      </c>
+      <c r="F524" t="n">
+        <v>5593.04</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="C525" t="n">
+        <v>4472.36</v>
+      </c>
+      <c r="D525" t="n">
+        <v>56.16</v>
+      </c>
+      <c r="E525" t="n">
+        <v>2488.93</v>
+      </c>
+      <c r="F525" t="n">
+        <v>5484.34</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>44610</v>
+      </c>
+      <c r="C526" t="n">
+        <v>4594.7</v>
+      </c>
+      <c r="D526" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="E526" t="n">
+        <v>2635.22</v>
+      </c>
+      <c r="F526" t="n">
+        <v>5645.5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>44611</v>
+      </c>
+      <c r="C527" t="n">
+        <v>4596.23</v>
+      </c>
+      <c r="D527" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="E527" t="n">
+        <v>2659.89</v>
+      </c>
+      <c r="F527" t="n">
+        <v>5641.31</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="C528" t="n">
+        <v>4678.19</v>
+      </c>
+      <c r="D528" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="E528" t="n">
+        <v>2665.57</v>
+      </c>
+      <c r="F528" t="n">
+        <v>5824.76</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="C529" t="n">
+        <v>4899.6</v>
+      </c>
+      <c r="D529" t="n">
+        <v>61.37</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2800.14</v>
+      </c>
+      <c r="F529" t="n">
+        <v>6151</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="C530" t="n">
+        <v>5501.19</v>
+      </c>
+      <c r="D530" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="E530" t="n">
+        <v>3127.41</v>
+      </c>
+      <c r="F530" t="n">
+        <v>7322.44</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C531" t="n">
+        <v>5136.31</v>
+      </c>
+      <c r="D531" t="n">
+        <v>68</v>
+      </c>
+      <c r="E531" t="n">
+        <v>2833.88</v>
+      </c>
+      <c r="F531" t="n">
+        <v>6634.78</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C532" t="n">
+        <v>5725.1</v>
+      </c>
+      <c r="D532" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="E532" t="n">
+        <v>3197.49</v>
+      </c>
+      <c r="F532" t="n">
+        <v>7492.89</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="C533" t="n">
+        <v>5664.73</v>
+      </c>
+      <c r="D533" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="E533" t="n">
+        <v>3123.72</v>
+      </c>
+      <c r="F533" t="n">
+        <v>7565.96</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="C534" t="n">
+        <v>6393.4</v>
+      </c>
+      <c r="D534" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="E534" t="n">
+        <v>3531.97</v>
+      </c>
+      <c r="F534" t="n">
+        <v>8800.049999999999</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="C535" t="n">
+        <v>6953.99</v>
+      </c>
+      <c r="D535" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E535" t="n">
+        <v>3912.83</v>
+      </c>
+      <c r="F535" t="n">
+        <v>9880.879999999999</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="C536" t="n">
+        <v>6612.7</v>
+      </c>
+      <c r="D536" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="E536" t="n">
+        <v>3694.51</v>
+      </c>
+      <c r="F536" t="n">
+        <v>9494.83</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="C537" t="n">
+        <v>6617.8</v>
+      </c>
+      <c r="D537" t="n">
+        <v>85.56</v>
+      </c>
+      <c r="E537" t="n">
+        <v>3714.92</v>
+      </c>
+      <c r="F537" t="n">
+        <v>10086.77</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="C538" t="n">
+        <v>7610.16</v>
+      </c>
+      <c r="D538" t="n">
+        <v>97.48999999999999</v>
+      </c>
+      <c r="E538" t="n">
+        <v>4295.77</v>
+      </c>
+      <c r="F538" t="n">
+        <v>11196.62</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="C539" t="n">
+        <v>7731.42</v>
+      </c>
+      <c r="D539" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E539" t="n">
+        <v>4164.4</v>
+      </c>
+      <c r="F539" t="n">
+        <v>11366.94</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>44632</v>
+      </c>
+      <c r="C540" t="n">
+        <v>7475.21</v>
+      </c>
+      <c r="D540" t="n">
+        <v>97.39</v>
+      </c>
+      <c r="E540" t="n">
+        <v>4001.39</v>
+      </c>
+      <c r="F540" t="n">
+        <v>11103.3</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="C541" t="n">
+        <v>7265.07</v>
+      </c>
+      <c r="D541" t="n">
+        <v>95.02</v>
+      </c>
+      <c r="E541" t="n">
+        <v>3870.31</v>
+      </c>
+      <c r="F541" t="n">
+        <v>9462.809999999999</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="C542" t="n">
+        <v>6913.1</v>
+      </c>
+      <c r="D542" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="E542" t="n">
+        <v>3655.92</v>
+      </c>
+      <c r="F542" t="n">
+        <v>8695.360000000001</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="C543" t="n">
+        <v>6665.65</v>
+      </c>
+      <c r="D543" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="E543" t="n">
+        <v>3515.64</v>
+      </c>
+      <c r="F543" t="n">
+        <v>8667.51</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C544" t="n">
+        <v>6541.42</v>
+      </c>
+      <c r="D544" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="E544" t="n">
+        <v>3457.04</v>
+      </c>
+      <c r="F544" t="n">
+        <v>8292.18</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C545" t="n">
+        <v>6460.03</v>
+      </c>
+      <c r="D545" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="E545" t="n">
+        <v>3459.12</v>
+      </c>
+      <c r="F545" t="n">
+        <v>8592.65</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C546" t="n">
+        <v>6478.95</v>
+      </c>
+      <c r="D546" t="n">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="E546" t="n">
+        <v>3463.2</v>
+      </c>
+      <c r="F546" t="n">
+        <v>8518.33</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C547" t="n">
+        <v>6455.72</v>
+      </c>
+      <c r="D547" t="n">
+        <v>83.77</v>
+      </c>
+      <c r="E547" t="n">
+        <v>3446.44</v>
+      </c>
+      <c r="F547" t="n">
+        <v>8515.719999999999</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C548" t="n">
+        <v>6408.41</v>
+      </c>
+      <c r="D548" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="E548" t="n">
+        <v>3396.33</v>
+      </c>
+      <c r="F548" t="n">
+        <v>8507.4</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C549" t="n">
+        <v>6008.83</v>
+      </c>
+      <c r="D549" t="n">
+        <v>77.23999999999999</v>
+      </c>
+      <c r="E549" t="n">
+        <v>3162.05</v>
+      </c>
+      <c r="F549" t="n">
+        <v>7920.57</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C550" t="n">
+        <v>6017.86</v>
+      </c>
+      <c r="D550" t="n">
+        <v>77.86</v>
+      </c>
+      <c r="E550" t="n">
+        <v>3140.18</v>
+      </c>
+      <c r="F550" t="n">
+        <v>7658.23</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C551" t="n">
+        <v>5805.91</v>
+      </c>
+      <c r="D551" t="n">
+        <v>75.04000000000001</v>
+      </c>
+      <c r="E551" t="n">
+        <v>2985.81</v>
+      </c>
+      <c r="F551" t="n">
+        <v>6800.17</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C552" t="n">
+        <v>5301.45</v>
+      </c>
+      <c r="D552" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="E552" t="n">
+        <v>2729.72</v>
+      </c>
+      <c r="F552" t="n">
+        <v>6216.76</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C553" t="n">
+        <v>5184.57</v>
+      </c>
+      <c r="D553" t="n">
+        <v>66.92</v>
+      </c>
+      <c r="E553" t="n">
+        <v>2660.14</v>
+      </c>
+      <c r="F553" t="n">
+        <v>5839.34</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C554" t="n">
+        <v>5159.82</v>
+      </c>
+      <c r="D554" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2641.46</v>
+      </c>
+      <c r="F554" t="n">
+        <v>5910.43</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="C555" t="n">
+        <v>5185.8</v>
+      </c>
+      <c r="D555" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2650.1</v>
+      </c>
+      <c r="F555" t="n">
+        <v>6102.2</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="C556" t="n">
+        <v>5185.42</v>
+      </c>
+      <c r="D556" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="E556" t="n">
+        <v>2674.14</v>
+      </c>
+      <c r="F556" t="n">
+        <v>6243.25</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="C557" t="n">
+        <v>5172.87</v>
+      </c>
+      <c r="D557" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E557" t="n">
+        <v>2639.63</v>
+      </c>
+      <c r="F557" t="n">
+        <v>6155.56</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C558" t="n">
+        <v>5162.48</v>
+      </c>
+      <c r="D558" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="E558" t="n">
+        <v>2605.07</v>
+      </c>
+      <c r="F558" t="n">
+        <v>6091.78</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="C559" t="n">
+        <v>4732.04</v>
+      </c>
+      <c r="D559" t="n">
+        <v>59.49</v>
+      </c>
+      <c r="E559" t="n">
+        <v>2360.93</v>
+      </c>
+      <c r="F559" t="n">
+        <v>5491.68</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="C560" t="n">
+        <v>4650.29</v>
+      </c>
+      <c r="D560" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="E560" t="n">
+        <v>2303.01</v>
+      </c>
+      <c r="F560" t="n">
+        <v>5433.84</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="C561" t="n">
+        <v>4940.94</v>
+      </c>
+      <c r="D561" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="E561" t="n">
+        <v>2473.78</v>
+      </c>
+      <c r="F561" t="n">
+        <v>6214.98</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="C562" t="n">
+        <v>4996.12</v>
+      </c>
+      <c r="D562" t="n">
+        <v>64.13</v>
+      </c>
+      <c r="E562" t="n">
+        <v>2519.12</v>
+      </c>
+      <c r="F562" t="n">
+        <v>6387.4</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="C563" t="n">
+        <v>5033.78</v>
+      </c>
+      <c r="D563" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="E563" t="n">
+        <v>2482.43</v>
+      </c>
+      <c r="F563" t="n">
+        <v>6032.78</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="C564" t="n">
+        <v>5166.17</v>
+      </c>
+      <c r="D564" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="E564" t="n">
+        <v>2561.2</v>
+      </c>
+      <c r="F564" t="n">
+        <v>6235.73</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>44667</v>
+      </c>
+      <c r="C565" t="n">
+        <v>5052.35</v>
+      </c>
+      <c r="D565" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="E565" t="n">
+        <v>2514.27</v>
+      </c>
+      <c r="F565" t="n">
+        <v>6127.41</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C566" t="n">
+        <v>5015.06</v>
+      </c>
+      <c r="D566" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="E566" t="n">
+        <v>2495.72</v>
+      </c>
+      <c r="F566" t="n">
+        <v>6082.19</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="C567" t="n">
+        <v>4988.28</v>
+      </c>
+      <c r="D567" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="E567" t="n">
+        <v>2482.39</v>
+      </c>
+      <c r="F567" t="n">
+        <v>6049.72</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="C568" t="n">
+        <v>4867.2</v>
+      </c>
+      <c r="D568" t="n">
+        <v>64.22</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2505.47</v>
+      </c>
+      <c r="F568" t="n">
+        <v>5843.61</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="C569" t="n">
+        <v>4700.9</v>
+      </c>
+      <c r="D569" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="E569" t="n">
+        <v>2375.1</v>
+      </c>
+      <c r="F569" t="n">
+        <v>5799.11</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>44674</v>
+      </c>
+      <c r="C570" t="n">
+        <v>4593.43</v>
+      </c>
+      <c r="D570" t="n">
+        <v>58.24</v>
+      </c>
+      <c r="E570" t="n">
+        <v>2311.25</v>
+      </c>
+      <c r="F570" t="n">
+        <v>5747.4</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="C571" t="n">
+        <v>4579.36</v>
+      </c>
+      <c r="D571" t="n">
+        <v>57.42</v>
+      </c>
+      <c r="E571" t="n">
+        <v>2217.1</v>
+      </c>
+      <c r="F571" t="n">
+        <v>5672.46</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="C572" t="n">
+        <v>4429.83</v>
+      </c>
+      <c r="D572" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="E572" t="n">
+        <v>2143.62</v>
+      </c>
+      <c r="F572" t="n">
+        <v>4944.12</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="C573" t="n">
+        <v>4462.53</v>
+      </c>
+      <c r="D573" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="E573" t="n">
+        <v>2143.87</v>
+      </c>
+      <c r="F573" t="n">
+        <v>5121.86</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="C574" t="n">
+        <v>4383.25</v>
+      </c>
+      <c r="D574" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2161.64</v>
+      </c>
+      <c r="F574" t="n">
+        <v>5239.08</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="C575" t="n">
+        <v>4312.32</v>
+      </c>
+      <c r="D575" t="n">
+        <v>52.89</v>
+      </c>
+      <c r="E575" t="n">
+        <v>2089.37</v>
+      </c>
+      <c r="F575" t="n">
+        <v>5135.51</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="C576" t="n">
+        <v>4172.75</v>
+      </c>
+      <c r="D576" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="E576" t="n">
+        <v>2146.97</v>
+      </c>
+      <c r="F576" t="n">
+        <v>4976.86</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="C577" t="n">
+        <v>3968.82</v>
+      </c>
+      <c r="D577" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="E577" t="n">
+        <v>2069.96</v>
+      </c>
+      <c r="F577" t="n">
+        <v>4742.6</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="C578" t="n">
+        <v>4099.58</v>
+      </c>
+      <c r="D578" t="n">
+        <v>49.64</v>
+      </c>
+      <c r="E578" t="n">
+        <v>2149.12</v>
+      </c>
+      <c r="F578" t="n">
+        <v>4831.19</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="C579" t="n">
+        <v>4110.72</v>
+      </c>
+      <c r="D579" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="E579" t="n">
+        <v>2184.45</v>
+      </c>
+      <c r="F579" t="n">
+        <v>4554.81</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="C580" t="n">
+        <v>3917.33</v>
+      </c>
+      <c r="D580" t="n">
+        <v>46.08</v>
+      </c>
+      <c r="E580" t="n">
+        <v>2062.37</v>
+      </c>
+      <c r="F580" t="n">
+        <v>4332.03</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="C581" t="n">
+        <v>3767</v>
+      </c>
+      <c r="D581" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="E581" t="n">
+        <v>1972.65</v>
+      </c>
+      <c r="F581" t="n">
+        <v>3920.69</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="C582" t="n">
+        <v>3695.18</v>
+      </c>
+      <c r="D582" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="E582" t="n">
+        <v>1923.52</v>
+      </c>
+      <c r="F582" t="n">
+        <v>3940.87</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="C583" t="n">
+        <v>3696.71</v>
+      </c>
+      <c r="D583" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1930.58</v>
+      </c>
+      <c r="F583" t="n">
+        <v>4024.61</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C584" t="n">
+        <v>3729.64</v>
+      </c>
+      <c r="D584" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="E584" t="n">
+        <v>1955.76</v>
+      </c>
+      <c r="F584" t="n">
+        <v>4248.72</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="C585" t="n">
+        <v>3632.72</v>
+      </c>
+      <c r="D585" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="E585" t="n">
+        <v>1901.98</v>
+      </c>
+      <c r="F585" t="n">
+        <v>4173.11</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="C586" t="n">
+        <v>3491.12</v>
+      </c>
+      <c r="D586" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="E586" t="n">
+        <v>1798.57</v>
+      </c>
+      <c r="F586" t="n">
+        <v>3748.6</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="C587" t="n">
+        <v>3432.62</v>
+      </c>
+      <c r="D587" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="E587" t="n">
+        <v>1796.59</v>
+      </c>
+      <c r="F587" t="n">
+        <v>3750.39</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="C588" t="n">
+        <v>3399.81</v>
+      </c>
+      <c r="D588" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="E588" t="n">
+        <v>1774.82</v>
+      </c>
+      <c r="F588" t="n">
+        <v>3670.52</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="C589" t="n">
+        <v>3379.59</v>
+      </c>
+      <c r="D589" t="n">
+        <v>39.69</v>
+      </c>
+      <c r="E589" t="n">
+        <v>1728.62</v>
+      </c>
+      <c r="F589" t="n">
+        <v>3614.72</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="C590" t="n">
+        <v>3685.05</v>
+      </c>
+      <c r="D590" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="E590" t="n">
+        <v>1885.21</v>
+      </c>
+      <c r="F590" t="n">
+        <v>3975.91</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="C591" t="n">
+        <v>3945.83</v>
+      </c>
+      <c r="D591" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="E591" t="n">
+        <v>2011.08</v>
+      </c>
+      <c r="F591" t="n">
+        <v>4254.86</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C592" t="n">
+        <v>3756.62</v>
+      </c>
+      <c r="D592" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="E592" t="n">
+        <v>1937.34</v>
+      </c>
+      <c r="F592" t="n">
+        <v>4146.52</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C593" t="n">
+        <v>3674.11</v>
+      </c>
+      <c r="D593" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="E593" t="n">
+        <v>1889.59</v>
+      </c>
+      <c r="F593" t="n">
+        <v>4038.66</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="C594" t="n">
+        <v>3634.03</v>
+      </c>
+      <c r="D594" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="E594" t="n">
+        <v>1903.28</v>
+      </c>
+      <c r="F594" t="n">
+        <v>4016.07</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="C595" t="n">
+        <v>3652.31</v>
+      </c>
+      <c r="D595" t="n">
+        <v>42.78</v>
+      </c>
+      <c r="E595" t="n">
+        <v>1959.88</v>
+      </c>
+      <c r="F595" t="n">
+        <v>3987.08</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="C596" t="n">
+        <v>3675.5</v>
+      </c>
+      <c r="D596" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="E596" t="n">
+        <v>1972.33</v>
+      </c>
+      <c r="F596" t="n">
+        <v>4012.39</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="C597" t="n">
+        <v>3624.7</v>
+      </c>
+      <c r="D597" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="E597" t="n">
+        <v>1945.06</v>
+      </c>
+      <c r="F597" t="n">
+        <v>3956.93</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C598" t="n">
+        <v>3620.13</v>
+      </c>
+      <c r="D598" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="E598" t="n">
+        <v>2016.63</v>
+      </c>
+      <c r="F598" t="n">
+        <v>3948.99</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="C599" t="n">
+        <v>3581.53</v>
+      </c>
+      <c r="D599" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="E599" t="n">
+        <v>1949.93</v>
+      </c>
+      <c r="F599" t="n">
+        <v>3775.94</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="C600" t="n">
+        <v>3478.48</v>
+      </c>
+      <c r="D600" t="n">
+        <v>41.15</v>
+      </c>
+      <c r="E600" t="n">
+        <v>1881.02</v>
+      </c>
+      <c r="F600" t="n">
+        <v>3660.67</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>44723</v>
+      </c>
+      <c r="C601" t="n">
+        <v>3427</v>
+      </c>
+      <c r="D601" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E601" t="n">
+        <v>1831.6</v>
+      </c>
+      <c r="F601" t="n">
+        <v>3568.46</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C602" t="n">
+        <v>3360.65</v>
+      </c>
+      <c r="D602" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="E602" t="n">
+        <v>1743.79</v>
+      </c>
+      <c r="F602" t="n">
+        <v>3414.16</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="C603" t="n">
+        <v>3312.46</v>
+      </c>
+      <c r="D603" t="n">
+        <v>38.68</v>
+      </c>
+      <c r="E603" t="n">
+        <v>1699.68</v>
+      </c>
+      <c r="F603" t="n">
+        <v>3297.34</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="C604" t="n">
+        <v>3334.51</v>
+      </c>
+      <c r="D604" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="E604" t="n">
+        <v>1727.82</v>
+      </c>
+      <c r="F604" t="n">
+        <v>3409.93</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>44730</v>
+      </c>
+      <c r="C605" t="n">
+        <v>3330.2</v>
+      </c>
+      <c r="D605" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="E605" t="n">
+        <v>1719.34</v>
+      </c>
+      <c r="F605" t="n">
+        <v>3402.22</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="C606" t="n">
+        <v>3325.83</v>
+      </c>
+      <c r="D606" t="n">
+        <v>39.45</v>
+      </c>
+      <c r="E606" t="n">
+        <v>1703.05</v>
+      </c>
+      <c r="F606" t="n">
+        <v>3359.15</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="C607" t="n">
+        <v>3230.23</v>
+      </c>
+      <c r="D607" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="E607" t="n">
+        <v>1655.13</v>
+      </c>
+      <c r="F607" t="n">
+        <v>3289.15</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="C608" t="n">
+        <v>3152.26</v>
+      </c>
+      <c r="D608" t="n">
+        <v>37.12</v>
+      </c>
+      <c r="E608" t="n">
+        <v>1606.75</v>
+      </c>
+      <c r="F608" t="n">
+        <v>3228.91</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="C609" t="n">
+        <v>3159.68</v>
+      </c>
+      <c r="D609" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="E609" t="n">
+        <v>1597.12</v>
+      </c>
+      <c r="F609" t="n">
+        <v>3199.39</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>44737</v>
+      </c>
+      <c r="C610" t="n">
+        <v>3157.73</v>
+      </c>
+      <c r="D610" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1575.52</v>
+      </c>
+      <c r="F610" t="n">
+        <v>3226.47</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C611" t="n">
+        <v>3131.91</v>
+      </c>
+      <c r="D611" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F611" t="n">
+        <v>3192.91</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="C612" t="n">
+        <v>3110.23</v>
+      </c>
+      <c r="D612" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1548.05</v>
+      </c>
+      <c r="F612" t="n">
+        <v>3268.1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="C613" t="n">
+        <v>2991.91</v>
+      </c>
+      <c r="D613" t="n">
+        <v>34.93</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1519.76</v>
+      </c>
+      <c r="F613" t="n">
+        <v>3085.58</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C614" t="n">
+        <v>3068.92</v>
+      </c>
+      <c r="D614" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1575.19</v>
+      </c>
+      <c r="F614" t="n">
+        <v>3359.73</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>44744</v>
+      </c>
+      <c r="C615" t="n">
+        <v>3140.99</v>
+      </c>
+      <c r="D615" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1567.9</v>
+      </c>
+      <c r="F615" t="n">
+        <v>3263.72</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="C616" t="n">
+        <v>3183.37</v>
+      </c>
+      <c r="D616" t="n">
+        <v>34.93</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1544.35</v>
+      </c>
+      <c r="F616" t="n">
+        <v>3389.79</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="C617" t="n">
+        <v>3401.96</v>
+      </c>
+      <c r="D617" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1664.86</v>
+      </c>
+      <c r="F617" t="n">
+        <v>3677.74</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="C618" t="n">
+        <v>3584.11</v>
+      </c>
+      <c r="D618" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1755.65</v>
+      </c>
+      <c r="F618" t="n">
+        <v>3838.96</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="C619" t="n">
+        <v>3561.38</v>
+      </c>
+      <c r="D619" t="n">
+        <v>39.02</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1760.08</v>
+      </c>
+      <c r="F619" t="n">
+        <v>3972.87</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>44751</v>
+      </c>
+      <c r="C620" t="n">
+        <v>3443.04</v>
+      </c>
+      <c r="D620" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1713.69</v>
+      </c>
+      <c r="F620" t="n">
+        <v>3880.43</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="C621" t="n">
+        <v>3425.96</v>
+      </c>
+      <c r="D621" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1732.49</v>
+      </c>
+      <c r="F621" t="n">
+        <v>4077.97</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="C622" t="n">
+        <v>3292.43</v>
+      </c>
+      <c r="D622" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1653.78</v>
+      </c>
+      <c r="F622" t="n">
+        <v>4073.91</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="C623" t="n">
+        <v>3256.92</v>
+      </c>
+      <c r="D623" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1599.57</v>
+      </c>
+      <c r="F623" t="n">
+        <v>3995.17</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="C624" t="n">
+        <v>3230.17</v>
+      </c>
+      <c r="D624" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1575.19</v>
+      </c>
+      <c r="F624" t="n">
+        <v>3775.96</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>44758</v>
+      </c>
+      <c r="C625" t="n">
+        <v>3162.2</v>
+      </c>
+      <c r="D625" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1545.12</v>
+      </c>
+      <c r="F625" t="n">
+        <v>3564.37</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="C626" t="n">
+        <v>3102.63</v>
+      </c>
+      <c r="D626" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1547.54</v>
+      </c>
+      <c r="F626" t="n">
+        <v>3389.68</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="C627" t="n">
+        <v>3063.93</v>
+      </c>
+      <c r="D627" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1536.38</v>
+      </c>
+      <c r="F627" t="n">
+        <v>3338.32</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="C628" t="n">
+        <v>3020.86</v>
+      </c>
+      <c r="D628" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1553.59</v>
+      </c>
+      <c r="F628" t="n">
+        <v>3301.16</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="C629" t="n">
+        <v>3103.78</v>
+      </c>
+      <c r="D629" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1576.13</v>
+      </c>
+      <c r="F629" t="n">
+        <v>3402.84</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>44765</v>
+      </c>
+      <c r="C630" t="n">
+        <v>3146.22</v>
+      </c>
+      <c r="D630" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1603.47</v>
+      </c>
+      <c r="F630" t="n">
+        <v>3457.88</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="C631" t="n">
+        <v>3226.8</v>
+      </c>
+      <c r="D631" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1638.52</v>
+      </c>
+      <c r="F631" t="n">
+        <v>3613.3</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="C632" t="n">
+        <v>3241.81</v>
+      </c>
+      <c r="D632" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1661.55</v>
+      </c>
+      <c r="F632" t="n">
+        <v>3777.61</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="C633" t="n">
+        <v>3330.21</v>
+      </c>
+      <c r="D633" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="F633" t="n">
+        <v>3833.5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="C634" t="n">
+        <v>3317.67</v>
+      </c>
+      <c r="D634" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1707.18</v>
+      </c>
+      <c r="F634" t="n">
+        <v>3902.12</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>44772</v>
+      </c>
+      <c r="C635" t="n">
+        <v>3456.44</v>
+      </c>
+      <c r="D635" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1754.34</v>
+      </c>
+      <c r="F635" t="n">
+        <v>4078.34</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="C636" t="n">
+        <v>3497.98</v>
+      </c>
+      <c r="D636" t="n">
+        <v>40.03</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1773.53</v>
+      </c>
+      <c r="F636" t="n">
+        <v>4175.48</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="C637" t="n">
+        <v>3428.13</v>
+      </c>
+      <c r="D637" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1756.23</v>
+      </c>
+      <c r="F637" t="n">
+        <v>4220.36</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="C638" t="n">
+        <v>3446.8</v>
+      </c>
+      <c r="D638" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1772.06</v>
+      </c>
+      <c r="F638" t="n">
+        <v>4249.07</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="C639" t="n">
+        <v>3412.14</v>
+      </c>
+      <c r="D639" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1747.48</v>
+      </c>
+      <c r="F639" t="n">
+        <v>3913.42</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>44779</v>
+      </c>
+      <c r="C640" t="n">
+        <v>3461.06</v>
+      </c>
+      <c r="D640" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1775.95</v>
+      </c>
+      <c r="F640" t="n">
+        <v>4033.24</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="C641" t="n">
+        <v>3438.71</v>
+      </c>
+      <c r="D641" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1803.47</v>
+      </c>
+      <c r="F641" t="n">
+        <v>4064.6</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="C642" t="n">
+        <v>3463.39</v>
+      </c>
+      <c r="D642" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1820.94</v>
+      </c>
+      <c r="F642" t="n">
+        <v>4311.64</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="C643" t="n">
+        <v>3489.33</v>
+      </c>
+      <c r="D643" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1827.03</v>
+      </c>
+      <c r="F643" t="n">
+        <v>4345.99</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="C644" t="n">
+        <v>3498.68</v>
+      </c>
+      <c r="D644" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1836.02</v>
+      </c>
+      <c r="F644" t="n">
+        <v>4346.43</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>44786</v>
+      </c>
+      <c r="C645" t="n">
+        <v>3517.86</v>
+      </c>
+      <c r="D645" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1893.34</v>
+      </c>
+      <c r="F645" t="n">
+        <v>4460.22</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="C646" t="n">
+        <v>3536.25</v>
+      </c>
+      <c r="D646" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1888.39</v>
+      </c>
+      <c r="F646" t="n">
+        <v>4459.52</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="C647" t="n">
+        <v>3508.52</v>
+      </c>
+      <c r="D647" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1858.33</v>
+      </c>
+      <c r="F647" t="n">
+        <v>4259.75</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="C648" t="n">
+        <v>3466.86</v>
+      </c>
+      <c r="D648" t="n">
+        <v>39.31</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1820.5</v>
+      </c>
+      <c r="F648" t="n">
+        <v>4144.95</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C649" t="n">
+        <v>3406.56</v>
+      </c>
+      <c r="D649" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1790.8</v>
+      </c>
+      <c r="F649" t="n">
+        <v>4123.27</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>44793</v>
+      </c>
+      <c r="C650" t="n">
+        <v>3356.56</v>
+      </c>
+      <c r="D650" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1760.46</v>
+      </c>
+      <c r="F650" t="n">
+        <v>4125.47</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C651" t="n">
+        <v>3362.74</v>
+      </c>
+      <c r="D651" t="n">
+        <v>36.94</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1736.35</v>
+      </c>
+      <c r="F651" t="n">
+        <v>4083.5</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="C652" t="n">
+        <v>3337.74</v>
+      </c>
+      <c r="D652" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F652" t="n">
+        <v>3872.6</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="C653" t="n">
+        <v>3369.02</v>
+      </c>
+      <c r="D653" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1674.34</v>
+      </c>
+      <c r="F653" t="n">
+        <v>3850.2</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="C654" t="n">
+        <v>3354.52</v>
+      </c>
+      <c r="D654" t="n">
+        <v>36.51</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1683.36</v>
+      </c>
+      <c r="F654" t="n">
+        <v>3868.27</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C655" t="n">
+        <v>3387.88</v>
+      </c>
+      <c r="D655" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1707.9</v>
+      </c>
+      <c r="F655" t="n">
+        <v>4043.71</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="C656" t="n">
+        <v>3398.71</v>
+      </c>
+      <c r="D656" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1702.02</v>
+      </c>
+      <c r="F656" t="n">
+        <v>4178.4</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="C657" t="n">
+        <v>3398.94</v>
+      </c>
+      <c r="D657" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1702.14</v>
+      </c>
+      <c r="F657" t="n">
+        <v>4178.68</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C658" t="n">
+        <v>3351.1</v>
+      </c>
+      <c r="D658" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1661.7</v>
+      </c>
+      <c r="F658" t="n">
+        <v>4084.53</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C659" t="n">
+        <v>3323.12</v>
+      </c>
+      <c r="D659" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1636.48</v>
+      </c>
+      <c r="F659" t="n">
+        <v>4028.26</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>44807</v>
+      </c>
+      <c r="C660" t="n">
+        <v>3288.6</v>
+      </c>
+      <c r="D660" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1626.54</v>
+      </c>
+      <c r="F660" t="n">
+        <v>3946.01</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="C661" t="n">
+        <v>3353.22</v>
+      </c>
+      <c r="D661" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1644.79</v>
+      </c>
+      <c r="F661" t="n">
+        <v>3951.42</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="C662" t="n">
+        <v>3347.5</v>
+      </c>
+      <c r="D662" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1659.12</v>
+      </c>
+      <c r="F662" t="n">
+        <v>3948.24</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="C663" t="n">
+        <v>3349.06</v>
+      </c>
+      <c r="D663" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1675.91</v>
+      </c>
+      <c r="F663" t="n">
+        <v>3998.96</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="C664" t="n">
+        <v>3328.33</v>
+      </c>
+      <c r="D664" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1671.35</v>
+      </c>
+      <c r="F664" t="n">
+        <v>3927.19</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="C665" t="n">
+        <v>3323.22</v>
+      </c>
+      <c r="D665" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1699.18</v>
+      </c>
+      <c r="F665" t="n">
+        <v>4059.37</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="C666" t="n">
+        <v>3330.39</v>
+      </c>
+      <c r="D666" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1712.43</v>
+      </c>
+      <c r="F666" t="n">
+        <v>4200.4</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="C667" t="n">
+        <v>3334.05</v>
+      </c>
+      <c r="D667" t="n">
+        <v>37.11</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1743.89</v>
+      </c>
+      <c r="F667" t="n">
+        <v>4354.89</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="C668" t="n">
+        <v>3276.4</v>
+      </c>
+      <c r="D668" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1720.02</v>
+      </c>
+      <c r="F668" t="n">
+        <v>4131.9</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="C669" t="n">
+        <v>3268.62</v>
+      </c>
+      <c r="D669" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1737.99</v>
+      </c>
+      <c r="F669" t="n">
+        <v>4074.5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>44821</v>
+      </c>
+      <c r="C670" t="n">
+        <v>3260.06</v>
+      </c>
+      <c r="D670" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1769.86</v>
+      </c>
+      <c r="F670" t="n">
+        <v>4201.74</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="C671" t="n">
+        <v>3220.08</v>
+      </c>
+      <c r="D671" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1725.47</v>
+      </c>
+      <c r="F671" t="n">
+        <v>4040.93</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C672" t="n">
+        <v>3212.03</v>
+      </c>
+      <c r="D672" t="n">
+        <v>36.65</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1721.16</v>
+      </c>
+      <c r="F672" t="n">
+        <v>4030.83</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="C673" t="n">
+        <v>3256.69</v>
+      </c>
+      <c r="D673" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1821.94</v>
+      </c>
+      <c r="F673" t="n">
+        <v>4217.26</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C674" t="n">
+        <v>3215.84</v>
+      </c>
+      <c r="D674" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1783.21</v>
+      </c>
+      <c r="F674" t="n">
+        <v>4176.21</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>44828</v>
+      </c>
+      <c r="C675" t="n">
+        <v>3122.98</v>
+      </c>
+      <c r="D675" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1701.73</v>
+      </c>
+      <c r="F675" t="n">
+        <v>4051.64</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="C676" t="n">
+        <v>3064.74</v>
+      </c>
+      <c r="D676" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1629.76</v>
+      </c>
+      <c r="F676" t="n">
+        <v>3912.16</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C677" t="n">
+        <v>3073.7</v>
+      </c>
+      <c r="D677" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1616.01</v>
+      </c>
+      <c r="F677" t="n">
+        <v>3866.09</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="C678" t="n">
+        <v>3071.11</v>
+      </c>
+      <c r="D678" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1614.2</v>
+      </c>
+      <c r="F678" t="n">
+        <v>3927.45</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B679" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C679" t="n">
+        <v>3049.65</v>
+      </c>
+      <c r="D679" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1567.14</v>
+      </c>
+      <c r="F679" t="n">
+        <v>3863.4</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C680" t="n">
+        <v>2942.06</v>
+      </c>
+      <c r="D680" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1537.88</v>
+      </c>
+      <c r="F680" t="n">
+        <v>3922.03</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B681" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C681" t="n">
+        <v>3094.08</v>
+      </c>
+      <c r="D681" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1599.09</v>
+      </c>
+      <c r="F681" t="n">
+        <v>4097.67</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B682" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C682" t="n">
+        <v>3153.58</v>
+      </c>
+      <c r="D682" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1663.36</v>
+      </c>
+      <c r="F682" t="n">
+        <v>4162.18</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="C683" t="n">
+        <v>3275.18</v>
+      </c>
+      <c r="D683" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1766.65</v>
+      </c>
+      <c r="F683" t="n">
+        <v>4421.4</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B684" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="C684" t="n">
+        <v>3294.19</v>
+      </c>
+      <c r="D684" t="n">
+        <v>39.59</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1782.22</v>
+      </c>
+      <c r="F684" t="n">
+        <v>4412.92</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C685" t="n">
+        <v>3375.52</v>
+      </c>
+      <c r="D685" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1823.43</v>
+      </c>
+      <c r="F685" t="n">
+        <v>4532.99</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B686" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="C686" t="n">
+        <v>3398.06</v>
+      </c>
+      <c r="D686" t="n">
+        <v>41.32</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1863.16</v>
+      </c>
+      <c r="F686" t="n">
+        <v>4519.66</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C687" t="n">
+        <v>3432.71</v>
+      </c>
+      <c r="D687" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1867.31</v>
+      </c>
+      <c r="F687" t="n">
+        <v>4612.99</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B688" s="2" t="n">
+        <v>44847</v>
+      </c>
+      <c r="C688" t="n">
+        <v>3412.3</v>
+      </c>
+      <c r="D688" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1834.57</v>
+      </c>
+      <c r="F688" t="n">
+        <v>4482.91</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B689" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="C689" t="n">
+        <v>3410.3</v>
+      </c>
+      <c r="D689" t="n">
+        <v>39.16</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1816.76</v>
+      </c>
+      <c r="F689" t="n">
+        <v>4337.77</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B690" s="2" t="n">
+        <v>44849</v>
+      </c>
+      <c r="C690" t="n">
+        <v>3341.18</v>
+      </c>
+      <c r="D690" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1769.82</v>
+      </c>
+      <c r="F690" t="n">
+        <v>4176.22</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B691" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="C691" t="n">
+        <v>3275.08</v>
+      </c>
+      <c r="D691" t="n">
+        <v>37.26</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1809.01</v>
+      </c>
+      <c r="F691" t="n">
+        <v>4142.25</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B692" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="C692" t="n">
+        <v>3271.89</v>
+      </c>
+      <c r="D692" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="E692" t="n">
+        <v>1825.1</v>
+      </c>
+      <c r="F692" t="n">
+        <v>4029.1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B693" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="C693" t="n">
+        <v>3273.24</v>
+      </c>
+      <c r="D693" t="n">
+        <v>37.02</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1823.74</v>
+      </c>
+      <c r="F693" t="n">
+        <v>4011.84</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="C694" t="n">
+        <v>3226.4</v>
+      </c>
+      <c r="D694" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="E694" t="n">
+        <v>1767.73</v>
+      </c>
+      <c r="F694" t="n">
+        <v>3895.33</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B695" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="C695" t="n">
+        <v>3217.44</v>
+      </c>
+      <c r="D695" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1756.97</v>
+      </c>
+      <c r="F695" t="n">
+        <v>3972.36</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B696" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3231.34</v>
+      </c>
+      <c r="D696" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="E696" t="n">
+        <v>1779.62</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3928.93</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B697" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="C697" t="n">
+        <v>3251.94</v>
+      </c>
+      <c r="D697" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="E697" t="n">
+        <v>1833.86</v>
+      </c>
+      <c r="F697" t="n">
+        <v>3947.72</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B698" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="C698" t="n">
+        <v>3276.93</v>
+      </c>
+      <c r="D698" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="E698" t="n">
+        <v>1799.17</v>
+      </c>
+      <c r="F698" t="n">
+        <v>3732.65</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B699" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="C699" t="n">
+        <v>3288.05</v>
+      </c>
+      <c r="D699" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="E699" t="n">
+        <v>1844.51</v>
+      </c>
+      <c r="F699" t="n">
+        <v>3876.42</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B700" s="2" t="n">
+        <v>44863</v>
+      </c>
+      <c r="C700" t="n">
+        <v>3283.6</v>
+      </c>
+      <c r="D700" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="E700" t="n">
+        <v>1883.41</v>
+      </c>
+      <c r="F700" t="n">
+        <v>3845.96</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C701" t="n">
+        <v>3265.15</v>
+      </c>
+      <c r="D701" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="E701" t="n">
+        <v>1882.16</v>
+      </c>
+      <c r="F701" t="n">
+        <v>3780.17</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B702" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="C702" t="n">
+        <v>3236.92</v>
+      </c>
+      <c r="D702" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="E702" t="n">
+        <v>1846.57</v>
+      </c>
+      <c r="F702" t="n">
+        <v>3631.91</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B703" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="C703" t="n">
+        <v>3259.32</v>
+      </c>
+      <c r="D703" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1881.99</v>
+      </c>
+      <c r="F703" t="n">
+        <v>3801.63</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B704" s="2" t="n">
+        <v>44869</v>
+      </c>
+      <c r="C704" t="n">
+        <v>3293.19</v>
+      </c>
+      <c r="D704" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="E704" t="n">
+        <v>1912.57</v>
+      </c>
+      <c r="F704" t="n">
+        <v>3707.34</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B705" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="C705" t="n">
+        <v>3296.57</v>
+      </c>
+      <c r="D705" t="n">
+        <v>39.31</v>
+      </c>
+      <c r="E705" t="n">
+        <v>1864.46</v>
+      </c>
+      <c r="F705" t="n">
+        <v>3719.07</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B706" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="C706" t="n">
+        <v>3291.53</v>
+      </c>
+      <c r="D706" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1903.61</v>
+      </c>
+      <c r="F706" t="n">
+        <v>3644.51</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B707" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="C707" t="n">
+        <v>3295.46</v>
+      </c>
+      <c r="D707" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E707" t="n">
+        <v>1923.9</v>
+      </c>
+      <c r="F707" t="n">
+        <v>3671.11</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B708" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="C708" t="n">
+        <v>3377.36</v>
+      </c>
+      <c r="D708" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="E708" t="n">
+        <v>1955.24</v>
+      </c>
+      <c r="F708" t="n">
+        <v>3717.51</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B709" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="C709" t="n">
+        <v>3377.92</v>
+      </c>
+      <c r="D709" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="E709" t="n">
+        <v>1970.9</v>
+      </c>
+      <c r="F709" t="n">
+        <v>3664.94</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B710" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="C710" t="n">
+        <v>3416.39</v>
+      </c>
+      <c r="D710" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="E710" t="n">
+        <v>2019.52</v>
+      </c>
+      <c r="F710" t="n">
+        <v>3945.83</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B711" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="C711" t="n">
+        <v>3430.01</v>
+      </c>
+      <c r="D711" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="E711" t="n">
+        <v>1964.27</v>
+      </c>
+      <c r="F711" t="n">
+        <v>3885.88</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B712" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="C712" t="n">
+        <v>3436.85</v>
+      </c>
+      <c r="D712" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="E712" t="n">
+        <v>2000.39</v>
+      </c>
+      <c r="F712" t="n">
+        <v>4043.47</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B713" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="C713" t="n">
+        <v>3442.39</v>
+      </c>
+      <c r="D713" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="E713" t="n">
+        <v>1974.57</v>
+      </c>
+      <c r="F713" t="n">
+        <v>4019.04</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B714" s="2" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C714" t="n">
+        <v>3413.57</v>
+      </c>
+      <c r="D714" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="E714" t="n">
+        <v>1917.78</v>
+      </c>
+      <c r="F714" t="n">
+        <v>3849.14</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B715" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C715" t="n">
+        <v>3420.47</v>
+      </c>
+      <c r="D715" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="E715" t="n">
+        <v>1925.43</v>
+      </c>
+      <c r="F715" t="n">
+        <v>3841.09</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B716" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="C716" t="n">
+        <v>3394.05</v>
+      </c>
+      <c r="D716" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="E716" t="n">
+        <v>1920.9</v>
+      </c>
+      <c r="F716" t="n">
+        <v>3681.89</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B717" s="2" t="n">
+        <v>44889</v>
+      </c>
+      <c r="C717" t="n">
+        <v>3390.49</v>
+      </c>
+      <c r="D717" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="E717" t="n">
+        <v>1939.42</v>
+      </c>
+      <c r="F717" t="n">
+        <v>3655.14</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B718" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C718" t="n">
+        <v>3378.45</v>
+      </c>
+      <c r="D718" t="n">
+        <v>41.29</v>
+      </c>
+      <c r="E718" t="n">
+        <v>1906.53</v>
+      </c>
+      <c r="F718" t="n">
+        <v>3649.97</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B719" s="2" t="n">
+        <v>44891</v>
+      </c>
+      <c r="C719" t="n">
+        <v>3413.32</v>
+      </c>
+      <c r="D719" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="E719" t="n">
+        <v>1921.13</v>
+      </c>
+      <c r="F719" t="n">
+        <v>3694.49</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B720" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="C720" t="n">
+        <v>3421.75</v>
+      </c>
+      <c r="D720" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="E720" t="n">
+        <v>1912.2</v>
+      </c>
+      <c r="F720" t="n">
+        <v>3539.24</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B721" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="C721" t="n">
+        <v>3429.49</v>
+      </c>
+      <c r="D721" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="E721" t="n">
+        <v>1963.58</v>
+      </c>
+      <c r="F721" t="n">
+        <v>3642.44</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B722" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C722" t="n">
+        <v>3430.64</v>
+      </c>
+      <c r="D722" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="E722" t="n">
+        <v>1943.64</v>
+      </c>
+      <c r="F722" t="n">
+        <v>3583.9</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B723" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C723" t="n">
+        <v>3447.29</v>
+      </c>
+      <c r="D723" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="E723" t="n">
+        <v>2015.1</v>
+      </c>
+      <c r="F723" t="n">
+        <v>3751.03</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B724" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="C724" t="n">
+        <v>3581.25</v>
+      </c>
+      <c r="D724" t="n">
+        <v>43.96</v>
+      </c>
+      <c r="E724" t="n">
+        <v>2067.54</v>
+      </c>
+      <c r="F724" t="n">
+        <v>3781.55</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B725" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="C725" t="n">
+        <v>3568.23</v>
+      </c>
+      <c r="D725" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="E725" t="n">
+        <v>2013.28</v>
+      </c>
+      <c r="F725" t="n">
+        <v>3746.67</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B726" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C726" t="n">
+        <v>3593.78</v>
+      </c>
+      <c r="D726" t="n">
+        <v>46.49</v>
+      </c>
+      <c r="E726" t="n">
+        <v>2050.93</v>
+      </c>
+      <c r="F726" t="n">
+        <v>3853.08</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B727" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="C727" t="n">
+        <v>3589.24</v>
+      </c>
+      <c r="D727" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="E727" t="n">
+        <v>2019.43</v>
+      </c>
+      <c r="F727" t="n">
+        <v>3787.95</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B728" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C728" t="n">
+        <v>3585.33</v>
+      </c>
+      <c r="D728" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="E728" t="n">
+        <v>2017.78</v>
+      </c>
+      <c r="F728" t="n">
+        <v>3705.63</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B729" s="2" t="n">
+        <v>44905</v>
+      </c>
+      <c r="C729" t="n">
+        <v>3590.33</v>
+      </c>
+      <c r="D729" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="E729" t="n">
+        <v>2013.63</v>
+      </c>
+      <c r="F729" t="n">
+        <v>3728.42</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B730" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="C730" t="n">
+        <v>3624.66</v>
+      </c>
+      <c r="D730" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="E730" t="n">
+        <v>2020.04</v>
+      </c>
+      <c r="F730" t="n">
+        <v>3880.65</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B731" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="C731" t="n">
+        <v>3630.93</v>
+      </c>
+      <c r="D731" t="n">
+        <v>47.54</v>
+      </c>
+      <c r="E731" t="n">
+        <v>2044.51</v>
+      </c>
+      <c r="F731" t="n">
+        <v>3851.23</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B732" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="C732" t="n">
+        <v>3714.64</v>
+      </c>
+      <c r="D732" t="n">
+        <v>47.66</v>
+      </c>
+      <c r="E732" t="n">
+        <v>2112.41</v>
+      </c>
+      <c r="F732" t="n">
+        <v>3976.3</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B733" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="C733" t="n">
+        <v>3737.85</v>
+      </c>
+      <c r="D733" t="n">
+        <v>48.81</v>
+      </c>
+      <c r="E733" t="n">
+        <v>2119.02</v>
+      </c>
+      <c r="F733" t="n">
+        <v>3967.22</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B734" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C734" t="n">
+        <v>3704.77</v>
+      </c>
+      <c r="D734" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="E734" t="n">
+        <v>2106.27</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3936.27</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B735" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C735" t="n">
+        <v>3823.72</v>
+      </c>
+      <c r="D735" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E735" t="n">
+        <v>2126.72</v>
+      </c>
+      <c r="F735" t="n">
+        <v>3690.29</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B736" s="2" t="n">
+        <v>44916</v>
+      </c>
+      <c r="C736" t="n">
+        <v>3972.92</v>
+      </c>
+      <c r="D736" t="n">
+        <v>51.56</v>
+      </c>
+      <c r="E736" t="n">
+        <v>2200.77</v>
+      </c>
+      <c r="F736" t="n">
+        <v>3829.16</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B737" s="2" t="n">
+        <v>44917</v>
+      </c>
+      <c r="C737" t="n">
+        <v>4112.93</v>
+      </c>
+      <c r="D737" t="n">
+        <v>53.83</v>
+      </c>
+      <c r="E737" t="n">
+        <v>2247.04</v>
+      </c>
+      <c r="F737" t="n">
+        <v>3797.98</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B738" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="C738" t="n">
+        <v>4214.99</v>
+      </c>
+      <c r="D738" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E738" t="n">
+        <v>2312.09</v>
+      </c>
+      <c r="F738" t="n">
+        <v>3942.39</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B739" s="2" t="n">
+        <v>44919</v>
+      </c>
+      <c r="C739" t="n">
+        <v>3975.92</v>
+      </c>
+      <c r="D739" t="n">
+        <v>52.41</v>
+      </c>
+      <c r="E739" t="n">
+        <v>2172.66</v>
+      </c>
+      <c r="F739" t="n">
+        <v>3735.91</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B740" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="C740" t="n">
+        <v>3962.76</v>
+      </c>
+      <c r="D740" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="E740" t="n">
+        <v>2189.67</v>
+      </c>
+      <c r="F740" t="n">
+        <v>3648.72</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B741" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C741" t="n">
+        <v>4048.78</v>
+      </c>
+      <c r="D741" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="E741" t="n">
+        <v>2237.21</v>
+      </c>
+      <c r="F741" t="n">
+        <v>3727.93</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B742" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C742" t="n">
+        <v>4129.34</v>
+      </c>
+      <c r="D742" t="n">
+        <v>54.43</v>
+      </c>
+      <c r="E742" t="n">
+        <v>2281.72</v>
+      </c>
+      <c r="F742" t="n">
+        <v>3802.1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B743" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C743" t="n">
+        <v>4173.2</v>
+      </c>
+      <c r="D743" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E743" t="n">
+        <v>2353.48</v>
+      </c>
+      <c r="F743" t="n">
+        <v>4153.88</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B744" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C744" t="n">
+        <v>4101.62</v>
+      </c>
+      <c r="D744" t="n">
+        <v>53.95</v>
+      </c>
+      <c r="E744" t="n">
+        <v>2331.5</v>
+      </c>
+      <c r="F744" t="n">
+        <v>4013.99</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B745" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C745" t="n">
+        <v>4186.35</v>
+      </c>
+      <c r="D745" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="E745" t="n">
+        <v>2425.2</v>
+      </c>
+      <c r="F745" t="n">
+        <v>4032.2</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B746" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C746" t="n">
+        <v>4204.85</v>
+      </c>
+      <c r="D746" t="n">
+        <v>53.38</v>
+      </c>
+      <c r="E746" t="n">
+        <v>2443.89</v>
+      </c>
+      <c r="F746" t="n">
+        <v>4012.72</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B747" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C747" t="n">
+        <v>4168.82</v>
+      </c>
+      <c r="D747" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="E747" t="n">
+        <v>2405.45</v>
+      </c>
+      <c r="F747" t="n">
+        <v>3998.73</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B748" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="C748" t="n">
+        <v>4080.03</v>
+      </c>
+      <c r="D748" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="E748" t="n">
+        <v>2397.01</v>
+      </c>
+      <c r="F748" t="n">
+        <v>3843.92</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B749" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C749" t="n">
+        <v>4089.96</v>
+      </c>
+      <c r="D749" t="n">
+        <v>51.49</v>
+      </c>
+      <c r="E749" t="n">
+        <v>2350.72</v>
+      </c>
+      <c r="F749" t="n">
+        <v>3860.65</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B750" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C750" t="n">
+        <v>4187.24</v>
+      </c>
+      <c r="D750" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="E750" t="n">
+        <v>2320.69</v>
+      </c>
+      <c r="F750" t="n">
+        <v>3818.06</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B751" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C751" t="n">
+        <v>4231.99</v>
+      </c>
+      <c r="D751" t="n">
+        <v>53.36</v>
+      </c>
+      <c r="E751" t="n">
+        <v>2337.86</v>
+      </c>
+      <c r="F751" t="n">
+        <v>3874.36</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B752" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C752" t="n">
+        <v>4237.75</v>
+      </c>
+      <c r="D752" t="n">
+        <v>53.36</v>
+      </c>
+      <c r="E752" t="n">
+        <v>2331.67</v>
+      </c>
+      <c r="F752" t="n">
+        <v>3826.33</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B753" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C753" t="n">
+        <v>4251.41</v>
+      </c>
+      <c r="D753" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="E753" t="n">
+        <v>2363.99</v>
+      </c>
+      <c r="F753" t="n">
+        <v>3935.55</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B754" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C754" t="n">
+        <v>4235.59</v>
+      </c>
+      <c r="D754" t="n">
+        <v>51.76</v>
+      </c>
+      <c r="E754" t="n">
+        <v>2262.84</v>
+      </c>
+      <c r="F754" t="n">
+        <v>3715.47</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C755" t="n">
+        <v>4247.23</v>
+      </c>
+      <c r="D755" t="n">
+        <v>52.67</v>
+      </c>
+      <c r="E755" t="n">
+        <v>2259.42</v>
+      </c>
+      <c r="F755" t="n">
+        <v>3819.39</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B756" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C756" t="n">
+        <v>4232.69</v>
+      </c>
+      <c r="D756" t="n">
+        <v>52.33</v>
+      </c>
+      <c r="E756" t="n">
+        <v>2292.24</v>
+      </c>
+      <c r="F756" t="n">
+        <v>3775.46</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C757" t="n">
+        <v>4258.35</v>
+      </c>
+      <c r="D757" t="n">
+        <v>52.57</v>
+      </c>
+      <c r="E757" t="n">
+        <v>2323.44</v>
+      </c>
+      <c r="F757" t="n">
+        <v>3777.81</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B758" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C758" t="n">
+        <v>4291.13</v>
+      </c>
+      <c r="D758" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="E758" t="n">
+        <v>2309.14</v>
+      </c>
+      <c r="F758" t="n">
+        <v>3849.3</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B759" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C759" t="n">
+        <v>4307.9</v>
+      </c>
+      <c r="D759" t="n">
+        <v>52.86</v>
+      </c>
+      <c r="E759" t="n">
+        <v>2300.58</v>
+      </c>
+      <c r="F759" t="n">
+        <v>3783.02</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B760" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C760" t="n">
+        <v>4302.74</v>
+      </c>
+      <c r="D760" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="E760" t="n">
+        <v>2259.83</v>
+      </c>
+      <c r="F760" t="n">
+        <v>3673.9</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B761" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C761" t="n">
+        <v>4362.29</v>
+      </c>
+      <c r="D761" t="n">
+        <v>53.58</v>
+      </c>
+      <c r="E761" t="n">
+        <v>2296.66</v>
+      </c>
+      <c r="F761" t="n">
+        <v>3695.51</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B762" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C762" t="n">
+        <v>4337.36</v>
+      </c>
+      <c r="D762" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="E762" t="n">
+        <v>2263.48</v>
+      </c>
+      <c r="F762" t="n">
+        <v>3647.72</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B763" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C763" t="n">
+        <v>4336.9</v>
+      </c>
+      <c r="D763" t="n">
+        <v>52.91</v>
+      </c>
+      <c r="E763" t="n">
+        <v>2269.9</v>
+      </c>
+      <c r="F763" t="n">
+        <v>3796.67</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B764" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C764" t="n">
+        <v>4348.54</v>
+      </c>
+      <c r="D764" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="E764" t="n">
+        <v>2335.33</v>
+      </c>
+      <c r="F764" t="n">
+        <v>3801.7</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B765" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C765" t="n">
+        <v>4256.69</v>
+      </c>
+      <c r="D765" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="E765" t="n">
+        <v>2281.16</v>
+      </c>
+      <c r="F765" t="n">
+        <v>3688.44</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B766" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C766" t="n">
+        <v>4269.59</v>
+      </c>
+      <c r="D766" t="n">
+        <v>51.01</v>
+      </c>
+      <c r="E766" t="n">
+        <v>2233.66</v>
+      </c>
+      <c r="F766" t="n">
+        <v>3582.97</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B767" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C767" t="n">
+        <v>4304.91</v>
+      </c>
+      <c r="D767" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="E767" t="n">
+        <v>2232.19</v>
+      </c>
+      <c r="F767" t="n">
+        <v>3764.81</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B768" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C768" t="n">
+        <v>4388.79</v>
+      </c>
+      <c r="D768" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="E768" t="n">
+        <v>2308.47</v>
+      </c>
+      <c r="F768" t="n">
+        <v>3890.42</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B769" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C769" t="n">
+        <v>4397.7</v>
+      </c>
+      <c r="D769" t="n">
+        <v>52.58</v>
+      </c>
+      <c r="E769" t="n">
+        <v>2274.8</v>
+      </c>
+      <c r="F769" t="n">
+        <v>3854.52</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B770" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C770" t="n">
+        <v>4402.43</v>
+      </c>
+      <c r="D770" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="E770" t="n">
+        <v>2286.79</v>
+      </c>
+      <c r="F770" t="n">
+        <v>3676.39</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B771" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="C771" t="n">
+        <v>4407.74</v>
+      </c>
+      <c r="D771" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="E771" t="n">
+        <v>2241.81</v>
+      </c>
+      <c r="F771" t="n">
+        <v>3692.81</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B772" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C772" t="n">
+        <v>4446.47</v>
+      </c>
+      <c r="D772" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E772" t="n">
+        <v>2271.31</v>
+      </c>
+      <c r="F772" t="n">
+        <v>3769.61</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B773" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C773" t="n">
+        <v>4401.67</v>
+      </c>
+      <c r="D773" t="n">
+        <v>51.61</v>
+      </c>
+      <c r="E773" t="n">
+        <v>2225.84</v>
+      </c>
+      <c r="F773" t="n">
+        <v>3480.57</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B774" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C774" t="n">
+        <v>4395.97</v>
+      </c>
+      <c r="D774" t="n">
+        <v>51.83</v>
+      </c>
+      <c r="E774" t="n">
+        <v>2192.04</v>
+      </c>
+      <c r="F774" t="n">
+        <v>3528.41</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B775" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C775" t="n">
+        <v>4365.8</v>
+      </c>
+      <c r="D775" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E775" t="n">
+        <v>2173.44</v>
+      </c>
+      <c r="F775" t="n">
+        <v>3525.58</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B776" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="C776" t="n">
+        <v>4442.45</v>
+      </c>
+      <c r="D776" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="E776" t="n">
+        <v>2252.76</v>
+      </c>
+      <c r="F776" t="n">
+        <v>3646.29</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B777" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C777" t="n">
+        <v>4412</v>
+      </c>
+      <c r="D777" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="E777" t="n">
+        <v>2243.41</v>
+      </c>
+      <c r="F777" t="n">
+        <v>3662.96</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B778" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="C778" t="n">
+        <v>4391.92</v>
+      </c>
+      <c r="D778" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E778" t="n">
+        <v>2250.59</v>
+      </c>
+      <c r="F778" t="n">
+        <v>3380.73</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B779" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C779" t="n">
+        <v>4379.07</v>
+      </c>
+      <c r="D779" t="n">
+        <v>49.92</v>
+      </c>
+      <c r="E779" t="n">
+        <v>2287.48</v>
+      </c>
+      <c r="F779" t="n">
+        <v>3527.53</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B780" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C780" t="n">
+        <v>4414.41</v>
+      </c>
+      <c r="D780" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="E780" t="n">
+        <v>2300.83</v>
+      </c>
+      <c r="F780" t="n">
+        <v>3418.59</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B781" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C781" t="n">
+        <v>4467.81</v>
+      </c>
+      <c r="D781" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="E781" t="n">
+        <v>2329.45</v>
+      </c>
+      <c r="F781" t="n">
+        <v>3435.94</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B782" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C782" t="n">
+        <v>4454.75</v>
+      </c>
+      <c r="D782" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="E782" t="n">
+        <v>2312.04</v>
+      </c>
+      <c r="F782" t="n">
+        <v>3447.44</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B783" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C783" t="n">
+        <v>4467.56</v>
+      </c>
+      <c r="D783" t="n">
+        <v>51.17</v>
+      </c>
+      <c r="E783" t="n">
+        <v>2373.12</v>
+      </c>
+      <c r="F783" t="n">
+        <v>3520.86</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B784" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="C784" t="n">
+        <v>4485.83</v>
+      </c>
+      <c r="D784" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E784" t="n">
+        <v>2341.11</v>
+      </c>
+      <c r="F784" t="n">
+        <v>3444.95</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B785" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="C785" t="n">
+        <v>4432.37</v>
+      </c>
+      <c r="D785" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="E785" t="n">
+        <v>2303.67</v>
+      </c>
+      <c r="F785" t="n">
+        <v>3433.54</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B786" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C786" t="n">
+        <v>4471.45</v>
+      </c>
+      <c r="D786" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="E786" t="n">
+        <v>2326.79</v>
+      </c>
+      <c r="F786" t="n">
+        <v>3322.94</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B787" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="C787" t="n">
+        <v>4515.62</v>
+      </c>
+      <c r="D787" t="n">
+        <v>48.74</v>
+      </c>
+      <c r="E787" t="n">
+        <v>2312.09</v>
+      </c>
+      <c r="F787" t="n">
+        <v>3369.88</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B788" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C788" t="n">
+        <v>4620.57</v>
+      </c>
+      <c r="D788" t="n">
+        <v>51</v>
+      </c>
+      <c r="E788" t="n">
+        <v>2388.49</v>
+      </c>
+      <c r="F788" t="n">
+        <v>3461.86</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B789" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C789" t="n">
+        <v>4645.42</v>
+      </c>
+      <c r="D789" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E789" t="n">
+        <v>2398.75</v>
+      </c>
+      <c r="F789" t="n">
+        <v>3640.74</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B790" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="C790" t="n">
+        <v>4725.06</v>
+      </c>
+      <c r="D790" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="E790" t="n">
+        <v>2370.64</v>
+      </c>
+      <c r="F790" t="n">
+        <v>3530.16</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B791" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="C791" t="n">
+        <v>4735.52</v>
+      </c>
+      <c r="D791" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="E791" t="n">
+        <v>2374.22</v>
+      </c>
+      <c r="F791" t="n">
+        <v>3539.17</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C792" t="n">
+        <v>4872.66</v>
+      </c>
+      <c r="D792" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="E792" t="n">
+        <v>2431.24</v>
+      </c>
+      <c r="F792" t="n">
+        <v>3449.43</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B793" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C793" t="n">
+        <v>4865.03</v>
+      </c>
+      <c r="D793" t="n">
+        <v>55.57</v>
+      </c>
+      <c r="E793" t="n">
+        <v>2433.32</v>
+      </c>
+      <c r="F793" t="n">
+        <v>3453.58</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B794" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="C794" t="n">
+        <v>4830.86</v>
+      </c>
+      <c r="D794" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="E794" t="n">
+        <v>2432.13</v>
+      </c>
+      <c r="F794" t="n">
+        <v>3478.72</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B795" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="C795" t="n">
+        <v>4782.4</v>
+      </c>
+      <c r="D795" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="E795" t="n">
+        <v>2416.53</v>
+      </c>
+      <c r="F795" t="n">
+        <v>3503.36</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B796" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C796" t="n">
+        <v>4861.51</v>
+      </c>
+      <c r="D796" t="n">
+        <v>56.28</v>
+      </c>
+      <c r="E796" t="n">
+        <v>2430.82</v>
+      </c>
+      <c r="F796" t="n">
+        <v>3527.02</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B797" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="C797" t="n">
+        <v>4908.06</v>
+      </c>
+      <c r="D797" t="n">
+        <v>57.04</v>
+      </c>
+      <c r="E797" t="n">
+        <v>2402.58</v>
+      </c>
+      <c r="F797" t="n">
+        <v>3490.63</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B798" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C798" t="n">
+        <v>4792.74</v>
+      </c>
+      <c r="D798" t="n">
+        <v>56.37</v>
+      </c>
+      <c r="E798" t="n">
+        <v>2403.45</v>
+      </c>
+      <c r="F798" t="n">
+        <v>3462.34</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B799" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C799" t="n">
+        <v>4857.86</v>
+      </c>
+      <c r="D799" t="n">
+        <v>57.03</v>
+      </c>
+      <c r="E799" t="n">
+        <v>2390.75</v>
+      </c>
+      <c r="F799" t="n">
+        <v>3504.46</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C800" t="n">
+        <v>4870.02</v>
+      </c>
+      <c r="D800" t="n">
+        <v>57.63</v>
+      </c>
+      <c r="E800" t="n">
+        <v>2384.2</v>
+      </c>
+      <c r="F800" t="n">
+        <v>3546.56</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B801" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C801" t="n">
+        <v>4886.98</v>
+      </c>
+      <c r="D801" t="n">
+        <v>58.94</v>
+      </c>
+      <c r="E801" t="n">
+        <v>2428.82</v>
+      </c>
+      <c r="F801" t="n">
+        <v>3716.57</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B802" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C802" t="n">
+        <v>4961.49</v>
+      </c>
+      <c r="D802" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="E802" t="n">
+        <v>2458.56</v>
+      </c>
+      <c r="F802" t="n">
+        <v>3734.21</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B803" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="C803" t="n">
+        <v>5060.12</v>
+      </c>
+      <c r="D803" t="n">
+        <v>61.04</v>
+      </c>
+      <c r="E803" t="n">
+        <v>2525.85</v>
+      </c>
+      <c r="F803" t="n">
+        <v>3781.12</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B804" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="C804" t="n">
+        <v>5136.25</v>
+      </c>
+      <c r="D804" t="n">
+        <v>61.38</v>
+      </c>
+      <c r="E804" t="n">
+        <v>2583.97</v>
+      </c>
+      <c r="F804" t="n">
+        <v>3787.78</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B805" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="C805" t="n">
+        <v>5267.29</v>
+      </c>
+      <c r="D805" t="n">
+        <v>64.17</v>
+      </c>
+      <c r="E805" t="n">
+        <v>2635.14</v>
+      </c>
+      <c r="F805" t="n">
+        <v>3804.87</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B806" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="C806" t="n">
+        <v>5303.4</v>
+      </c>
+      <c r="D806" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="E806" t="n">
+        <v>2646.53</v>
+      </c>
+      <c r="F806" t="n">
+        <v>3828.07</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B807" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="C807" t="n">
+        <v>5261.26</v>
+      </c>
+      <c r="D807" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="E807" t="n">
+        <v>2625.5</v>
+      </c>
+      <c r="F807" t="n">
+        <v>3797.65</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B808" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="C808" t="n">
+        <v>5289.31</v>
+      </c>
+      <c r="D808" t="n">
+        <v>65.88</v>
+      </c>
+      <c r="E808" t="n">
+        <v>2639.5</v>
+      </c>
+      <c r="F808" t="n">
+        <v>3817.9</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B809" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="C809" t="n">
+        <v>5285.85</v>
+      </c>
+      <c r="D809" t="n">
+        <v>66.13</v>
+      </c>
+      <c r="E809" t="n">
+        <v>2642</v>
+      </c>
+      <c r="F809" t="n">
+        <v>3779.57</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B810" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C810" t="n">
+        <v>5273.4</v>
+      </c>
+      <c r="D810" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="E810" t="n">
+        <v>2678.45</v>
+      </c>
+      <c r="F810" t="n">
+        <v>3812.86</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B811" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="C811" t="n">
+        <v>5367.82</v>
+      </c>
+      <c r="D811" t="n">
+        <v>67.14</v>
+      </c>
+      <c r="E811" t="n">
+        <v>2714.76</v>
+      </c>
+      <c r="F811" t="n">
+        <v>3883.48</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B812" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C812" t="n">
+        <v>5299.71</v>
+      </c>
+      <c r="D812" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E812" t="n">
+        <v>2737.24</v>
+      </c>
+      <c r="F812" t="n">
+        <v>3894.6</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B813" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="C813" t="n">
+        <v>5235.5</v>
+      </c>
+      <c r="D813" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="E813" t="n">
+        <v>2767.89</v>
+      </c>
+      <c r="F813" t="n">
+        <v>3987.86</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B814" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="C814" t="n">
+        <v>5248.95</v>
+      </c>
+      <c r="D814" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="E814" t="n">
+        <v>2816.91</v>
+      </c>
+      <c r="F814" t="n">
+        <v>4273.93</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B815" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="C815" t="n">
+        <v>5223.41</v>
+      </c>
+      <c r="D815" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="E815" t="n">
+        <v>2820.91</v>
+      </c>
+      <c r="F815" t="n">
+        <v>4222.18</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B816" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="C816" t="n">
+        <v>5258.42</v>
+      </c>
+      <c r="D816" t="n">
+        <v>66.54000000000001</v>
+      </c>
+      <c r="E816" t="n">
+        <v>2866.11</v>
+      </c>
+      <c r="F816" t="n">
+        <v>4238.91</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B817" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="C817" t="n">
+        <v>5157.21</v>
+      </c>
+      <c r="D817" t="n">
+        <v>65.73</v>
+      </c>
+      <c r="E817" t="n">
+        <v>2947.5</v>
+      </c>
+      <c r="F817" t="n">
+        <v>4254.02</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B818" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="C818" t="n">
+        <v>5186.62</v>
+      </c>
+      <c r="D818" t="n">
+        <v>65.63</v>
+      </c>
+      <c r="E818" t="n">
+        <v>2860.48</v>
+      </c>
+      <c r="F818" t="n">
+        <v>4050.82</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B819" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C819" t="n">
+        <v>5215.69</v>
+      </c>
+      <c r="D819" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="E819" t="n">
+        <v>2834.33</v>
+      </c>
+      <c r="F819" t="n">
+        <v>3920.82</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B820" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="C820" t="n">
+        <v>5252.3</v>
+      </c>
+      <c r="D820" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="E820" t="n">
+        <v>2866.08</v>
+      </c>
+      <c r="F820" t="n">
+        <v>3956.92</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B821" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C821" t="n">
+        <v>5139.72</v>
+      </c>
+      <c r="D821" t="n">
+        <v>65.09</v>
+      </c>
+      <c r="E821" t="n">
+        <v>2808.45</v>
+      </c>
+      <c r="F821" t="n">
+        <v>3872.29</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B822" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="C822" t="n">
+        <v>5096.74</v>
+      </c>
+      <c r="D822" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="E822" t="n">
+        <v>2761.04</v>
+      </c>
+      <c r="F822" t="n">
+        <v>3848.49</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B823" s="2" t="n">
+        <v>45050</v>
+      </c>
+      <c r="C823" t="n">
+        <v>5087.83</v>
+      </c>
+      <c r="D823" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="E823" t="n">
+        <v>2674.72</v>
+      </c>
+      <c r="F823" t="n">
+        <v>3704.83</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B824" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="C824" t="n">
+        <v>5091.13</v>
+      </c>
+      <c r="D824" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="E824" t="n">
+        <v>2679.14</v>
+      </c>
+      <c r="F824" t="n">
+        <v>3642.12</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>45052</v>
+      </c>
+      <c r="C825" t="n">
+        <v>5050.08</v>
+      </c>
+      <c r="D825" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="E825" t="n">
+        <v>2600.74</v>
+      </c>
+      <c r="F825" t="n">
+        <v>3521.99</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B826" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C826" t="n">
+        <v>5005.93</v>
+      </c>
+      <c r="D826" t="n">
+        <v>63.04</v>
+      </c>
+      <c r="E826" t="n">
+        <v>2675.32</v>
+      </c>
+      <c r="F826" t="n">
+        <v>3871.2</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B827" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="C827" t="n">
+        <v>4970.13</v>
+      </c>
+      <c r="D827" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="E827" t="n">
+        <v>2739.83</v>
+      </c>
+      <c r="F827" t="n">
+        <v>3952.39</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B828" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="C828" t="n">
+        <v>5003.93</v>
+      </c>
+      <c r="D828" t="n">
+        <v>61.77</v>
+      </c>
+      <c r="E828" t="n">
+        <v>2777.55</v>
+      </c>
+      <c r="F828" t="n">
+        <v>3988.84</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C829" t="n">
+        <v>5136.88</v>
+      </c>
+      <c r="D829" t="n">
+        <v>60.67</v>
+      </c>
+      <c r="E829" t="n">
+        <v>2749.13</v>
+      </c>
+      <c r="F829" t="n">
+        <v>3931.69</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C830" t="n">
+        <v>5193.99</v>
+      </c>
+      <c r="D830" t="n">
+        <v>61.43</v>
+      </c>
+      <c r="E830" t="n">
+        <v>2728.26</v>
+      </c>
+      <c r="F830" t="n">
+        <v>3944.54</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="C831" t="n">
+        <v>5212.6</v>
+      </c>
+      <c r="D831" t="n">
+        <v>61.76</v>
+      </c>
+      <c r="E831" t="n">
+        <v>2778.39</v>
+      </c>
+      <c r="F831" t="n">
+        <v>3949.47</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B832" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="C832" t="n">
+        <v>5080.59</v>
+      </c>
+      <c r="D832" t="n">
+        <v>60.95</v>
+      </c>
+      <c r="E832" t="n">
+        <v>2766.23</v>
+      </c>
+      <c r="F832" t="n">
+        <v>3834.12</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B833" s="2" t="n">
+        <v>45066</v>
+      </c>
+      <c r="C833" t="n">
+        <v>5036.29</v>
+      </c>
+      <c r="D833" t="n">
+        <v>60.43</v>
+      </c>
+      <c r="E833" t="n">
+        <v>2741.27</v>
+      </c>
+      <c r="F833" t="n">
+        <v>3761.22</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B834" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="C834" t="n">
+        <v>5041.43</v>
+      </c>
+      <c r="D834" t="n">
+        <v>60.81</v>
+      </c>
+      <c r="E834" t="n">
+        <v>2752.54</v>
+      </c>
+      <c r="F834" t="n">
+        <v>3901.35</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B835" s="2" t="n">
+        <v>45070</v>
+      </c>
+      <c r="C835" t="n">
+        <v>5078.27</v>
+      </c>
+      <c r="D835" t="n">
+        <v>61.47</v>
+      </c>
+      <c r="E835" t="n">
+        <v>2768.14</v>
+      </c>
+      <c r="F835" t="n">
+        <v>3899.62</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B836" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="C836" t="n">
+        <v>5062.8</v>
+      </c>
+      <c r="D836" t="n">
+        <v>59.54</v>
+      </c>
+      <c r="E836" t="n">
+        <v>2740.68</v>
+      </c>
+      <c r="F836" t="n">
+        <v>3753.65</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B837" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C837" t="n">
+        <v>5065.05</v>
+      </c>
+      <c r="D837" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="E837" t="n">
+        <v>2679.55</v>
+      </c>
+      <c r="F837" t="n">
+        <v>3664.45</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B838" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="C838" t="n">
+        <v>5008.93</v>
+      </c>
+      <c r="D838" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="E838" t="n">
+        <v>2630.12</v>
+      </c>
+      <c r="F838" t="n">
+        <v>3635.38</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B839" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C839" t="n">
+        <v>5013.59</v>
+      </c>
+      <c r="D839" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="E839" t="n">
+        <v>2638.19</v>
+      </c>
+      <c r="F839" t="n">
+        <v>3711.48</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B840" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C840" t="n">
+        <v>5053.15</v>
+      </c>
+      <c r="D840" t="n">
+        <v>60.04</v>
+      </c>
+      <c r="E840" t="n">
+        <v>2659.01</v>
+      </c>
+      <c r="F840" t="n">
+        <v>3740.77</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B841" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C841" t="n">
+        <v>5084.22</v>
+      </c>
+      <c r="D841" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="E841" t="n">
+        <v>2674.33</v>
+      </c>
+      <c r="F841" t="n">
+        <v>3689.9</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B842" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C842" t="n">
+        <v>5113.54</v>
+      </c>
+      <c r="D842" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="E842" t="n">
+        <v>2610.92</v>
+      </c>
+      <c r="F842" t="n">
+        <v>3618.32</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B843" s="2" t="n">
+        <v>45080</v>
+      </c>
+      <c r="C843" t="n">
+        <v>5133.72</v>
+      </c>
+      <c r="D843" t="n">
+        <v>61.08</v>
+      </c>
+      <c r="E843" t="n">
+        <v>2610.61</v>
+      </c>
+      <c r="F843" t="n">
+        <v>3567.49</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B844" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="C844" t="n">
+        <v>5133.5</v>
+      </c>
+      <c r="D844" t="n">
+        <v>62.45</v>
+      </c>
+      <c r="E844" t="n">
+        <v>2633.1</v>
+      </c>
+      <c r="F844" t="n">
+        <v>3710.4</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B845" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="C845" t="n">
+        <v>5119.1</v>
+      </c>
+      <c r="D845" t="n">
+        <v>61.32</v>
+      </c>
+      <c r="E845" t="n">
+        <v>2656.66</v>
+      </c>
+      <c r="F845" t="n">
+        <v>3683.28</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B846" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C846" t="n">
+        <v>5125.91</v>
+      </c>
+      <c r="D846" t="n">
+        <v>61.92</v>
+      </c>
+      <c r="E846" t="n">
+        <v>2692.27</v>
+      </c>
+      <c r="F846" t="n">
+        <v>3684.84</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B847" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C847" t="n">
+        <v>5192.52</v>
+      </c>
+      <c r="D847" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="E847" t="n">
+        <v>2731.73</v>
+      </c>
+      <c r="F847" t="n">
+        <v>3724.12</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B848" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="C848" t="n">
+        <v>5224.71</v>
+      </c>
+      <c r="D848" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="E848" t="n">
+        <v>2710.13</v>
+      </c>
+      <c r="F848" t="n">
+        <v>3669.3</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B849" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="C849" t="n">
+        <v>5251.55</v>
+      </c>
+      <c r="D849" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E849" t="n">
+        <v>2670.28</v>
+      </c>
+      <c r="F849" t="n">
+        <v>3576.51</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B850" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C850" t="n">
+        <v>5298.59</v>
+      </c>
+      <c r="D850" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="E850" t="n">
+        <v>2689.42</v>
+      </c>
+      <c r="F850" t="n">
+        <v>3719.64</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B851" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C851" t="n">
+        <v>5279.51</v>
+      </c>
+      <c r="D851" t="n">
+        <v>64.31</v>
+      </c>
+      <c r="E851" t="n">
+        <v>2640.02</v>
+      </c>
+      <c r="F851" t="n">
+        <v>3765.68</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B852" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C852" t="n">
+        <v>5250.65</v>
+      </c>
+      <c r="D852" t="n">
+        <v>62.95</v>
+      </c>
+      <c r="E852" t="n">
+        <v>2632.92</v>
+      </c>
+      <c r="F852" t="n">
+        <v>3679.1</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B853" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C853" t="n">
+        <v>5291.78</v>
+      </c>
+      <c r="D853" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="E853" t="n">
+        <v>2665.13</v>
+      </c>
+      <c r="F853" t="n">
+        <v>3774.92</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B854" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C854" t="n">
+        <v>5284.05</v>
+      </c>
+      <c r="D854" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="E854" t="n">
+        <v>2662.13</v>
+      </c>
+      <c r="F854" t="n">
+        <v>3772.48</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B855" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="C855" t="n">
+        <v>5228.8</v>
+      </c>
+      <c r="D855" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="E855" t="n">
+        <v>2611.08</v>
+      </c>
+      <c r="F855" t="n">
+        <v>3786.61</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B856" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C856" t="n">
+        <v>5176.24</v>
+      </c>
+      <c r="D856" t="n">
+        <v>62.03</v>
+      </c>
+      <c r="E856" t="n">
+        <v>2550.96</v>
+      </c>
+      <c r="F856" t="n">
+        <v>3610.05</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B857" s="2" t="n">
+        <v>45101</v>
+      </c>
+      <c r="C857" t="n">
+        <v>5190.3</v>
+      </c>
+      <c r="D857" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="E857" t="n">
+        <v>2535.61</v>
+      </c>
+      <c r="F857" t="n">
+        <v>3565.53</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B858" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C858" t="n">
+        <v>5255.39</v>
+      </c>
+      <c r="D858" t="n">
+        <v>60.81</v>
+      </c>
+      <c r="E858" t="n">
+        <v>2515.14</v>
+      </c>
+      <c r="F858" t="n">
+        <v>3481.46</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B859" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="C859" t="n">
+        <v>5258.04</v>
+      </c>
+      <c r="D859" t="n">
+        <v>62.35</v>
+      </c>
+      <c r="E859" t="n">
+        <v>2523.88</v>
+      </c>
+      <c r="F859" t="n">
+        <v>3614.92</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B860" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="C860" t="n">
+        <v>5282.19</v>
+      </c>
+      <c r="D860" t="n">
+        <v>62.86</v>
+      </c>
+      <c r="E860" t="n">
+        <v>2546.27</v>
+      </c>
+      <c r="F860" t="n">
+        <v>3619.83</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B861" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C861" t="n">
+        <v>5340.1</v>
+      </c>
+      <c r="D861" t="n">
+        <v>63.27</v>
+      </c>
+      <c r="E861" t="n">
+        <v>2546.37</v>
+      </c>
+      <c r="F861" t="n">
+        <v>3427.81</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B862" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C862" t="n">
+        <v>5397.95</v>
+      </c>
+      <c r="D862" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="E862" t="n">
+        <v>2557.46</v>
+      </c>
+      <c r="F862" t="n">
+        <v>3475.3</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B863" s="2" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C863" t="n">
+        <v>5491.75</v>
+      </c>
+      <c r="D863" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="E863" t="n">
+        <v>2576.08</v>
+      </c>
+      <c r="F863" t="n">
+        <v>3601.34</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B864" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C864" t="n">
+        <v>5552.75</v>
+      </c>
+      <c r="D864" t="n">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="E864" t="n">
+        <v>2622.71</v>
+      </c>
+      <c r="F864" t="n">
+        <v>3549.73</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B865" s="2" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C865" t="n">
+        <v>5599.02</v>
+      </c>
+      <c r="D865" t="n">
+        <v>66.81999999999999</v>
+      </c>
+      <c r="E865" t="n">
+        <v>2666.27</v>
+      </c>
+      <c r="F865" t="n">
+        <v>3604.4</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B866" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="C866" t="n">
+        <v>5728.1</v>
+      </c>
+      <c r="D866" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="E866" t="n">
+        <v>2729.15</v>
+      </c>
+      <c r="F866" t="n">
+        <v>3708.32</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B867" s="2" t="n">
+        <v>45115</v>
+      </c>
+      <c r="C867" t="n">
+        <v>5626.82</v>
+      </c>
+      <c r="D867" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E867" t="n">
+        <v>2670.74</v>
+      </c>
+      <c r="F867" t="n">
+        <v>3681.84</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B868" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C868" t="n">
+        <v>5654.58</v>
+      </c>
+      <c r="D868" t="n">
+        <v>66.81999999999999</v>
+      </c>
+      <c r="E868" t="n">
+        <v>2668</v>
+      </c>
+      <c r="F868" t="n">
+        <v>3644.6</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B869" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="C869" t="n">
+        <v>5594.93</v>
+      </c>
+      <c r="D869" t="n">
+        <v>67.04000000000001</v>
+      </c>
+      <c r="E869" t="n">
+        <v>2653.72</v>
+      </c>
+      <c r="F869" t="n">
+        <v>3491.74</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B870" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="C870" t="n">
+        <v>5634.89</v>
+      </c>
+      <c r="D870" t="n">
+        <v>67.41</v>
+      </c>
+      <c r="E870" t="n">
+        <v>2700.97</v>
+      </c>
+      <c r="F870" t="n">
+        <v>3601.29</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B871" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="C871" t="n">
+        <v>5663.03</v>
+      </c>
+      <c r="D871" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="E871" t="n">
+        <v>2736.86</v>
+      </c>
+      <c r="F871" t="n">
+        <v>3708.09</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B872" s="2" t="n">
+        <v>45122</v>
+      </c>
+      <c r="C872" t="n">
+        <v>5673.24</v>
+      </c>
+      <c r="D872" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="E872" t="n">
+        <v>2807.57</v>
+      </c>
+      <c r="F872" t="n">
+        <v>3708.66</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B873" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C873" t="n">
+        <v>5679.65</v>
+      </c>
+      <c r="D873" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="E873" t="n">
+        <v>2840.26</v>
+      </c>
+      <c r="F873" t="n">
+        <v>3683.32</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B874" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C874" t="n">
+        <v>5684.58</v>
+      </c>
+      <c r="D874" t="n">
+        <v>72.34</v>
+      </c>
+      <c r="E874" t="n">
+        <v>2831.21</v>
+      </c>
+      <c r="F874" t="n">
+        <v>3703.03</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B875" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="C875" t="n">
+        <v>5791.28</v>
+      </c>
+      <c r="D875" t="n">
+        <v>72.97</v>
+      </c>
+      <c r="E875" t="n">
+        <v>2882.44</v>
+      </c>
+      <c r="F875" t="n">
+        <v>3864.76</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B876" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C876" t="n">
+        <v>5770.07</v>
+      </c>
+      <c r="D876" t="n">
+        <v>73.06999999999999</v>
+      </c>
+      <c r="E876" t="n">
+        <v>2877.22</v>
+      </c>
+      <c r="F876" t="n">
+        <v>3823.64</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B877" s="2" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C877" t="n">
+        <v>5742.41</v>
+      </c>
+      <c r="D877" t="n">
+        <v>73.16</v>
+      </c>
+      <c r="E877" t="n">
+        <v>2818.75</v>
+      </c>
+      <c r="F877" t="n">
+        <v>3768.99</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B878" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="C878" t="n">
+        <v>5703.95</v>
+      </c>
+      <c r="D878" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="E878" t="n">
+        <v>2795.82</v>
+      </c>
+      <c r="F878" t="n">
+        <v>3776.25</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B879" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="C879" t="n">
+        <v>5677.34</v>
+      </c>
+      <c r="D879" t="n">
+        <v>71.23</v>
+      </c>
+      <c r="E879" t="n">
+        <v>2786.53</v>
+      </c>
+      <c r="F879" t="n">
+        <v>3727.93</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B880" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C880" t="n">
+        <v>5670.57</v>
+      </c>
+      <c r="D880" t="n">
+        <v>71.09</v>
+      </c>
+      <c r="E880" t="n">
+        <v>2799.53</v>
+      </c>
+      <c r="F880" t="n">
+        <v>3734.64</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B881" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C881" t="n">
+        <v>5691.04</v>
+      </c>
+      <c r="D881" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="E881" t="n">
+        <v>2778.52</v>
+      </c>
+      <c r="F881" t="n">
+        <v>3629.44</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B882" s="2" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C882" t="n">
+        <v>5690.18</v>
+      </c>
+      <c r="D882" t="n">
+        <v>73.15000000000001</v>
+      </c>
+      <c r="E882" t="n">
+        <v>2802.17</v>
+      </c>
+      <c r="F882" t="n">
+        <v>3644.57</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B883" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C883" t="n">
+        <v>5754.79</v>
+      </c>
+      <c r="D883" t="n">
+        <v>71.34</v>
+      </c>
+      <c r="E883" t="n">
+        <v>2747.46</v>
+      </c>
+      <c r="F883" t="n">
+        <v>3654.45</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B884" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="C884" t="n">
+        <v>5814.7</v>
+      </c>
+      <c r="D884" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="E884" t="n">
+        <v>2800.17</v>
+      </c>
+      <c r="F884" t="n">
+        <v>3759.13</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B885" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="C885" t="n">
+        <v>5812.21</v>
+      </c>
+      <c r="D885" t="n">
+        <v>73.17</v>
+      </c>
+      <c r="E885" t="n">
+        <v>2775.96</v>
+      </c>
+      <c r="F885" t="n">
+        <v>3695.31</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B886" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="C886" t="n">
+        <v>5861.9</v>
+      </c>
+      <c r="D886" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="E886" t="n">
+        <v>2801</v>
+      </c>
+      <c r="F886" t="n">
+        <v>3750.75</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B887" s="2" t="n">
+        <v>45143</v>
+      </c>
+      <c r="C887" t="n">
+        <v>5900.12</v>
+      </c>
+      <c r="D887" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E887" t="n">
+        <v>2807.33</v>
+      </c>
+      <c r="F887" t="n">
+        <v>3810.17</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B888" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="C888" t="n">
+        <v>6030.71</v>
+      </c>
+      <c r="D888" t="n">
+        <v>72.81</v>
+      </c>
+      <c r="E888" t="n">
+        <v>2853.21</v>
+      </c>
+      <c r="F888" t="n">
+        <v>3905.7</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B889" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="C889" t="n">
+        <v>5966.82</v>
+      </c>
+      <c r="D889" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E889" t="n">
+        <v>2872.67</v>
+      </c>
+      <c r="F889" t="n">
+        <v>3895.1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B890" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="C890" t="n">
+        <v>6032.48</v>
+      </c>
+      <c r="D890" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="E890" t="n">
+        <v>2837.12</v>
+      </c>
+      <c r="F890" t="n">
+        <v>3801.61</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B891" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="C891" t="n">
+        <v>6013.6</v>
+      </c>
+      <c r="D891" t="n">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="E891" t="n">
+        <v>2796.08</v>
+      </c>
+      <c r="F891" t="n">
+        <v>3821.93</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B892" s="2" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C892" t="n">
+        <v>6065.07</v>
+      </c>
+      <c r="D892" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="E892" t="n">
+        <v>2844.83</v>
+      </c>
+      <c r="F892" t="n">
+        <v>4006.76</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B893" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="C893" t="n">
+        <v>6223.49</v>
+      </c>
+      <c r="D893" t="n">
+        <v>73.70999999999999</v>
+      </c>
+      <c r="E893" t="n">
+        <v>2959.39</v>
+      </c>
+      <c r="F893" t="n">
+        <v>4301.02</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B894" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C894" t="n">
+        <v>5962.88</v>
+      </c>
+      <c r="D894" t="n">
+        <v>71.18000000000001</v>
+      </c>
+      <c r="E894" t="n">
+        <v>2825.22</v>
+      </c>
+      <c r="F894" t="n">
+        <v>3993.53</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B895" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C895" t="n">
+        <v>5919.3</v>
+      </c>
+      <c r="D895" t="n">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="E895" t="n">
+        <v>2767.12</v>
+      </c>
+      <c r="F895" t="n">
+        <v>3873.96</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B896" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="C896" t="n">
+        <v>5739.26</v>
+      </c>
+      <c r="D896" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="E896" t="n">
+        <v>2673.42</v>
+      </c>
+      <c r="F896" t="n">
+        <v>3671.05</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B897" s="2" t="n">
+        <v>45157</v>
+      </c>
+      <c r="C897" t="n">
+        <v>5694.79</v>
+      </c>
+      <c r="D897" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="E897" t="n">
+        <v>2732.76</v>
+      </c>
+      <c r="F897" t="n">
+        <v>3702.73</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B898" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="C898" t="n">
+        <v>5731.75</v>
+      </c>
+      <c r="D898" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="E898" t="n">
+        <v>2736.18</v>
+      </c>
+      <c r="F898" t="n">
+        <v>3719.87</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B899" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="C899" t="n">
+        <v>5718.64</v>
+      </c>
+      <c r="D899" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="E899" t="n">
+        <v>2756.67</v>
+      </c>
+      <c r="F899" t="n">
+        <v>3752.21</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B900" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="C900" t="n">
+        <v>5747.11</v>
+      </c>
+      <c r="D900" t="n">
+        <v>71.02</v>
+      </c>
+      <c r="E900" t="n">
+        <v>2817.76</v>
+      </c>
+      <c r="F900" t="n">
+        <v>3913.9</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B901" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C901" t="n">
+        <v>5817.13</v>
+      </c>
+      <c r="D901" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="E901" t="n">
+        <v>2819.56</v>
+      </c>
+      <c r="F901" t="n">
+        <v>3890.94</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B902" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C902" t="n">
+        <v>5837.51</v>
+      </c>
+      <c r="D902" t="n">
+        <v>73.64</v>
+      </c>
+      <c r="E902" t="n">
+        <v>2841.03</v>
+      </c>
+      <c r="F902" t="n">
+        <v>3788.04</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B903" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C903" t="n">
+        <v>5879.6</v>
+      </c>
+      <c r="D903" t="n">
+        <v>74.23999999999999</v>
+      </c>
+      <c r="E903" t="n">
+        <v>2912.94</v>
+      </c>
+      <c r="F903" t="n">
+        <v>3784.67</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B904" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C904" t="n">
+        <v>5894.09</v>
+      </c>
+      <c r="D904" t="n">
+        <v>74.42</v>
+      </c>
+      <c r="E904" t="n">
+        <v>2920.12</v>
+      </c>
+      <c r="F904" t="n">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B905" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C905" t="n">
+        <v>5952.44</v>
+      </c>
+      <c r="D905" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="E905" t="n">
+        <v>3019.4</v>
+      </c>
+      <c r="F905" t="n">
+        <v>3775.02</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B906" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C906" t="n">
+        <v>6031.99</v>
+      </c>
+      <c r="D906" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="E906" t="n">
+        <v>3047.67</v>
+      </c>
+      <c r="F906" t="n">
+        <v>3831.26</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B907" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C907" t="n">
+        <v>6016.15</v>
+      </c>
+      <c r="D907" t="n">
+        <v>76</v>
+      </c>
+      <c r="E907" t="n">
+        <v>3035.49</v>
+      </c>
+      <c r="F907" t="n">
+        <v>3794.36</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B908" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C908" t="n">
+        <v>6028.12</v>
+      </c>
+      <c r="D908" t="n">
+        <v>76.56</v>
+      </c>
+      <c r="E908" t="n">
+        <v>3053.59</v>
+      </c>
+      <c r="F908" t="n">
+        <v>3811.55</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B909" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C909" t="n">
+        <v>6074.92</v>
+      </c>
+      <c r="D909" t="n">
+        <v>75.37</v>
+      </c>
+      <c r="E909" t="n">
+        <v>3010.49</v>
+      </c>
+      <c r="F909" t="n">
+        <v>3860.33</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B910" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C910" t="n">
+        <v>6059.03</v>
+      </c>
+      <c r="D910" t="n">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="E910" t="n">
+        <v>2972.74</v>
+      </c>
+      <c r="F910" t="n">
+        <v>3790.63</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B911" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C911" t="n">
+        <v>6068.06</v>
+      </c>
+      <c r="D911" t="n">
+        <v>74.11</v>
+      </c>
+      <c r="E911" t="n">
+        <v>2888.72</v>
+      </c>
+      <c r="F911" t="n">
+        <v>3791.65</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B912" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C912" t="n">
+        <v>6039.6</v>
+      </c>
+      <c r="D912" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="E912" t="n">
+        <v>2846.09</v>
+      </c>
+      <c r="F912" t="n">
+        <v>3800.04</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B913" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C913" t="n">
+        <v>5981.6</v>
+      </c>
+      <c r="D913" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="E913" t="n">
+        <v>2792.53</v>
+      </c>
+      <c r="F913" t="n">
+        <v>3745.09</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B914" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C914" t="n">
+        <v>5861.06</v>
+      </c>
+      <c r="D914" t="n">
+        <v>70.34999999999999</v>
+      </c>
+      <c r="E914" t="n">
+        <v>2749.44</v>
+      </c>
+      <c r="F914" t="n">
+        <v>3699.41</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B915" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C915" t="n">
+        <v>5889.42</v>
+      </c>
+      <c r="D915" t="n">
+        <v>70.66</v>
+      </c>
+      <c r="E915" t="n">
+        <v>2777.23</v>
+      </c>
+      <c r="F915" t="n">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B916" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C916" t="n">
+        <v>5916.79</v>
+      </c>
+      <c r="D916" t="n">
+        <v>70.81</v>
+      </c>
+      <c r="E916" t="n">
+        <v>2785.57</v>
+      </c>
+      <c r="F916" t="n">
+        <v>3815.09</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B917" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C917" t="n">
+        <v>5908.45</v>
+      </c>
+      <c r="D917" t="n">
+        <v>70.34</v>
+      </c>
+      <c r="E917" t="n">
+        <v>2805.48</v>
+      </c>
+      <c r="F917" t="n">
+        <v>3911.52</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B918" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C918" t="n">
+        <v>5989.9</v>
+      </c>
+      <c r="D918" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="E918" t="n">
+        <v>2880.45</v>
+      </c>
+      <c r="F918" t="n">
+        <v>3946.24</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B919" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C919" t="n">
+        <v>5950.65</v>
+      </c>
+      <c r="D919" t="n">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="E919" t="n">
+        <v>2892.57</v>
+      </c>
+      <c r="F919" t="n">
+        <v>3857.79</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B920" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C920" t="n">
+        <v>6010.4</v>
+      </c>
+      <c r="D920" t="n">
+        <v>72.47</v>
+      </c>
+      <c r="E920" t="n">
+        <v>2944.78</v>
+      </c>
+      <c r="F920" t="n">
+        <v>3951.23</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B921" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C921" t="n">
+        <v>6002.85</v>
+      </c>
+      <c r="D921" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="E921" t="n">
+        <v>2912.85</v>
+      </c>
+      <c r="F921" t="n">
+        <v>3990.88</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B922" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C922" t="n">
+        <v>5913.17</v>
+      </c>
+      <c r="D922" t="n">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="E922" t="n">
+        <v>2831.53</v>
+      </c>
+      <c r="F922" t="n">
+        <v>3835.07</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B923" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C923" t="n">
+        <v>5957.73</v>
+      </c>
+      <c r="D923" t="n">
+        <v>73.11</v>
+      </c>
+      <c r="E923" t="n">
+        <v>2905.68</v>
+      </c>
+      <c r="F923" t="n">
+        <v>3941.22</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B924" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C924" t="n">
+        <v>5955.71</v>
+      </c>
+      <c r="D924" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="E924" t="n">
+        <v>2843.49</v>
+      </c>
+      <c r="F924" t="n">
+        <v>3839.8</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B925" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C925" t="n">
+        <v>5916.71</v>
+      </c>
+      <c r="D925" t="n">
+        <v>71.41</v>
+      </c>
+      <c r="E925" t="n">
+        <v>2810.91</v>
+      </c>
+      <c r="F925" t="n">
+        <v>3763.39</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B926" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C926" t="n">
+        <v>5885.88</v>
+      </c>
+      <c r="D926" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="E926" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="F926" t="n">
+        <v>3870.28</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B927" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C927" t="n">
+        <v>5867.87</v>
+      </c>
+      <c r="D927" t="n">
+        <v>70.63</v>
+      </c>
+      <c r="E927" t="n">
+        <v>2821.89</v>
+      </c>
+      <c r="F927" t="n">
+        <v>3899.28</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B928" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C928" t="n">
+        <v>5922.29</v>
+      </c>
+      <c r="D928" t="n">
+        <v>73.06</v>
+      </c>
+      <c r="E928" t="n">
+        <v>2922.36</v>
+      </c>
+      <c r="F928" t="n">
+        <v>4081.17</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B929" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C929" t="n">
+        <v>5850.23</v>
+      </c>
+      <c r="D929" t="n">
+        <v>69</v>
+      </c>
+      <c r="E929" t="n">
+        <v>2875.57</v>
+      </c>
+      <c r="F929" t="n">
+        <v>3874.52</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B930" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C930" t="n">
+        <v>5827.4</v>
+      </c>
+      <c r="D930" t="n">
+        <v>67.31999999999999</v>
+      </c>
+      <c r="E930" t="n">
+        <v>2817.06</v>
+      </c>
+      <c r="F930" t="n">
+        <v>3782.72</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B931" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C931" t="n">
+        <v>5829.12</v>
+      </c>
+      <c r="D931" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="E931" t="n">
+        <v>2800.87</v>
+      </c>
+      <c r="F931" t="n">
+        <v>3771.89</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B932" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C932" t="n">
+        <v>5878.39</v>
+      </c>
+      <c r="D932" t="n">
+        <v>68.27</v>
+      </c>
+      <c r="E932" t="n">
+        <v>2791.46</v>
+      </c>
+      <c r="F932" t="n">
+        <v>3738.11</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B933" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C933" t="n">
+        <v>5929.7</v>
+      </c>
+      <c r="D933" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="E933" t="n">
+        <v>2796.04</v>
+      </c>
+      <c r="F933" t="n">
+        <v>3734.57</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B934" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C934" t="n">
+        <v>5929.55</v>
+      </c>
+      <c r="D934" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="E934" t="n">
+        <v>2827.42</v>
+      </c>
+      <c r="F934" t="n">
+        <v>3637.09</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B935" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C935" t="n">
+        <v>5969.24</v>
+      </c>
+      <c r="D935" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E935" t="n">
+        <v>2848.01</v>
+      </c>
+      <c r="F935" t="n">
+        <v>3629.12</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B936" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="C936" t="n">
+        <v>5835.41</v>
+      </c>
+      <c r="D936" t="n">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="E936" t="n">
+        <v>2744.24</v>
+      </c>
+      <c r="F936" t="n">
+        <v>3623.64</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B937" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C937" t="n">
+        <v>5862.82</v>
+      </c>
+      <c r="D937" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="E937" t="n">
+        <v>2762.47</v>
+      </c>
+      <c r="F937" t="n">
+        <v>3641.58</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B938" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C938" t="n">
+        <v>5971.66</v>
+      </c>
+      <c r="D938" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="E938" t="n">
+        <v>2755.62</v>
+      </c>
+      <c r="F938" t="n">
+        <v>3568.86</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B939" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C939" t="n">
+        <v>6002.99</v>
+      </c>
+      <c r="D939" t="n">
+        <v>70.72</v>
+      </c>
+      <c r="E939" t="n">
+        <v>2763.56</v>
+      </c>
+      <c r="F939" t="n">
+        <v>3552.25</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B940" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C940" t="n">
+        <v>6036.41</v>
+      </c>
+      <c r="D940" t="n">
+        <v>71</v>
+      </c>
+      <c r="E940" t="n">
+        <v>2801.88</v>
+      </c>
+      <c r="F940" t="n">
+        <v>3553.22</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B941" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C941" t="n">
+        <v>6118.41</v>
+      </c>
+      <c r="D941" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="E941" t="n">
+        <v>2809.4</v>
+      </c>
+      <c r="F941" t="n">
+        <v>3535.21</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B942" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C942" t="n">
+        <v>6023.62</v>
+      </c>
+      <c r="D942" t="n">
+        <v>70.56</v>
+      </c>
+      <c r="E942" t="n">
+        <v>2738.08</v>
+      </c>
+      <c r="F942" t="n">
+        <v>3413.35</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B943" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C943" t="n">
+        <v>6054.85</v>
+      </c>
+      <c r="D943" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="E943" t="n">
+        <v>2725.22</v>
+      </c>
+      <c r="F943" t="n">
+        <v>3352.47</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B944" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C944" t="n">
+        <v>5932.44</v>
+      </c>
+      <c r="D944" t="n">
+        <v>69.70999999999999</v>
+      </c>
+      <c r="E944" t="n">
+        <v>2700.12</v>
+      </c>
+      <c r="F944" t="n">
+        <v>3346.58</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B945" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C945" t="n">
+        <v>5880.86</v>
+      </c>
+      <c r="D945" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E945" t="n">
+        <v>2656.44</v>
+      </c>
+      <c r="F945" t="n">
+        <v>3354.25</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B946" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C946" t="n">
+        <v>5965.91</v>
+      </c>
+      <c r="D946" t="n">
+        <v>68.61</v>
+      </c>
+      <c r="E946" t="n">
+        <v>2695.23</v>
+      </c>
+      <c r="F946" t="n">
+        <v>3417.17</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B947" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C947" t="n">
+        <v>5919.09</v>
+      </c>
+      <c r="D947" t="n">
+        <v>68.84</v>
+      </c>
+      <c r="E947" t="n">
+        <v>2733.27</v>
+      </c>
+      <c r="F947" t="n">
+        <v>3365.64</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B948" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C948" t="n">
+        <v>5944.43</v>
+      </c>
+      <c r="D948" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="E948" t="n">
+        <v>2707.05</v>
+      </c>
+      <c r="F948" t="n">
+        <v>3414.55</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B949" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C949" t="n">
+        <v>5910.09</v>
+      </c>
+      <c r="D949" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="E949" t="n">
+        <v>2742.62</v>
+      </c>
+      <c r="F949" t="n">
+        <v>3390.55</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B950" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C950" t="n">
+        <v>5988.75</v>
+      </c>
+      <c r="D950" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="E950" t="n">
+        <v>2819.08</v>
+      </c>
+      <c r="F950" t="n">
+        <v>3406.89</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B951" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C951" t="n">
+        <v>5950.27</v>
+      </c>
+      <c r="D951" t="n">
+        <v>67.91</v>
+      </c>
+      <c r="E951" t="n">
+        <v>2782.89</v>
+      </c>
+      <c r="F951" t="n">
+        <v>3382.01</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B952" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C952" t="n">
+        <v>5933.24</v>
+      </c>
+      <c r="D952" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E952" t="n">
+        <v>2754.85</v>
+      </c>
+      <c r="F952" t="n">
+        <v>3341.11</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B953" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C953" t="n">
+        <v>5896.67</v>
+      </c>
+      <c r="D953" t="n">
+        <v>68.95999999999999</v>
+      </c>
+      <c r="E953" t="n">
+        <v>2754.31</v>
+      </c>
+      <c r="F953" t="n">
+        <v>3336.67</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B954" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C954" t="n">
+        <v>5811.93</v>
+      </c>
+      <c r="D954" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E954" t="n">
+        <v>2664.82</v>
+      </c>
+      <c r="F954" t="n">
+        <v>3171.7</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B955" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C955" t="n">
+        <v>5790.87</v>
+      </c>
+      <c r="D955" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="E955" t="n">
+        <v>2600.85</v>
+      </c>
+      <c r="F955" t="n">
+        <v>3002.79</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B956" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C956" t="n">
+        <v>5793.24</v>
+      </c>
+      <c r="D956" t="n">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="E956" t="n">
+        <v>2568.92</v>
+      </c>
+      <c r="F956" t="n">
+        <v>3033.58</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B957" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C957" t="n">
+        <v>5750.54</v>
+      </c>
+      <c r="D957" t="n">
+        <v>66.62</v>
+      </c>
+      <c r="E957" t="n">
+        <v>2570.74</v>
+      </c>
+      <c r="F957" t="n">
+        <v>3035.72</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B958" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C958" t="n">
+        <v>5665.95</v>
+      </c>
+      <c r="D958" t="n">
+        <v>64.77</v>
+      </c>
+      <c r="E958" t="n">
+        <v>2493.88</v>
+      </c>
+      <c r="F958" t="n">
+        <v>2825.42</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B959" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C959" t="n">
+        <v>5663.17</v>
+      </c>
+      <c r="D959" t="n">
+        <v>64.28</v>
+      </c>
+      <c r="E959" t="n">
+        <v>2522.33</v>
+      </c>
+      <c r="F959" t="n">
+        <v>2876.09</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B960" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C960" t="n">
+        <v>5599.86</v>
+      </c>
+      <c r="D960" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="E960" t="n">
+        <v>2565.15</v>
+      </c>
+      <c r="F960" t="n">
+        <v>2919.75</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B961" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C961" t="n">
+        <v>5673.76</v>
+      </c>
+      <c r="D961" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="E961" t="n">
+        <v>2578.85</v>
+      </c>
+      <c r="F961" t="n">
+        <v>2954.22</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B962" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C962" t="n">
+        <v>5636.47</v>
+      </c>
+      <c r="D962" t="n">
+        <v>68.27</v>
+      </c>
+      <c r="E962" t="n">
+        <v>2563.52</v>
+      </c>
+      <c r="F962" t="n">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B963" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C963" t="n">
+        <v>5561.75</v>
+      </c>
+      <c r="D963" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="E963" t="n">
+        <v>2539.75</v>
+      </c>
+      <c r="F963" t="n">
+        <v>3031.32</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B964" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C964" t="n">
+        <v>5687.83</v>
+      </c>
+      <c r="D964" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E964" t="n">
+        <v>2638.98</v>
+      </c>
+      <c r="F964" t="n">
+        <v>3047.15</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B965" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C965" t="n">
+        <v>5659.34</v>
+      </c>
+      <c r="D965" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="E965" t="n">
+        <v>2637.65</v>
+      </c>
+      <c r="F965" t="n">
+        <v>3020.13</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B966" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C966" t="n">
+        <v>5690.41</v>
+      </c>
+      <c r="D966" t="n">
+        <v>67.54000000000001</v>
+      </c>
+      <c r="E966" t="n">
+        <v>2629.83</v>
+      </c>
+      <c r="F966" t="n">
+        <v>3018.17</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B967" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C967" t="n">
+        <v>5706.25</v>
+      </c>
+      <c r="D967" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E967" t="n">
+        <v>2612.35</v>
+      </c>
+      <c r="F967" t="n">
+        <v>2988.81</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B968" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C968" t="n">
+        <v>5736.79</v>
+      </c>
+      <c r="D968" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="E968" t="n">
+        <v>2632.37</v>
+      </c>
+      <c r="F968" t="n">
+        <v>3031.21</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B969" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C969" t="n">
+        <v>5788.68</v>
+      </c>
+      <c r="D969" t="n">
+        <v>70.44</v>
+      </c>
+      <c r="E969" t="n">
+        <v>2651.93</v>
+      </c>
+      <c r="F969" t="n">
+        <v>3026.29</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B970" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C970" t="n">
+        <v>5829.66</v>
+      </c>
+      <c r="D970" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E970" t="n">
+        <v>2654.31</v>
+      </c>
+      <c r="F970" t="n">
+        <v>2916.32</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B971" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C971" t="n">
+        <v>5874.13</v>
+      </c>
+      <c r="D971" t="n">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="E971" t="n">
+        <v>2704.1</v>
+      </c>
+      <c r="F971" t="n">
+        <v>2958.06</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B972" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C972" t="n">
+        <v>5962.74</v>
+      </c>
+      <c r="D972" t="n">
+        <v>73.34999999999999</v>
+      </c>
+      <c r="E972" t="n">
+        <v>2708.22</v>
+      </c>
+      <c r="F972" t="n">
+        <v>2941.43</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B973" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C973" t="n">
+        <v>6033.3</v>
+      </c>
+      <c r="D973" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="E973" t="n">
+        <v>2738.33</v>
+      </c>
+      <c r="F973" t="n">
+        <v>2861.99</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B974" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C974" t="n">
+        <v>6035.71</v>
+      </c>
+      <c r="D974" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="E974" t="n">
+        <v>2708.59</v>
+      </c>
+      <c r="F974" t="n">
+        <v>2878.62</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B975" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C975" t="n">
+        <v>6030.66</v>
+      </c>
+      <c r="D975" t="n">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="E975" t="n">
+        <v>2693.32</v>
+      </c>
+      <c r="F975" t="n">
+        <v>2848.07</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B976" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C976" t="n">
+        <v>5971.85</v>
+      </c>
+      <c r="D976" t="n">
+        <v>70.45</v>
+      </c>
+      <c r="E976" t="n">
+        <v>2678.19</v>
+      </c>
+      <c r="F976" t="n">
+        <v>2875.59</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B977" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C977" t="n">
+        <v>5874.14</v>
+      </c>
+      <c r="D977" t="n">
+        <v>69.59</v>
+      </c>
+      <c r="E977" t="n">
+        <v>2682.43</v>
+      </c>
+      <c r="F977" t="n">
+        <v>2852.09</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B978" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C978" t="n">
+        <v>5762.28</v>
+      </c>
+      <c r="D978" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="E978" t="n">
+        <v>2685.87</v>
+      </c>
+      <c r="F978" t="n">
+        <v>2778.68</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B979" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C979" t="n">
+        <v>5724.88</v>
+      </c>
+      <c r="D979" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="E979" t="n">
+        <v>2661.79</v>
+      </c>
+      <c r="F979" t="n">
+        <v>2832.31</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B980" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C980" t="n">
+        <v>5715.72</v>
+      </c>
+      <c r="D980" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="E980" t="n">
+        <v>2661.09</v>
+      </c>
+      <c r="F980" t="n">
+        <v>2822.54</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B981" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C981" t="n">
+        <v>5900.56</v>
+      </c>
+      <c r="D981" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="E981" t="n">
+        <v>2722.32</v>
+      </c>
+      <c r="F981" t="n">
+        <v>2976.09</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B982" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C982" t="n">
+        <v>5907.79</v>
+      </c>
+      <c r="D982" t="n">
+        <v>70.31999999999999</v>
+      </c>
+      <c r="E982" t="n">
+        <v>2749.97</v>
+      </c>
+      <c r="F982" t="n">
+        <v>3284.85</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B983" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C983" t="n">
+        <v>5862.09</v>
+      </c>
+      <c r="D983" t="n">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="E983" t="n">
+        <v>2774.71</v>
+      </c>
+      <c r="F983" t="n">
+        <v>3423.5</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B984" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C984" t="n">
+        <v>5933.4</v>
+      </c>
+      <c r="D984" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="E984" t="n">
+        <v>2761.28</v>
+      </c>
+      <c r="F984" t="n">
+        <v>3490.83</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B985" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C985" t="n">
+        <v>6001.66</v>
+      </c>
+      <c r="D985" t="n">
+        <v>70.67</v>
+      </c>
+      <c r="E985" t="n">
+        <v>2842.28</v>
+      </c>
+      <c r="F985" t="n">
+        <v>3600.02</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B986" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C986" t="n">
+        <v>6035.07</v>
+      </c>
+      <c r="D986" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="E986" t="n">
+        <v>2831.75</v>
+      </c>
+      <c r="F986" t="n">
+        <v>3570.73</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B987" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C987" t="n">
+        <v>6078.14</v>
+      </c>
+      <c r="D987" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="E987" t="n">
+        <v>2868.16</v>
+      </c>
+      <c r="F987" t="n">
+        <v>3616.25</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B988" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C988" t="n">
+        <v>6060.82</v>
+      </c>
+      <c r="D988" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="E988" t="n">
+        <v>2859.99</v>
+      </c>
+      <c r="F988" t="n">
+        <v>3605.95</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B989" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C989" t="n">
+        <v>6060.7</v>
+      </c>
+      <c r="D989" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="E989" t="n">
+        <v>2859.93</v>
+      </c>
+      <c r="F989" t="n">
+        <v>3605.88</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B990" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C990" t="n">
+        <v>6008.18</v>
+      </c>
+      <c r="D990" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E990" t="n">
+        <v>2833.66</v>
+      </c>
+      <c r="F990" t="n">
+        <v>3408.52</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B991" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C991" t="n">
+        <v>5993.16</v>
+      </c>
+      <c r="D991" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="E991" t="n">
+        <v>2883.54</v>
+      </c>
+      <c r="F991" t="n">
+        <v>3275.71</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B992" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C992" t="n">
+        <v>5886.06</v>
+      </c>
+      <c r="D992" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E992" t="n">
+        <v>2755.41</v>
+      </c>
+      <c r="F992" t="n">
+        <v>2915.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F992"/>
+  <dimension ref="A1:F993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23260,6 +23260,26 @@
         <v>2915.27</v>
       </c>
     </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B993" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C993" t="n">
+        <v>5848.46</v>
+      </c>
+      <c r="D993" t="n">
+        <v>66.45999999999999</v>
+      </c>
+      <c r="E993" t="n">
+        <v>2701.63</v>
+      </c>
+      <c r="F993" t="n">
+        <v>2830.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F995"/>
+  <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23332,6 +23332,46 @@
         <v>2830.97</v>
       </c>
     </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B996" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C996" t="n">
+        <v>5785.3</v>
+      </c>
+      <c r="D996" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="E996" t="n">
+        <v>2654.59</v>
+      </c>
+      <c r="F996" t="n">
+        <v>2845.84</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B997" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C997" t="n">
+        <v>5749.64</v>
+      </c>
+      <c r="D997" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="E997" t="n">
+        <v>2618.17</v>
+      </c>
+      <c r="F997" t="n">
+        <v>2833.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1012"/>
+  <dimension ref="A1:F1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23720,6 +23720,26 @@
         <v>2614.69</v>
       </c>
     </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B1013" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>5741.86</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>63.18</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>2571.55</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>2662.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1054"/>
+  <dimension ref="A1:F1055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24686,6 +24686,26 @@
         <v>2924.42</v>
       </c>
     </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B1055" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>6043.85</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>2689.8</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>2901.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1072"/>
+  <dimension ref="A1:F1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25100,6 +25100,26 @@
         <v>2733.17</v>
       </c>
     </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B1073" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>6252.1</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>2608.38</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>2955.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1082"/>
+  <dimension ref="A1:F1083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25330,6 +25330,26 @@
         <v>3143.55</v>
       </c>
     </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B1083" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>6382.33</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>2743.98</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>3187.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/metalls.xlsx
+++ b/LME/parser_beta/data/centrobank/metalls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1092"/>
+  <dimension ref="A1:F1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25560,6 +25560,26 @@
         <v>2976.95</v>
       </c>
     </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B1093" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>6462.74</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>2709.56</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>3004.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
